--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A5D1FA-7C66-4DFE-9479-575D0E286575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05956AD9-7BBE-4683-AA99-045FCE04060E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6036" uniqueCount="1849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="1849">
   <si>
     <t>Taxon Sort</t>
   </si>
@@ -6129,11 +6129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R414"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D251" sqref="D251"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6218,7 +6217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -6330,7 +6329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -6386,7 +6385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -6492,7 +6491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -6757,7 +6756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
@@ -6810,7 +6809,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -6916,7 +6915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43</v>
       </c>
@@ -6969,7 +6968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47</v>
       </c>
@@ -7075,7 +7074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>61</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -7275,7 +7274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79</v>
       </c>
@@ -7381,7 +7380,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -7434,7 +7433,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -7487,7 +7486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -7540,7 +7539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96</v>
       </c>
@@ -7593,7 +7592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>115</v>
       </c>
@@ -7736,10 +7735,13 @@
       <c r="L30" t="s">
         <v>168</v>
       </c>
+      <c r="M30" t="s">
+        <v>1846</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>120</v>
       </c>
@@ -7792,7 +7794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>123</v>
       </c>
@@ -7848,7 +7850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>124</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>128</v>
       </c>
@@ -7954,7 +7956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>134</v>
       </c>
@@ -8007,7 +8009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>145</v>
       </c>
@@ -8060,7 +8062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>149</v>
       </c>
@@ -8113,7 +8115,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>151</v>
       </c>
@@ -8166,7 +8168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>158</v>
       </c>
@@ -8219,7 +8221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>161</v>
       </c>
@@ -8272,7 +8274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>167</v>
       </c>
@@ -8325,7 +8327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>171</v>
       </c>
@@ -8378,7 +8380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>173</v>
       </c>
@@ -8468,10 +8470,13 @@
       <c r="L44" t="s">
         <v>232</v>
       </c>
+      <c r="M44" t="s">
+        <v>1846</v>
+      </c>
       <c r="O44" s="1"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>175</v>
       </c>
@@ -8524,7 +8529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>178</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>184</v>
       </c>
@@ -8630,7 +8635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>186</v>
       </c>
@@ -8683,7 +8688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>189</v>
       </c>
@@ -8736,7 +8741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>192</v>
       </c>
@@ -8789,7 +8794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>195</v>
       </c>
@@ -8842,7 +8847,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201</v>
       </c>
@@ -8932,10 +8937,13 @@
       <c r="L53" t="s">
         <v>701</v>
       </c>
+      <c r="M53" t="s">
+        <v>1846</v>
+      </c>
       <c r="O53" s="1"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>206</v>
       </c>
@@ -8988,7 +8996,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>213</v>
       </c>
@@ -9041,7 +9049,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>218</v>
       </c>
@@ -9128,8 +9136,11 @@
       <c r="K57" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>228</v>
       </c>
@@ -9182,7 +9193,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>234</v>
       </c>
@@ -9235,7 +9246,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>241</v>
       </c>
@@ -9288,7 +9299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>246</v>
       </c>
@@ -9341,7 +9352,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>249</v>
       </c>
@@ -9394,7 +9405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>251</v>
       </c>
@@ -9447,7 +9458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>253</v>
       </c>
@@ -9500,7 +9511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>259</v>
       </c>
@@ -9553,7 +9564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>265</v>
       </c>
@@ -9643,8 +9654,11 @@
       <c r="L67" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>269</v>
       </c>
@@ -9697,7 +9711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>273</v>
       </c>
@@ -9750,7 +9764,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>274</v>
       </c>
@@ -9803,7 +9817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>275</v>
       </c>
@@ -9856,7 +9870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>278</v>
       </c>
@@ -9909,7 +9923,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>279</v>
       </c>
@@ -9962,7 +9976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>280</v>
       </c>
@@ -10018,7 +10032,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>284</v>
       </c>
@@ -10071,7 +10085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>285</v>
       </c>
@@ -10124,7 +10138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>286</v>
       </c>
@@ -10177,7 +10191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>288</v>
       </c>
@@ -10267,10 +10281,13 @@
       <c r="L79" t="s">
         <v>389</v>
       </c>
+      <c r="M79" t="s">
+        <v>1846</v>
+      </c>
       <c r="O79" s="1"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>297</v>
       </c>
@@ -10323,7 +10340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>298</v>
       </c>
@@ -10376,7 +10393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>300</v>
       </c>
@@ -10429,7 +10446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>303</v>
       </c>
@@ -10519,10 +10536,13 @@
       <c r="L84" t="s">
         <v>410</v>
       </c>
+      <c r="M84" t="s">
+        <v>1846</v>
+      </c>
       <c r="O84" s="1"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>310</v>
       </c>
@@ -10575,7 +10595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>312</v>
       </c>
@@ -10616,7 +10636,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>313</v>
       </c>
@@ -10669,7 +10689,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>316</v>
       </c>
@@ -10722,7 +10742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>319</v>
       </c>
@@ -10775,7 +10795,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>321</v>
       </c>
@@ -10828,7 +10848,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>324</v>
       </c>
@@ -10881,7 +10901,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>327</v>
       </c>
@@ -10922,7 +10942,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>330</v>
       </c>
@@ -10975,7 +10995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>331</v>
       </c>
@@ -11028,7 +11048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>335</v>
       </c>
@@ -11081,7 +11101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>337</v>
       </c>
@@ -11134,7 +11154,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>339</v>
       </c>
@@ -11187,7 +11207,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>340</v>
       </c>
@@ -11240,7 +11260,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>343</v>
       </c>
@@ -11293,7 +11313,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>344</v>
       </c>
@@ -11346,7 +11366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>346</v>
       </c>
@@ -11399,7 +11419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>348</v>
       </c>
@@ -11452,7 +11472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>349</v>
       </c>
@@ -11505,7 +11525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>350</v>
       </c>
@@ -11558,7 +11578,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>351</v>
       </c>
@@ -11611,7 +11631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>358</v>
       </c>
@@ -11664,7 +11684,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>359</v>
       </c>
@@ -11717,7 +11737,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>360</v>
       </c>
@@ -11770,7 +11790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>363</v>
       </c>
@@ -11823,7 +11843,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>366</v>
       </c>
@@ -11876,7 +11896,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>367</v>
       </c>
@@ -11929,7 +11949,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>369</v>
       </c>
@@ -11982,7 +12002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>370</v>
       </c>
@@ -12023,7 +12043,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>371</v>
       </c>
@@ -12064,7 +12084,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>373</v>
       </c>
@@ -12117,7 +12137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>376</v>
       </c>
@@ -12170,7 +12190,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>377</v>
       </c>
@@ -12223,7 +12243,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>382</v>
       </c>
@@ -12276,7 +12296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>384</v>
       </c>
@@ -12329,7 +12349,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>385</v>
       </c>
@@ -12382,7 +12402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>390</v>
       </c>
@@ -12435,7 +12455,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>392</v>
       </c>
@@ -12476,7 +12496,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>394</v>
       </c>
@@ -12517,7 +12537,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>395</v>
       </c>
@@ -12570,7 +12590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>396</v>
       </c>
@@ -12623,7 +12643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>400</v>
       </c>
@@ -12676,7 +12696,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>404</v>
       </c>
@@ -12766,10 +12786,13 @@
       <c r="L128" t="s">
         <v>582</v>
       </c>
+      <c r="M128" t="s">
+        <v>1846</v>
+      </c>
       <c r="O128" s="1"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>411</v>
       </c>
@@ -12822,7 +12845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>416</v>
       </c>
@@ -12875,7 +12898,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>417</v>
       </c>
@@ -12916,7 +12939,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>423</v>
       </c>
@@ -12969,7 +12992,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>428</v>
       </c>
@@ -13022,7 +13045,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>431</v>
       </c>
@@ -13075,7 +13098,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>434</v>
       </c>
@@ -13128,7 +13151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>442</v>
       </c>
@@ -13181,7 +13204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>443</v>
       </c>
@@ -13234,7 +13257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>444</v>
       </c>
@@ -13287,7 +13310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>446</v>
       </c>
@@ -13340,7 +13363,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>456</v>
       </c>
@@ -13393,7 +13416,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>463</v>
       </c>
@@ -13446,7 +13469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>465</v>
       </c>
@@ -13499,7 +13522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>493</v>
       </c>
@@ -13552,7 +13575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>497</v>
       </c>
@@ -13595,7 +13618,7 @@
       <c r="O144" s="1"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>499</v>
       </c>
@@ -13638,7 +13661,7 @@
       <c r="O145" s="1"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>501</v>
       </c>
@@ -13691,7 +13714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>517</v>
       </c>
@@ -13732,7 +13755,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>519</v>
       </c>
@@ -13773,7 +13796,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>534</v>
       </c>
@@ -13851,8 +13874,11 @@
       <c r="L150" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M150" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>537</v>
       </c>
@@ -13893,7 +13919,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>547</v>
       </c>
@@ -13946,7 +13972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>548</v>
       </c>
@@ -13987,7 +14013,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>549</v>
       </c>
@@ -14040,7 +14066,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>555</v>
       </c>
@@ -14081,7 +14107,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>560</v>
       </c>
@@ -14134,7 +14160,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>563</v>
       </c>
@@ -14187,7 +14213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>564</v>
       </c>
@@ -14228,7 +14254,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>569</v>
       </c>
@@ -14269,7 +14295,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>577</v>
       </c>
@@ -14322,7 +14348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>582</v>
       </c>
@@ -14375,7 +14401,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>583</v>
       </c>
@@ -14418,7 +14444,7 @@
       <c r="O162" s="1"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>584</v>
       </c>
@@ -14471,7 +14497,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>587</v>
       </c>
@@ -14514,7 +14540,7 @@
       <c r="O164" s="1"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>589</v>
       </c>
@@ -14557,7 +14583,7 @@
       <c r="O165" s="1"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>590</v>
       </c>
@@ -14598,7 +14624,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>591</v>
       </c>
@@ -14651,7 +14677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>602</v>
       </c>
@@ -14704,7 +14730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>611</v>
       </c>
@@ -14757,7 +14783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>613</v>
       </c>
@@ -14847,10 +14873,13 @@
       <c r="L171" t="s">
         <v>701</v>
       </c>
+      <c r="M171" t="s">
+        <v>1846</v>
+      </c>
       <c r="O171" s="1"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>615</v>
       </c>
@@ -14903,7 +14932,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>619</v>
       </c>
@@ -14956,7 +14985,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>627</v>
       </c>
@@ -15009,7 +15038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>629</v>
       </c>
@@ -15062,7 +15091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>636</v>
       </c>
@@ -15115,7 +15144,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>640</v>
       </c>
@@ -15168,7 +15197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>645</v>
       </c>
@@ -15221,7 +15250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>647</v>
       </c>
@@ -15274,7 +15303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>650</v>
       </c>
@@ -15327,7 +15356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>651</v>
       </c>
@@ -15380,7 +15409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>656</v>
       </c>
@@ -15433,7 +15462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>658</v>
       </c>
@@ -15486,7 +15515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>659</v>
       </c>
@@ -15539,7 +15568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>660</v>
       </c>
@@ -15592,7 +15621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>661</v>
       </c>
@@ -15645,7 +15674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>662</v>
       </c>
@@ -15698,7 +15727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>663</v>
       </c>
@@ -15788,10 +15817,13 @@
       <c r="L189" t="s">
         <v>778</v>
       </c>
+      <c r="M189" t="s">
+        <v>1846</v>
+      </c>
       <c r="O189" s="1"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>669</v>
       </c>
@@ -15844,7 +15876,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>670</v>
       </c>
@@ -15897,7 +15929,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>672</v>
       </c>
@@ -15987,8 +16019,11 @@
       <c r="L193" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M193" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>677</v>
       </c>
@@ -16041,7 +16076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>682</v>
       </c>
@@ -16094,7 +16129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>684</v>
       </c>
@@ -16147,7 +16182,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>686</v>
       </c>
@@ -16200,7 +16235,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>688</v>
       </c>
@@ -16253,7 +16288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>690</v>
       </c>
@@ -16306,7 +16341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>693</v>
       </c>
@@ -16396,8 +16431,11 @@
       <c r="L201" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M201" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>698</v>
       </c>
@@ -16450,7 +16488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>699</v>
       </c>
@@ -16503,7 +16541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>702</v>
       </c>
@@ -16556,7 +16594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>705</v>
       </c>
@@ -16609,7 +16647,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>706</v>
       </c>
@@ -16662,7 +16700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>707</v>
       </c>
@@ -16715,7 +16753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>708</v>
       </c>
@@ -16768,7 +16806,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>710</v>
       </c>
@@ -16821,7 +16859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>717</v>
       </c>
@@ -16911,10 +16949,13 @@
       <c r="L211" t="s">
         <v>1764</v>
       </c>
+      <c r="M211" t="s">
+        <v>1846</v>
+      </c>
       <c r="O211" s="1"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>720</v>
       </c>
@@ -16967,7 +17008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>721</v>
       </c>
@@ -17020,7 +17061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>722</v>
       </c>
@@ -17073,7 +17114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>724</v>
       </c>
@@ -17126,7 +17167,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>726</v>
       </c>
@@ -17179,7 +17220,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>728</v>
       </c>
@@ -17232,7 +17273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>730</v>
       </c>
@@ -17285,7 +17326,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>735</v>
       </c>
@@ -17338,7 +17379,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>741</v>
       </c>
@@ -17391,7 +17432,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>742</v>
       </c>
@@ -17444,7 +17485,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>746</v>
       </c>
@@ -17497,7 +17538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>764</v>
       </c>
@@ -17550,7 +17591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>765</v>
       </c>
@@ -17603,7 +17644,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>773</v>
       </c>
@@ -17656,7 +17697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>782</v>
       </c>
@@ -17709,7 +17750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>785</v>
       </c>
@@ -17762,7 +17803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>789</v>
       </c>
@@ -17815,7 +17856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>793</v>
       </c>
@@ -17868,7 +17909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>797</v>
       </c>
@@ -17958,8 +17999,11 @@
       <c r="L231" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M231" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>803</v>
       </c>
@@ -18012,7 +18056,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>807</v>
       </c>
@@ -18065,7 +18109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>810</v>
       </c>
@@ -18118,7 +18162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>813</v>
       </c>
@@ -18171,7 +18215,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>814</v>
       </c>
@@ -18224,7 +18268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>818</v>
       </c>
@@ -18265,7 +18309,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>819</v>
       </c>
@@ -18306,7 +18350,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>825</v>
       </c>
@@ -18359,7 +18403,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>829</v>
       </c>
@@ -18412,7 +18456,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>838</v>
       </c>
@@ -18465,7 +18509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>842</v>
       </c>
@@ -18521,7 +18565,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>845</v>
       </c>
@@ -18577,7 +18621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>849</v>
       </c>
@@ -18630,7 +18674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>853</v>
       </c>
@@ -18683,7 +18727,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>861</v>
       </c>
@@ -18773,6 +18817,9 @@
       <c r="L247" t="s">
         <v>260</v>
       </c>
+      <c r="M247" t="s">
+        <v>1846</v>
+      </c>
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248">
@@ -18794,7 +18841,7 @@
         <v>51</v>
       </c>
       <c r="G248" t="s">
-        <v>108</v>
+        <v>1647</v>
       </c>
       <c r="H248" t="s">
         <v>500</v>
@@ -18830,7 +18877,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>887</v>
       </c>
@@ -18883,7 +18930,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>898</v>
       </c>
@@ -18973,8 +19020,11 @@
       <c r="L251" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M251" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>914</v>
       </c>
@@ -19015,7 +19065,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>933</v>
       </c>
@@ -19068,7 +19118,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>935</v>
       </c>
@@ -19121,7 +19171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>938</v>
       </c>
@@ -19174,7 +19224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>943</v>
       </c>
@@ -19227,7 +19277,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>948</v>
       </c>
@@ -19280,7 +19330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>961</v>
       </c>
@@ -19333,7 +19383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>980</v>
       </c>
@@ -19386,7 +19436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>983</v>
       </c>
@@ -19439,7 +19489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>984</v>
       </c>
@@ -19492,7 +19542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>995</v>
       </c>
@@ -19545,7 +19595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1001</v>
       </c>
@@ -19635,8 +19685,11 @@
       <c r="L264" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M264" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1019</v>
       </c>
@@ -19689,7 +19742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1025</v>
       </c>
@@ -19742,7 +19795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1037</v>
       </c>
@@ -19832,8 +19885,11 @@
       <c r="L268" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M268" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1101</v>
       </c>
@@ -19886,7 +19942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1103</v>
       </c>
@@ -19939,7 +19995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1104</v>
       </c>
@@ -19992,7 +20048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1116</v>
       </c>
@@ -20045,7 +20101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1119</v>
       </c>
@@ -20098,7 +20154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1123</v>
       </c>
@@ -20151,7 +20207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1131</v>
       </c>
@@ -20204,7 +20260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1137</v>
       </c>
@@ -20257,7 +20313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1145</v>
       </c>
@@ -20310,7 +20366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1149</v>
       </c>
@@ -20400,8 +20456,11 @@
       <c r="L279" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M279" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1159</v>
       </c>
@@ -20454,7 +20513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1162</v>
       </c>
@@ -20507,7 +20566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1171</v>
       </c>
@@ -20560,7 +20619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1195</v>
       </c>
@@ -20613,7 +20672,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1208</v>
       </c>
@@ -20666,7 +20725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1210</v>
       </c>
@@ -20719,7 +20778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1214</v>
       </c>
@@ -20772,7 +20831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1215</v>
       </c>
@@ -20825,7 +20884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1231</v>
       </c>
@@ -20878,7 +20937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1238</v>
       </c>
@@ -20931,7 +20990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1249</v>
       </c>
@@ -20984,7 +21043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1250</v>
       </c>
@@ -21074,8 +21133,11 @@
       <c r="L292" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M292" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1261</v>
       </c>
@@ -21128,7 +21190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1262</v>
       </c>
@@ -21181,7 +21243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1274</v>
       </c>
@@ -21234,7 +21296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1282</v>
       </c>
@@ -21287,7 +21349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1290</v>
       </c>
@@ -21377,10 +21439,13 @@
       <c r="L298" t="s">
         <v>1248</v>
       </c>
+      <c r="M298" t="s">
+        <v>1846</v>
+      </c>
       <c r="O298" s="1"/>
       <c r="P298" s="2"/>
     </row>
-    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1300</v>
       </c>
@@ -21433,7 +21498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1313</v>
       </c>
@@ -21486,7 +21551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1317</v>
       </c>
@@ -21539,7 +21604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1321</v>
       </c>
@@ -21592,7 +21657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1330</v>
       </c>
@@ -21645,7 +21710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1355</v>
       </c>
@@ -21698,7 +21763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1360</v>
       </c>
@@ -21751,7 +21816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1374</v>
       </c>
@@ -21804,7 +21869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1389</v>
       </c>
@@ -21857,7 +21922,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1394</v>
       </c>
@@ -21913,7 +21978,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1398</v>
       </c>
@@ -21966,7 +22031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1411</v>
       </c>
@@ -22019,7 +22084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1424</v>
       </c>
@@ -22072,7 +22137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1430</v>
       </c>
@@ -22125,7 +22190,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1434</v>
       </c>
@@ -22178,7 +22243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1444</v>
       </c>
@@ -22268,8 +22333,11 @@
       <c r="L315" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M315" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1451</v>
       </c>
@@ -22322,7 +22390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1453</v>
       </c>
@@ -22375,7 +22443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1457</v>
       </c>
@@ -22428,7 +22496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1463</v>
       </c>
@@ -22481,7 +22549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1466</v>
       </c>
@@ -22534,7 +22602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1469</v>
       </c>
@@ -22587,7 +22655,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1474</v>
       </c>
@@ -22640,7 +22708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1500</v>
       </c>
@@ -22693,7 +22761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1509</v>
       </c>
@@ -22746,7 +22814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1520</v>
       </c>
@@ -22799,7 +22867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1529</v>
       </c>
@@ -22852,7 +22920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1536</v>
       </c>
@@ -22905,7 +22973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1543</v>
       </c>
@@ -22958,7 +23026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1553</v>
       </c>
@@ -23011,7 +23079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1557</v>
       </c>
@@ -23064,7 +23132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1573</v>
       </c>
@@ -23117,7 +23185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1592</v>
       </c>
@@ -23170,7 +23238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1601</v>
       </c>
@@ -23223,7 +23291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1604</v>
       </c>
@@ -23276,7 +23344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1612</v>
       </c>
@@ -23329,7 +23397,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1613</v>
       </c>
@@ -23382,7 +23450,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1614</v>
       </c>
@@ -23435,7 +23503,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1617</v>
       </c>
@@ -23488,7 +23556,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1622</v>
       </c>
@@ -23529,7 +23597,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1625</v>
       </c>
@@ -23582,7 +23650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1627</v>
       </c>
@@ -23635,7 +23703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1635</v>
       </c>
@@ -23688,7 +23756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1639</v>
       </c>
@@ -23741,7 +23809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1644</v>
       </c>
@@ -23794,7 +23862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1656</v>
       </c>
@@ -23884,8 +23952,11 @@
       <c r="L346" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M346" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1669</v>
       </c>
@@ -23938,7 +24009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1677</v>
       </c>
@@ -23991,7 +24062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1678</v>
       </c>
@@ -24044,7 +24115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1681</v>
       </c>
@@ -24097,7 +24168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1689</v>
       </c>
@@ -24150,7 +24221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1692</v>
       </c>
@@ -24203,7 +24274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1696</v>
       </c>
@@ -24256,7 +24327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1701</v>
       </c>
@@ -24309,7 +24380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1705</v>
       </c>
@@ -24362,7 +24433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1711</v>
       </c>
@@ -24415,7 +24486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1715</v>
       </c>
@@ -24468,7 +24539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1720</v>
       </c>
@@ -24521,7 +24592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1725</v>
       </c>
@@ -24574,7 +24645,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1733</v>
       </c>
@@ -24627,7 +24698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1744</v>
       </c>
@@ -24680,7 +24751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1753</v>
       </c>
@@ -24770,8 +24841,11 @@
       <c r="L363" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M363" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1769</v>
       </c>
@@ -24824,7 +24898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1775</v>
       </c>
@@ -24877,7 +24951,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1779</v>
       </c>
@@ -24967,10 +25041,13 @@
       <c r="L367" t="s">
         <v>701</v>
       </c>
+      <c r="M367" t="s">
+        <v>1846</v>
+      </c>
       <c r="O367" s="1"/>
       <c r="P367" s="2"/>
     </row>
-    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1790</v>
       </c>
@@ -25023,7 +25100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1800</v>
       </c>
@@ -25076,7 +25153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1810</v>
       </c>
@@ -25132,7 +25209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1812</v>
       </c>
@@ -25185,7 +25262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1818</v>
       </c>
@@ -25238,7 +25315,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1826</v>
       </c>
@@ -25291,7 +25368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1831</v>
       </c>
@@ -25344,7 +25421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1838</v>
       </c>
@@ -25400,7 +25477,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1846</v>
       </c>
@@ -25456,7 +25533,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1850</v>
       </c>
@@ -25497,7 +25574,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1852</v>
       </c>
@@ -25538,7 +25615,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1868</v>
       </c>
@@ -25591,7 +25668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1876</v>
       </c>
@@ -25644,7 +25721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1877</v>
       </c>
@@ -25697,7 +25774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1878</v>
       </c>
@@ -25750,7 +25827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1880</v>
       </c>
@@ -25803,7 +25880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1887</v>
       </c>
@@ -25856,7 +25933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1890</v>
       </c>
@@ -25897,7 +25974,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1893</v>
       </c>
@@ -25950,7 +26027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1894</v>
       </c>
@@ -26003,7 +26080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1899</v>
       </c>
@@ -26056,7 +26133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1915</v>
       </c>
@@ -26109,7 +26186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1928</v>
       </c>
@@ -26162,7 +26239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1933</v>
       </c>
@@ -26215,7 +26292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1960</v>
       </c>
@@ -26268,7 +26345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1966</v>
       </c>
@@ -26385,13 +26462,7 @@
       <c r="E414"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R393" xr:uid="{AE202148-585A-4061-B20F-EDD71BEF1164}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R393" xr:uid="{AE202148-585A-4061-B20F-EDD71BEF1164}"/>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{A0F77CDA-A515-43D8-BE1D-327AE927F7BE}"/>
     <hyperlink ref="O3" r:id="rId2" xr:uid="{5E665AE3-9D96-407E-8FEC-22028A4FBAAA}"/>
@@ -27756,7 +27827,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$D$2:$D$3&amp;"'!G:G"),A2))</f>
+        <f t="shared" ref="B2:B10" ca="1" si="0">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$D$2:$D$3&amp;"'!G:G"),A2))</f>
         <v>356</v>
       </c>
       <c r="D2" t="s">
@@ -27768,7 +27839,7 @@
         <v>1768</v>
       </c>
       <c r="B3">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$D$2:$D$3&amp;"'!G:G"),A3))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" t="s">
@@ -27780,7 +27851,7 @@
         <v>137</v>
       </c>
       <c r="B4">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$D$2:$D$3&amp;"'!G:G"),A4))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -27789,8 +27860,8 @@
         <v>1647</v>
       </c>
       <c r="B5">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$D$2:$D$3&amp;"'!G:G"),A5))</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -27798,7 +27869,7 @@
         <v>1691</v>
       </c>
       <c r="B6">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$D$2:$D$3&amp;"'!G:G"),A6))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -27807,7 +27878,7 @@
         <v>1769</v>
       </c>
       <c r="B7">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$D$2:$D$3&amp;"'!G:G"),A7))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -27816,7 +27887,7 @@
         <v>1677</v>
       </c>
       <c r="B8">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$D$2:$D$3&amp;"'!G:G"),A8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -27825,7 +27896,7 @@
         <v>1748</v>
       </c>
       <c r="B9">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$D$2:$D$3&amp;"'!G:G"),A9))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -27834,8 +27905,8 @@
         <v>108</v>
       </c>
       <c r="B10">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$D$2:$D$3&amp;"'!G:G"),A10))</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -27848,7 +27919,7 @@
       </c>
       <c r="B12" s="12">
         <f ca="1">B2+B4+B10</f>
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0F4E37-5258-4C7F-A407-F1AB5B234C43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC18620-64BF-4AF3-AE75-5B041DFB9DE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6287" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6288" uniqueCount="1914">
   <si>
     <t>Taxon Sort</t>
   </si>
@@ -5765,9 +5765,6 @@
     <t>Shy Albatross</t>
   </si>
   <si>
-    <t>Shy Albatross O29944</t>
-  </si>
-  <si>
     <t>Thalassarche cauta</t>
   </si>
   <si>
@@ -5925,6 +5922,12 @@
   </si>
   <si>
     <t>pair in garden in Morningside - needs decision on whether that is an acceptable Cat A record - maybe these are Cat E - but seems amazing to have two escape? Given there are numerous historical records, there is precedent for these to be wild birds, so Cat A</t>
+  </si>
+  <si>
+    <t>Shy Albatross O29944 and O11003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -6462,11 +6465,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R432"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="L183" sqref="L183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6551,7 +6555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6607,7 +6611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -6663,7 +6667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -6772,7 +6776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -6825,7 +6829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -6878,7 +6882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -6931,7 +6935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -6984,7 +6988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34</v>
       </c>
@@ -7037,7 +7041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -7090,7 +7094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
@@ -7143,7 +7147,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -7196,7 +7200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -7249,7 +7253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -7355,7 +7359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47</v>
       </c>
@@ -7408,7 +7412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -7449,7 +7453,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>61</v>
       </c>
@@ -7502,7 +7506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -7555,7 +7559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -7608,7 +7612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
       </c>
@@ -7661,7 +7665,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -7767,7 +7771,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -7820,7 +7824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -7873,7 +7877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96</v>
       </c>
@@ -7926,7 +7930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -7979,7 +7983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>115</v>
       </c>
@@ -8075,7 +8079,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>120</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>123</v>
       </c>
@@ -8184,7 +8188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>124</v>
       </c>
@@ -8237,7 +8241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>128</v>
       </c>
@@ -8290,7 +8294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>134</v>
       </c>
@@ -8343,7 +8347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>145</v>
       </c>
@@ -8396,7 +8400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>149</v>
       </c>
@@ -8449,7 +8453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>151</v>
       </c>
@@ -8502,7 +8506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>158</v>
       </c>
@@ -8555,7 +8559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>161</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>167</v>
       </c>
@@ -8661,7 +8665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>171</v>
       </c>
@@ -8714,7 +8718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>173</v>
       </c>
@@ -8810,7 +8814,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>175</v>
       </c>
@@ -8863,7 +8867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>178</v>
       </c>
@@ -8916,7 +8920,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>184</v>
       </c>
@@ -8969,7 +8973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>186</v>
       </c>
@@ -9022,7 +9026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>189</v>
       </c>
@@ -9075,7 +9079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>192</v>
       </c>
@@ -9128,7 +9132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>195</v>
       </c>
@@ -9181,7 +9185,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201</v>
       </c>
@@ -9269,7 +9273,7 @@
         <v>1687</v>
       </c>
       <c r="L53" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="M53" t="s">
         <v>1843</v>
@@ -9277,7 +9281,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>206</v>
       </c>
@@ -9330,7 +9334,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>213</v>
       </c>
@@ -9383,7 +9387,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>218</v>
       </c>
@@ -9436,7 +9440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>223</v>
       </c>
@@ -9474,7 +9478,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>228</v>
       </c>
@@ -9527,7 +9531,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>234</v>
       </c>
@@ -9580,7 +9584,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>241</v>
       </c>
@@ -9633,7 +9637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>246</v>
       </c>
@@ -9686,7 +9690,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>249</v>
       </c>
@@ -9739,7 +9743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>251</v>
       </c>
@@ -9792,7 +9796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>253</v>
       </c>
@@ -9845,7 +9849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>259</v>
       </c>
@@ -9898,7 +9902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>265</v>
       </c>
@@ -9951,7 +9955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>267</v>
       </c>
@@ -9992,7 +9996,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>269</v>
       </c>
@@ -10045,7 +10049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>273</v>
       </c>
@@ -10098,7 +10102,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>274</v>
       </c>
@@ -10151,7 +10155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>275</v>
       </c>
@@ -10204,7 +10208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>278</v>
       </c>
@@ -10257,7 +10261,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>279</v>
       </c>
@@ -10310,7 +10314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>280</v>
       </c>
@@ -10366,7 +10370,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>284</v>
       </c>
@@ -10419,7 +10423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>285</v>
       </c>
@@ -10472,7 +10476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>286</v>
       </c>
@@ -10525,7 +10529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>288</v>
       </c>
@@ -10621,7 +10625,7 @@
       <c r="O79" s="1"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>297</v>
       </c>
@@ -10674,7 +10678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>298</v>
       </c>
@@ -10727,7 +10731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>300</v>
       </c>
@@ -10780,7 +10784,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>303</v>
       </c>
@@ -10876,7 +10880,7 @@
       <c r="O84" s="1"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>310</v>
       </c>
@@ -10929,7 +10933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>312</v>
       </c>
@@ -10970,7 +10974,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>313</v>
       </c>
@@ -11023,7 +11027,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>316</v>
       </c>
@@ -11076,7 +11080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>319</v>
       </c>
@@ -11129,7 +11133,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>321</v>
       </c>
@@ -11182,7 +11186,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>324</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>327</v>
       </c>
@@ -11270,13 +11274,13 @@
         <v>1686</v>
       </c>
       <c r="L92" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="M92" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>330</v>
       </c>
@@ -11329,7 +11333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>331</v>
       </c>
@@ -11382,7 +11386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>335</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>337</v>
       </c>
@@ -11488,7 +11492,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>339</v>
       </c>
@@ -11541,7 +11545,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>340</v>
       </c>
@@ -11594,7 +11598,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>343</v>
       </c>
@@ -11647,7 +11651,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>344</v>
       </c>
@@ -11700,7 +11704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>346</v>
       </c>
@@ -11753,7 +11757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>348</v>
       </c>
@@ -11806,7 +11810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>349</v>
       </c>
@@ -11859,7 +11863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>350</v>
       </c>
@@ -11912,7 +11916,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>351</v>
       </c>
@@ -11965,7 +11969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>358</v>
       </c>
@@ -12018,7 +12022,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>359</v>
       </c>
@@ -12071,7 +12075,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>360</v>
       </c>
@@ -12124,7 +12128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>363</v>
       </c>
@@ -12177,7 +12181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>366</v>
       </c>
@@ -12230,7 +12234,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>367</v>
       </c>
@@ -12283,7 +12287,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>369</v>
       </c>
@@ -12336,7 +12340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>370</v>
       </c>
@@ -12377,7 +12381,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>371</v>
       </c>
@@ -12418,7 +12422,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>373</v>
       </c>
@@ -12471,7 +12475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>376</v>
       </c>
@@ -12524,7 +12528,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>377</v>
       </c>
@@ -12577,7 +12581,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>382</v>
       </c>
@@ -12630,7 +12634,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>384</v>
       </c>
@@ -12683,7 +12687,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>385</v>
       </c>
@@ -12736,7 +12740,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>390</v>
       </c>
@@ -12794,16 +12798,16 @@
         <v>391</v>
       </c>
       <c r="B122" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C122" t="s">
         <v>1904</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E122" s="8" t="s">
         <v>1905</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1905</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>1906</v>
       </c>
       <c r="F122" t="s">
         <v>51</v>
@@ -12824,7 +12828,7 @@
         <v>1687</v>
       </c>
       <c r="L122" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="M122" t="s">
         <v>1843</v>
@@ -12832,7 +12836,7 @@
       <c r="O122" s="1"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>392</v>
       </c>
@@ -12873,7 +12877,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>394</v>
       </c>
@@ -12914,7 +12918,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>395</v>
       </c>
@@ -12967,7 +12971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>396</v>
       </c>
@@ -13020,7 +13024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>400</v>
       </c>
@@ -13073,7 +13077,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>404</v>
       </c>
@@ -13131,16 +13135,16 @@
         <v>406</v>
       </c>
       <c r="B129" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C129" t="s">
         <v>1861</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E129" s="8" t="s">
         <v>1862</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1862</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>1863</v>
       </c>
       <c r="F129" t="s">
         <v>51</v>
@@ -13161,7 +13165,7 @@
         <v>108</v>
       </c>
       <c r="L129" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="M129" t="s">
         <v>1843</v>
@@ -13204,7 +13208,7 @@
         <v>108</v>
       </c>
       <c r="L130" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="M130" t="s">
         <v>1843</v>
@@ -13212,7 +13216,7 @@
       <c r="O130" s="1"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>411</v>
       </c>
@@ -13265,7 +13269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>416</v>
       </c>
@@ -13318,7 +13322,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>417</v>
       </c>
@@ -13359,7 +13363,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>423</v>
       </c>
@@ -13412,7 +13416,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>428</v>
       </c>
@@ -13465,7 +13469,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>431</v>
       </c>
@@ -13518,7 +13522,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>434</v>
       </c>
@@ -13571,7 +13575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>442</v>
       </c>
@@ -13624,7 +13628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>443</v>
       </c>
@@ -13677,7 +13681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>444</v>
       </c>
@@ -13730,7 +13734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>446</v>
       </c>
@@ -13783,7 +13787,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>456</v>
       </c>
@@ -13836,7 +13840,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>463</v>
       </c>
@@ -13889,7 +13893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>465</v>
       </c>
@@ -13977,7 +13981,7 @@
         <v>108</v>
       </c>
       <c r="L145" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="M145" t="s">
         <v>1843</v>
@@ -13990,16 +13994,16 @@
         <v>472</v>
       </c>
       <c r="B146" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C146" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D146" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="F146" t="s">
         <v>51</v>
@@ -14020,7 +14024,7 @@
         <v>1687</v>
       </c>
       <c r="L146" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="M146" t="s">
         <v>1843</v>
@@ -14033,16 +14037,16 @@
         <v>490</v>
       </c>
       <c r="B147" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>1900</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D147" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>1901</v>
       </c>
       <c r="F147" t="s">
         <v>51</v>
@@ -14063,7 +14067,7 @@
         <v>108</v>
       </c>
       <c r="L147" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="M147" t="s">
         <v>1843</v>
@@ -14071,7 +14075,7 @@
       <c r="O147" s="1"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>493</v>
       </c>
@@ -14124,7 +14128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>497</v>
       </c>
@@ -14167,7 +14171,7 @@
       <c r="O149" s="1"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>499</v>
       </c>
@@ -14210,7 +14214,7 @@
       <c r="O150" s="1"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>501</v>
       </c>
@@ -14268,16 +14272,16 @@
         <v>506</v>
       </c>
       <c r="B152" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E152" s="8" t="s">
         <v>1871</v>
-      </c>
-      <c r="C152" t="s">
-        <v>1871</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1871</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>1872</v>
       </c>
       <c r="F152" t="s">
         <v>51</v>
@@ -14295,10 +14299,10 @@
         <v>500</v>
       </c>
       <c r="K152" t="s">
-        <v>1687</v>
+        <v>108</v>
       </c>
       <c r="L152" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="M152" t="s">
         <v>1843</v>
@@ -14306,7 +14310,7 @@
       <c r="O152" s="1"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>517</v>
       </c>
@@ -14352,16 +14356,16 @@
         <v>518</v>
       </c>
       <c r="B154" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E154" s="8" t="s">
         <v>1869</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>1870</v>
       </c>
       <c r="F154" t="s">
         <v>51</v>
@@ -14382,13 +14386,13 @@
         <v>1687</v>
       </c>
       <c r="L154" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="M154" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>519</v>
       </c>
@@ -14443,7 +14447,7 @@
         <v>1858</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F156" t="s">
         <v>51</v>
@@ -14464,13 +14468,13 @@
         <v>1687</v>
       </c>
       <c r="L156" t="s">
-        <v>1859</v>
+        <v>1912</v>
       </c>
       <c r="M156" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>534</v>
       </c>
@@ -14546,13 +14550,13 @@
         <v>108</v>
       </c>
       <c r="L158" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="M158" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>537</v>
       </c>
@@ -14587,7 +14591,7 @@
         <v>1686</v>
       </c>
       <c r="L159" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="M159" t="s">
         <v>1843</v>
@@ -14598,16 +14602,16 @@
         <v>544</v>
       </c>
       <c r="B160" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E160" s="8" t="s">
         <v>1874</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>1875</v>
       </c>
       <c r="F160" t="s">
         <v>51</v>
@@ -14628,13 +14632,13 @@
         <v>1687</v>
       </c>
       <c r="L160" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="M160" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>547</v>
       </c>
@@ -14687,7 +14691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>548</v>
       </c>
@@ -14728,7 +14732,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>549</v>
       </c>
@@ -14781,7 +14785,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>555</v>
       </c>
@@ -14822,7 +14826,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>560</v>
       </c>
@@ -14875,7 +14879,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>563</v>
       </c>
@@ -14928,7 +14932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>564</v>
       </c>
@@ -15010,7 +15014,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>569</v>
       </c>
@@ -15092,7 +15096,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>577</v>
       </c>
@@ -15145,7 +15149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>582</v>
       </c>
@@ -15198,7 +15202,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>583</v>
       </c>
@@ -15241,7 +15245,7 @@
       <c r="O173" s="1"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>584</v>
       </c>
@@ -15294,7 +15298,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>587</v>
       </c>
@@ -15337,7 +15341,7 @@
       <c r="O175" s="1"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>589</v>
       </c>
@@ -15380,7 +15384,7 @@
       <c r="O176" s="1"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>590</v>
       </c>
@@ -15421,7 +15425,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>591</v>
       </c>
@@ -15517,7 +15521,7 @@
       <c r="O179" s="1"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>602</v>
       </c>
@@ -15570,7 +15574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>611</v>
       </c>
@@ -15623,7 +15627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>613</v>
       </c>
@@ -15711,7 +15715,7 @@
         <v>1687</v>
       </c>
       <c r="L183" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="M183" t="s">
         <v>1843</v>
@@ -15719,7 +15723,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>615</v>
       </c>
@@ -15772,7 +15776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>619</v>
       </c>
@@ -15825,7 +15829,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>627</v>
       </c>
@@ -15878,7 +15882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>629</v>
       </c>
@@ -15931,7 +15935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>636</v>
       </c>
@@ -15984,7 +15988,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>640</v>
       </c>
@@ -16037,7 +16041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>645</v>
       </c>
@@ -16090,7 +16094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>647</v>
       </c>
@@ -16143,7 +16147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>650</v>
       </c>
@@ -16196,7 +16200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>651</v>
       </c>
@@ -16249,7 +16253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>656</v>
       </c>
@@ -16302,7 +16306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>658</v>
       </c>
@@ -16355,7 +16359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>659</v>
       </c>
@@ -16408,7 +16412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>660</v>
       </c>
@@ -16461,7 +16465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>661</v>
       </c>
@@ -16514,7 +16518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>662</v>
       </c>
@@ -16567,7 +16571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>663</v>
       </c>
@@ -16652,7 +16656,7 @@
         <v>500</v>
       </c>
       <c r="K201" t="s">
-        <v>1687</v>
+        <v>108</v>
       </c>
       <c r="L201" t="s">
         <v>776</v>
@@ -16663,7 +16667,7 @@
       <c r="O201" s="1"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>669</v>
       </c>
@@ -16716,7 +16720,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>670</v>
       </c>
@@ -16769,7 +16773,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>672</v>
       </c>
@@ -16822,7 +16826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>674</v>
       </c>
@@ -16863,7 +16867,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>677</v>
       </c>
@@ -16916,7 +16920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>682</v>
       </c>
@@ -16969,7 +16973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>684</v>
       </c>
@@ -17022,7 +17026,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>686</v>
       </c>
@@ -17075,7 +17079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>688</v>
       </c>
@@ -17128,7 +17132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>690</v>
       </c>
@@ -17181,7 +17185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>693</v>
       </c>
@@ -17239,16 +17243,16 @@
         <v>694</v>
       </c>
       <c r="B213" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E213" s="8" t="s">
         <v>1908</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1908</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E213" s="8" t="s">
-        <v>1909</v>
       </c>
       <c r="F213" t="s">
         <v>51</v>
@@ -17269,7 +17273,7 @@
         <v>108</v>
       </c>
       <c r="L213" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="M213" t="s">
         <v>1843</v>
@@ -17277,7 +17281,7 @@
       <c r="O213" s="1"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>697</v>
       </c>
@@ -17318,7 +17322,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>698</v>
       </c>
@@ -17371,7 +17375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>699</v>
       </c>
@@ -17424,7 +17428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>702</v>
       </c>
@@ -17477,7 +17481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>705</v>
       </c>
@@ -17530,7 +17534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>706</v>
       </c>
@@ -17583,7 +17587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>707</v>
       </c>
@@ -17636,7 +17640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>708</v>
       </c>
@@ -17689,7 +17693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>710</v>
       </c>
@@ -17742,7 +17746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>717</v>
       </c>
@@ -17838,7 +17842,7 @@
       <c r="O224" s="1"/>
       <c r="P224" s="2"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>720</v>
       </c>
@@ -17891,7 +17895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>721</v>
       </c>
@@ -17944,7 +17948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>722</v>
       </c>
@@ -17997,7 +18001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>724</v>
       </c>
@@ -18050,7 +18054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>726</v>
       </c>
@@ -18103,7 +18107,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>728</v>
       </c>
@@ -18156,7 +18160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>730</v>
       </c>
@@ -18209,7 +18213,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>735</v>
       </c>
@@ -18262,7 +18266,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>741</v>
       </c>
@@ -18315,7 +18319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>742</v>
       </c>
@@ -18368,7 +18372,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>746</v>
       </c>
@@ -18421,7 +18425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>764</v>
       </c>
@@ -18474,7 +18478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>765</v>
       </c>
@@ -18527,7 +18531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>773</v>
       </c>
@@ -18580,7 +18584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>782</v>
       </c>
@@ -18633,7 +18637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>785</v>
       </c>
@@ -18686,7 +18690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>789</v>
       </c>
@@ -18739,7 +18743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>793</v>
       </c>
@@ -18792,7 +18796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>797</v>
       </c>
@@ -18845,7 +18849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>800</v>
       </c>
@@ -18886,7 +18890,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>803</v>
       </c>
@@ -18939,7 +18943,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>807</v>
       </c>
@@ -18992,7 +18996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>810</v>
       </c>
@@ -19045,7 +19049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>813</v>
       </c>
@@ -19098,7 +19102,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>814</v>
       </c>
@@ -19151,7 +19155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>818</v>
       </c>
@@ -19192,7 +19196,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>819</v>
       </c>
@@ -19233,7 +19237,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>825</v>
       </c>
@@ -19286,7 +19290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>829</v>
       </c>
@@ -19339,7 +19343,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>838</v>
       </c>
@@ -19392,7 +19396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>842</v>
       </c>
@@ -19448,7 +19452,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>845</v>
       </c>
@@ -19504,7 +19508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>849</v>
       </c>
@@ -19557,7 +19561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>853</v>
       </c>
@@ -19610,7 +19614,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>861</v>
       </c>
@@ -19663,7 +19667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>864</v>
       </c>
@@ -19704,7 +19708,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>871</v>
       </c>
@@ -19739,7 +19743,7 @@
         <v>1686</v>
       </c>
       <c r="L261" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="M261" t="s">
         <v>23</v>
@@ -19765,16 +19769,16 @@
         <v>882</v>
       </c>
       <c r="B262" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E262" s="8" t="s">
         <v>1880</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1880</v>
-      </c>
-      <c r="E262" s="8" t="s">
-        <v>1881</v>
       </c>
       <c r="F262" t="s">
         <v>1760</v>
@@ -19795,7 +19799,7 @@
         <v>1687</v>
       </c>
       <c r="L262" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="M262" t="s">
         <v>1843</v>
@@ -19803,7 +19807,7 @@
       <c r="O262" s="1"/>
       <c r="P262" s="2"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>887</v>
       </c>
@@ -19856,7 +19860,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>898</v>
       </c>
@@ -19909,7 +19913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>901</v>
       </c>
@@ -19950,7 +19954,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>914</v>
       </c>
@@ -19991,7 +19995,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>933</v>
       </c>
@@ -20044,7 +20048,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>935</v>
       </c>
@@ -20097,7 +20101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>938</v>
       </c>
@@ -20150,7 +20154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>943</v>
       </c>
@@ -20203,7 +20207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>948</v>
       </c>
@@ -20261,16 +20265,16 @@
         <v>953</v>
       </c>
       <c r="B272" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C272" t="s">
         <v>1886</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E272" s="8" t="s">
         <v>1887</v>
-      </c>
-      <c r="D272" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E272" s="8" t="s">
-        <v>1888</v>
       </c>
       <c r="F272" t="s">
         <v>1760</v>
@@ -20291,7 +20295,7 @@
         <v>1687</v>
       </c>
       <c r="L272" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="M272" t="s">
         <v>1843</v>
@@ -20299,7 +20303,7 @@
       <c r="O272" s="1"/>
       <c r="P272" s="2"/>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>961</v>
       </c>
@@ -20352,7 +20356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>980</v>
       </c>
@@ -20405,7 +20409,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>983</v>
       </c>
@@ -20458,7 +20462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>984</v>
       </c>
@@ -20511,7 +20515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>995</v>
       </c>
@@ -20564,7 +20568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1001</v>
       </c>
@@ -20617,7 +20621,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1006</v>
       </c>
@@ -20658,7 +20662,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1019</v>
       </c>
@@ -20711,7 +20715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1025</v>
       </c>
@@ -20764,7 +20768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1037</v>
       </c>
@@ -20817,7 +20821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1094</v>
       </c>
@@ -20858,7 +20862,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1101</v>
       </c>
@@ -20911,7 +20915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1103</v>
       </c>
@@ -20964,7 +20968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1104</v>
       </c>
@@ -21017,7 +21021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1116</v>
       </c>
@@ -21070,7 +21074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1119</v>
       </c>
@@ -21123,7 +21127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1123</v>
       </c>
@@ -21176,7 +21180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1131</v>
       </c>
@@ -21229,7 +21233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1137</v>
       </c>
@@ -21282,7 +21286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1145</v>
       </c>
@@ -21335,7 +21339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1149</v>
       </c>
@@ -21388,7 +21392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1153</v>
       </c>
@@ -21429,7 +21433,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1159</v>
       </c>
@@ -21482,7 +21486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1162</v>
       </c>
@@ -21535,7 +21539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1171</v>
       </c>
@@ -21588,7 +21592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1195</v>
       </c>
@@ -21641,7 +21645,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1208</v>
       </c>
@@ -21694,7 +21698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1210</v>
       </c>
@@ -21747,7 +21751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1214</v>
       </c>
@@ -21800,7 +21804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1215</v>
       </c>
@@ -21853,7 +21857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1231</v>
       </c>
@@ -21906,7 +21910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1238</v>
       </c>
@@ -21959,7 +21963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1249</v>
       </c>
@@ -22012,7 +22016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1250</v>
       </c>
@@ -22106,7 +22110,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1261</v>
       </c>
@@ -22159,7 +22163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1262</v>
       </c>
@@ -22212,7 +22216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1274</v>
       </c>
@@ -22265,7 +22269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1282</v>
       </c>
@@ -22318,7 +22322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1290</v>
       </c>
@@ -22414,7 +22418,7 @@
       <c r="O313" s="1"/>
       <c r="P313" s="2"/>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1300</v>
       </c>
@@ -22467,7 +22471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1313</v>
       </c>
@@ -22520,7 +22524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1317</v>
       </c>
@@ -22573,7 +22577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1321</v>
       </c>
@@ -22626,7 +22630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1330</v>
       </c>
@@ -22679,7 +22683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1355</v>
       </c>
@@ -22732,7 +22736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1360</v>
       </c>
@@ -22785,7 +22789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1374</v>
       </c>
@@ -22838,7 +22842,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1389</v>
       </c>
@@ -22891,7 +22895,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1394</v>
       </c>
@@ -22947,7 +22951,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1398</v>
       </c>
@@ -23000,7 +23004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1411</v>
       </c>
@@ -23053,7 +23057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1424</v>
       </c>
@@ -23106,7 +23110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1430</v>
       </c>
@@ -23159,7 +23163,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1434</v>
       </c>
@@ -23212,7 +23216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1444</v>
       </c>
@@ -23265,7 +23269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1450</v>
       </c>
@@ -23306,7 +23310,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1451</v>
       </c>
@@ -23359,7 +23363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1453</v>
       </c>
@@ -23412,7 +23416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1457</v>
       </c>
@@ -23465,7 +23469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1463</v>
       </c>
@@ -23518,7 +23522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1466</v>
       </c>
@@ -23571,7 +23575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1469</v>
       </c>
@@ -23624,7 +23628,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1474</v>
       </c>
@@ -23677,7 +23681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1500</v>
       </c>
@@ -23730,7 +23734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1509</v>
       </c>
@@ -23783,7 +23787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1520</v>
       </c>
@@ -23836,7 +23840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1529</v>
       </c>
@@ -23889,7 +23893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1536</v>
       </c>
@@ -23942,7 +23946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1543</v>
       </c>
@@ -23995,7 +23999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1553</v>
       </c>
@@ -24048,7 +24052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1557</v>
       </c>
@@ -24101,7 +24105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1573</v>
       </c>
@@ -24154,7 +24158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1592</v>
       </c>
@@ -24207,7 +24211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1601</v>
       </c>
@@ -24260,7 +24264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1604</v>
       </c>
@@ -24313,7 +24317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1612</v>
       </c>
@@ -24366,7 +24370,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1613</v>
       </c>
@@ -24419,7 +24423,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1614</v>
       </c>
@@ -24472,7 +24476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1617</v>
       </c>
@@ -24525,7 +24529,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1622</v>
       </c>
@@ -24566,7 +24570,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1625</v>
       </c>
@@ -24619,7 +24623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1627</v>
       </c>
@@ -24672,7 +24676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1635</v>
       </c>
@@ -24725,7 +24729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1639</v>
       </c>
@@ -24778,7 +24782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1644</v>
       </c>
@@ -24831,7 +24835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1656</v>
       </c>
@@ -24884,7 +24888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1664</v>
       </c>
@@ -24925,7 +24929,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1669</v>
       </c>
@@ -24978,7 +24982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1677</v>
       </c>
@@ -25031,7 +25035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1678</v>
       </c>
@@ -25084,7 +25088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1681</v>
       </c>
@@ -25137,7 +25141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1689</v>
       </c>
@@ -25190,7 +25194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1692</v>
       </c>
@@ -25243,7 +25247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1696</v>
       </c>
@@ -25296,7 +25300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1701</v>
       </c>
@@ -25349,7 +25353,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1705</v>
       </c>
@@ -25402,7 +25406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1711</v>
       </c>
@@ -25455,7 +25459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1715</v>
       </c>
@@ -25508,7 +25512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1720</v>
       </c>
@@ -25561,7 +25565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1725</v>
       </c>
@@ -25614,7 +25618,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1733</v>
       </c>
@@ -25667,7 +25671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1744</v>
       </c>
@@ -25720,7 +25724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1753</v>
       </c>
@@ -25773,7 +25777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1756</v>
       </c>
@@ -25814,7 +25818,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1769</v>
       </c>
@@ -25867,7 +25871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1775</v>
       </c>
@@ -25920,7 +25924,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1779</v>
       </c>
@@ -26016,7 +26020,7 @@
       <c r="O382" s="1"/>
       <c r="P382" s="2"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1790</v>
       </c>
@@ -26069,7 +26073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1800</v>
       </c>
@@ -26127,16 +26131,16 @@
         <v>1807</v>
       </c>
       <c r="B385" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E385" s="8" t="s">
         <v>1877</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D385" t="s">
-        <v>1877</v>
-      </c>
-      <c r="E385" s="8" t="s">
-        <v>1878</v>
       </c>
       <c r="F385" t="s">
         <v>1760</v>
@@ -26157,7 +26161,7 @@
         <v>1687</v>
       </c>
       <c r="L385" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="M385" t="s">
         <v>1843</v>
@@ -26165,7 +26169,7 @@
       <c r="O385" s="1"/>
       <c r="P385" s="2"/>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1810</v>
       </c>
@@ -26221,7 +26225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1812</v>
       </c>
@@ -26274,7 +26278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1818</v>
       </c>
@@ -26327,7 +26331,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1826</v>
       </c>
@@ -26380,7 +26384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1831</v>
       </c>
@@ -26433,7 +26437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1838</v>
       </c>
@@ -26489,7 +26493,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1846</v>
       </c>
@@ -26545,7 +26549,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1850</v>
       </c>
@@ -26586,7 +26590,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1852</v>
       </c>
@@ -26627,7 +26631,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1868</v>
       </c>
@@ -26680,7 +26684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1876</v>
       </c>
@@ -26733,7 +26737,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1877</v>
       </c>
@@ -26786,7 +26790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1878</v>
       </c>
@@ -26839,7 +26843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1880</v>
       </c>
@@ -26892,7 +26896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1887</v>
       </c>
@@ -26945,7 +26949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1890</v>
       </c>
@@ -26986,7 +26990,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1893</v>
       </c>
@@ -27039,7 +27043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1894</v>
       </c>
@@ -27092,7 +27096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1899</v>
       </c>
@@ -27145,7 +27149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1915</v>
       </c>
@@ -27198,7 +27202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1928</v>
       </c>
@@ -27251,7 +27255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1933</v>
       </c>
@@ -27309,16 +27313,16 @@
         <v>1935</v>
       </c>
       <c r="B408" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E408" s="8" t="s">
         <v>1893</v>
-      </c>
-      <c r="C408" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D408" t="s">
-        <v>1893</v>
-      </c>
-      <c r="E408" s="8" t="s">
-        <v>1894</v>
       </c>
       <c r="F408" t="s">
         <v>51</v>
@@ -27339,7 +27343,7 @@
         <v>1687</v>
       </c>
       <c r="L408" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="M408" t="s">
         <v>1843</v>
@@ -27352,16 +27356,16 @@
         <v>1956</v>
       </c>
       <c r="B409" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C409" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D409" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E409" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F409" t="s">
         <v>51</v>
@@ -27382,7 +27386,7 @@
         <v>1687</v>
       </c>
       <c r="L409" s="10" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="M409" t="s">
         <v>1843</v>
@@ -27390,7 +27394,7 @@
       <c r="O409" s="1"/>
       <c r="P409" s="2"/>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1960</v>
       </c>
@@ -27443,7 +27447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1966</v>
       </c>
@@ -27560,7 +27564,14 @@
       <c r="E432"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R411" xr:uid="{AE202148-585A-4061-B20F-EDD71BEF1164}"/>
+  <autoFilter ref="A1:R411" xr:uid="{AE202148-585A-4061-B20F-EDD71BEF1164}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="No"/>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{A0F77CDA-A515-43D8-BE1D-327AE927F7BE}"/>
     <hyperlink ref="O3" r:id="rId2" xr:uid="{5E665AE3-9D96-407E-8FEC-22028A4FBAAA}"/>
@@ -28020,7 +28031,7 @@
         <v>1687</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -28904,8 +28915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C82657-9756-4B67-8631-B6FE063E8DDC}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28957,7 +28968,7 @@
       </c>
       <c r="E3">
         <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!K:K"),D3))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -28989,7 +29000,7 @@
       </c>
       <c r="E5">
         <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!K:K"),D5))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -29012,7 +29023,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E7" s="12">
         <f ca="1">E2+E4</f>
@@ -29056,6 +29067,9 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
+      <c r="D11" t="s">
+        <v>1913</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DF1B01-E336-4003-AC89-22619BD22255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FFF612-7A5E-4CBC-A951-C2CE7A742B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -6749,8 +6749,8 @@
   <dimension ref="A1:T434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8908,7 +8908,7 @@
         <v>197</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>1910</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>198</v>
@@ -9438,7 +9438,7 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>1910</v>
       </c>
       <c r="H46" t="s">
         <v>51</v>
@@ -32048,7 +32048,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9E06DD-3011-4520-A342-79FF73981A38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930C8CDD-1A83-4FB6-985C-22368B1DF8E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$413</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6748,39 +6748,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:T434"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1208</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1389</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1398</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1394</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1411</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1424</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1171</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>717</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>710</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>708</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1933</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1887</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>367</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>213</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>223</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>980</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>47</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>861</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>253</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>37</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>36</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>34</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>688</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>406</v>
       </c>
@@ -8236,7 +8236,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>404</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>400</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>10</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1215</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1210</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1214</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1826</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>273</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1935</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>864</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>228</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>702</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>645</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>647</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>640</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>583</v>
       </c>
@@ -9164,7 +9164,7 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>587</v>
       </c>
@@ -9213,7 +9213,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>582</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>584</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>337</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1617</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1614</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1625</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1622</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1612</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1613</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>699</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>28</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>42</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>614</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>636</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>274</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>629</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>853</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>849</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>845</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>184</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>189</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>186</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>346</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>351</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>340</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>344</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>348</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>359</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>343</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>350</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>349</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>358</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>339</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1250</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>589</v>
       </c>
@@ -11262,7 +11262,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>819</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>829</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>825</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1850</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1696</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>161</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>773</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>134</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>298</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>303</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>300</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>297</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>306</v>
       </c>
@@ -11995,7 +11995,7 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="2"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>43</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1890</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>444</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>446</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>411</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>173</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>175</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>178</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>64</v>
       </c>
       <c r="G98" t="s">
-        <v>1910</v>
+        <v>20</v>
       </c>
       <c r="H98" t="s">
         <v>51</v>
@@ -12455,7 +12455,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>174</v>
       </c>
@@ -12504,7 +12504,7 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1474</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>706</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>707</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1868</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1001</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1006</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1529</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1520</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>85</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>81</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1451</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1450</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1453</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1457</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>995</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1664</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1656</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>60</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1601</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1604</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>192</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>953</v>
       </c>
@@ -13744,7 +13744,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>20</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>800</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>797</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1444</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>537</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>13</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>12</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1769</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1627</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>506</v>
       </c>
@@ -14306,7 +14306,7 @@
       <c r="Q131" s="1"/>
       <c r="R131" s="2"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1463</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>651</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>650</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>656</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>693</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>694</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="2"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>310</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1145</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>838</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1744</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>611</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>316</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>719</v>
       </c>
@@ -15053,7 +15053,7 @@
       <c r="Q144" s="1"/>
       <c r="R144" s="2"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>275</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>167</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>490</v>
       </c>
@@ -15220,7 +15220,7 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>205</v>
       </c>
@@ -15269,7 +15269,7 @@
       <c r="Q148" s="1"/>
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>206</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>765</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>810</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>803</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>807</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>814</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>813</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1536</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>663</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>665</v>
       </c>
@@ -15849,7 +15849,7 @@
       <c r="Q158" s="1"/>
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>499</v>
       </c>
@@ -15898,7 +15898,7 @@
       <c r="Q159" s="1"/>
       <c r="R159" s="2"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>501</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>269</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>535</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>363</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>265</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>241</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1231</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>442</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>123</v>
       </c>
@@ -16435,7 +16435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>128</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>124</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1317</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1313</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1290</v>
       </c>
@@ -16730,7 +16730,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1300</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1294</v>
       </c>
@@ -16838,7 +16838,7 @@
       <c r="Q175" s="1"/>
       <c r="R175" s="2"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>935</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>938</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1689</v>
       </c>
@@ -17015,7 +17015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1103</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>408</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1592</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>278</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>280</v>
       </c>
@@ -17316,7 +17316,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>279</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>720</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>722</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>721</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>697</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>705</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>285</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>218</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1899</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>443</v>
       </c>
@@ -17894,7 +17894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>321</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>615</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>619</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1469</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1466</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>423</v>
       </c>
@@ -18248,7 +18248,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>417</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>914</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>416</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>100</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>234</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1254</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1123</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>360</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>331</v>
       </c>
@@ -18743,7 +18743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>335</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1779</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1775</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>842</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>698</v>
       </c>
@@ -19041,7 +19041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>158</v>
       </c>
@@ -19100,7 +19100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>534</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>96</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>16</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1025</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1019</v>
       </c>
@@ -19383,7 +19383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1037</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1262</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1261</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1876</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1880</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1877</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1878</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1756</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1195</v>
       </c>
@@ -19902,7 +19902,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1159</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1153</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1149</v>
       </c>
@@ -20067,7 +20067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1162</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>764</v>
       </c>
@@ -20185,7 +20185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>677</v>
       </c>
@@ -20244,7 +20244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>1733</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>724</v>
       </c>
@@ -20362,7 +20362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1852</v>
       </c>
@@ -20409,7 +20409,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1701</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>669</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1838</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1831</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1678</v>
       </c>
@@ -20707,7 +20707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1677</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1681</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1669</v>
       </c>
@@ -20884,7 +20884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1094</v>
       </c>
@@ -20931,7 +20931,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1101</v>
       </c>
@@ -20990,7 +20990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1800</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1790</v>
       </c>
@@ -21108,7 +21108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>933</v>
       </c>
@@ -21167,7 +21167,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>44</v>
       </c>
@@ -21226,7 +21226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>742</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>746</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>741</v>
       </c>
@@ -21403,7 +21403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>330</v>
       </c>
@@ -21462,7 +21462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>327</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>324</v>
       </c>
@@ -21568,7 +21568,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>627</v>
       </c>
@@ -21627,7 +21627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>493</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>120</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>431</v>
       </c>
@@ -21804,7 +21804,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>428</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1557</v>
       </c>
@@ -21922,7 +21922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1430</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1509</v>
       </c>
@@ -22040,7 +22040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1500</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>548</v>
       </c>
@@ -22146,7 +22146,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>547</v>
       </c>
@@ -22205,7 +22205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>544</v>
       </c>
@@ -22252,7 +22252,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>549</v>
       </c>
@@ -22311,7 +22311,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>690</v>
       </c>
@@ -22370,7 +22370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1274</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1282</v>
       </c>
@@ -22488,7 +22488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1818</v>
       </c>
@@ -22547,7 +22547,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>497</v>
       </c>
@@ -22596,7 +22596,7 @@
       <c r="Q275" s="1"/>
       <c r="R275" s="2"/>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>613</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1893</v>
       </c>
@@ -22714,7 +22714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1894</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1720</v>
       </c>
@@ -22832,7 +22832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1725</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1715</v>
       </c>
@@ -22950,7 +22950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>472</v>
       </c>
@@ -23012,7 +23012,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>469</v>
       </c>
@@ -23074,7 +23074,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>682</v>
       </c>
@@ -23133,7 +23133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>684</v>
       </c>
@@ -23192,7 +23192,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>686</v>
       </c>
@@ -23251,7 +23251,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>115</v>
       </c>
@@ -23310,7 +23310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>116</v>
       </c>
@@ -23359,7 +23359,7 @@
       <c r="Q288" s="1"/>
       <c r="R288" s="2"/>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>1119</v>
       </c>
@@ -23418,7 +23418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>1116</v>
       </c>
@@ -23477,7 +23477,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>514</v>
       </c>
@@ -23526,7 +23526,7 @@
       <c r="Q291" s="1"/>
       <c r="R291" s="2"/>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1137</v>
       </c>
@@ -23585,7 +23585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1131</v>
       </c>
@@ -23644,7 +23644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>961</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>660</v>
       </c>
@@ -23762,7 +23762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>661</v>
       </c>
@@ -23821,7 +23821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>898</v>
       </c>
@@ -23880,7 +23880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>887</v>
       </c>
@@ -23939,7 +23939,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>901</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>1104</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>662</v>
       </c>
@@ -24104,7 +24104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>288</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>286</v>
       </c>
@@ -24222,7 +24222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>195</v>
       </c>
@@ -24281,7 +24281,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>201</v>
       </c>
@@ -24340,7 +24340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>79</v>
       </c>
@@ -24399,7 +24399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>1807</v>
       </c>
@@ -24448,7 +24448,7 @@
       <c r="Q307" s="1"/>
       <c r="R307" s="2"/>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>78</v>
       </c>
@@ -24507,7 +24507,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>1434</v>
       </c>
@@ -24566,7 +24566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>259</v>
       </c>
@@ -24625,7 +24625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>246</v>
       </c>
@@ -24684,7 +24684,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>579</v>
       </c>
@@ -24733,7 +24733,7 @@
       <c r="Q312" s="1"/>
       <c r="R312" s="2"/>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>581</v>
       </c>
@@ -24782,7 +24782,7 @@
       <c r="Q313" s="1"/>
       <c r="R313" s="2"/>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>882</v>
       </c>
@@ -24831,7 +24831,7 @@
       <c r="Q314" s="1"/>
       <c r="R314" s="2"/>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>871</v>
       </c>
@@ -24893,7 +24893,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>602</v>
       </c>
@@ -24952,7 +24952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1543</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>569</v>
       </c>
@@ -25058,7 +25058,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>560</v>
       </c>
@@ -25117,7 +25117,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>577</v>
       </c>
@@ -25176,7 +25176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>567</v>
       </c>
@@ -25238,7 +25238,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>575</v>
       </c>
@@ -25285,7 +25285,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>555</v>
       </c>
@@ -25332,7 +25332,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>559</v>
       </c>
@@ -25379,7 +25379,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>573</v>
       </c>
@@ -25426,7 +25426,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>564</v>
       </c>
@@ -25473,7 +25473,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>563</v>
       </c>
@@ -25532,7 +25532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>145</v>
       </c>
@@ -25591,7 +25591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>151</v>
       </c>
@@ -25650,7 +25650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>149</v>
       </c>
@@ -25709,7 +25709,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>984</v>
       </c>
@@ -25768,7 +25768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1711</v>
       </c>
@@ -25827,7 +25827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1238</v>
       </c>
@@ -25886,7 +25886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>596</v>
       </c>
@@ -25935,7 +25935,7 @@
       <c r="Q334" s="1"/>
       <c r="R334" s="2"/>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>590</v>
       </c>
@@ -25982,7 +25982,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>591</v>
       </c>
@@ -26041,7 +26041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1249</v>
       </c>
@@ -26100,7 +26100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1330</v>
       </c>
@@ -26159,7 +26159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>24</v>
       </c>
@@ -26218,7 +26218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>284</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1644</v>
       </c>
@@ -26336,7 +26336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1635</v>
       </c>
@@ -26395,7 +26395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>1639</v>
       </c>
@@ -26454,7 +26454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>319</v>
       </c>
@@ -26513,7 +26513,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>171</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>1355</v>
       </c>
@@ -26631,7 +26631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>1360</v>
       </c>
@@ -26690,7 +26690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>1374</v>
       </c>
@@ -26749,7 +26749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>983</v>
       </c>
@@ -26808,7 +26808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>1321</v>
       </c>
@@ -26867,7 +26867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>30</v>
       </c>
@@ -26926,7 +26926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>1553</v>
       </c>
@@ -26985,7 +26985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>1788</v>
       </c>
@@ -27034,7 +27034,7 @@
       <c r="Q353" s="1"/>
       <c r="R353" s="2"/>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>398</v>
       </c>
@@ -27083,7 +27083,7 @@
       <c r="Q354" s="1"/>
       <c r="R354" s="2"/>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>394</v>
       </c>
@@ -27130,7 +27130,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>395</v>
       </c>
@@ -27189,7 +27189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>396</v>
       </c>
@@ -27248,7 +27248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>456</v>
       </c>
@@ -27307,7 +27307,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>434</v>
       </c>
@@ -27366,7 +27366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>41</v>
       </c>
@@ -27425,7 +27425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>392</v>
       </c>
@@ -27472,7 +27472,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>1573</v>
       </c>
@@ -27531,7 +27531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>91</v>
       </c>
@@ -27590,7 +27590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>1705</v>
       </c>
@@ -27649,7 +27649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>1928</v>
       </c>
@@ -27708,7 +27708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>674</v>
       </c>
@@ -27755,7 +27755,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>672</v>
       </c>
@@ -27814,7 +27814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>670</v>
       </c>
@@ -27873,7 +27873,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>1692</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>64</v>
       </c>
@@ -27991,7 +27991,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>61</v>
       </c>
@@ -28050,7 +28050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>76</v>
       </c>
@@ -28109,7 +28109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>1812</v>
       </c>
@@ -28168,7 +28168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>521</v>
       </c>
@@ -28215,7 +28215,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>524</v>
       </c>
@@ -28277,7 +28277,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>517</v>
       </c>
@@ -28324,7 +28324,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>518</v>
       </c>
@@ -28386,7 +28386,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>519</v>
       </c>
@@ -28433,7 +28433,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>463</v>
       </c>
@@ -28492,7 +28492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>465</v>
       </c>
@@ -28551,7 +28551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>658</v>
       </c>
@@ -28610,7 +28610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>659</v>
       </c>
@@ -28669,7 +28669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>782</v>
       </c>
@@ -28728,7 +28728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>793</v>
       </c>
@@ -28787,7 +28787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>789</v>
       </c>
@@ -28846,7 +28846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>785</v>
       </c>
@@ -28905,7 +28905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>1753</v>
       </c>
@@ -28964,7 +28964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>267</v>
       </c>
@@ -29011,7 +29011,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>948</v>
       </c>
@@ -29070,7 +29070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>943</v>
       </c>
@@ -29129,7 +29129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>369</v>
       </c>
@@ -29188,7 +29188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>371</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>376</v>
       </c>
@@ -29294,7 +29294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>370</v>
       </c>
@@ -29341,7 +29341,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>373</v>
       </c>
@@ -29400,7 +29400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>377</v>
       </c>
@@ -29459,7 +29459,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>1966</v>
       </c>
@@ -29518,7 +29518,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>382</v>
       </c>
@@ -29577,7 +29577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>384</v>
       </c>
@@ -29636,7 +29636,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>390</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>385</v>
       </c>
@@ -29754,7 +29754,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>391</v>
       </c>
@@ -29803,7 +29803,7 @@
       <c r="Q402" s="1"/>
       <c r="R402" s="2"/>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>735</v>
       </c>
@@ -29862,7 +29862,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>726</v>
       </c>
@@ -29921,7 +29921,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>730</v>
       </c>
@@ -29980,7 +29980,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>728</v>
       </c>
@@ -30039,7 +30039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>313</v>
       </c>
@@ -30098,7 +30098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>312</v>
       </c>
@@ -30145,7 +30145,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>366</v>
       </c>
@@ -30204,7 +30204,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>249</v>
       </c>
@@ -30263,7 +30263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>251</v>
       </c>
@@ -30322,7 +30322,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>1960</v>
       </c>
@@ -30381,7 +30381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>1915</v>
       </c>
@@ -30440,67 +30440,67 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E434"/>
     </row>
   </sheetData>
@@ -30735,29 +30735,29 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7265625" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -30819,7 +30819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1949</v>
       </c>
@@ -30871,7 +30871,7 @@
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1950</v>
       </c>
@@ -30933,7 +30933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>1951</v>
       </c>
@@ -30995,7 +30995,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -31017,7 +31017,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>1725</v>
       </c>
@@ -31058,7 +31058,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>1726</v>
       </c>
@@ -31102,7 +31102,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>1727</v>
       </c>
@@ -31143,7 +31143,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>1728</v>
       </c>
@@ -31184,7 +31184,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>1729</v>
       </c>
@@ -31225,7 +31225,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>1730</v>
       </c>
@@ -31266,7 +31266,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1731</v>
       </c>
@@ -31307,7 +31307,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>1732</v>
       </c>
@@ -31351,7 +31351,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>1733</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>1734</v>
       </c>
@@ -31436,7 +31436,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>1735</v>
       </c>
@@ -31477,7 +31477,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>1765</v>
       </c>
@@ -31518,7 +31518,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>1766</v>
       </c>
@@ -31559,7 +31559,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>1767</v>
       </c>
@@ -31600,7 +31600,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1768</v>
       </c>
@@ -31641,7 +31641,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>1769</v>
       </c>
@@ -31682,7 +31682,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>1784</v>
       </c>
@@ -31723,7 +31723,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>1785</v>
       </c>
@@ -31764,7 +31764,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>1788</v>
       </c>
@@ -31808,7 +31808,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>1789</v>
       </c>
@@ -31852,12 +31852,12 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>1736</v>
       </c>
@@ -31901,7 +31901,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>1737</v>
       </c>
@@ -31945,7 +31945,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>1738</v>
       </c>
@@ -31989,7 +31989,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>1739</v>
       </c>
@@ -32033,7 +32033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" s="10"/>
     </row>
   </sheetData>
@@ -32055,16 +32055,16 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>1948</v>
       </c>
@@ -32108,13 +32108,13 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B10" ca="1" si="0">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A2))</f>
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D2" t="s">
         <v>1684</v>
@@ -32159,7 +32159,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1762</v>
       </c>
@@ -32210,7 +32210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -32261,7 +32261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1643</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1686</v>
       </c>
@@ -32344,7 +32344,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1763</v>
       </c>
@@ -32388,7 +32388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1672</v>
       </c>
@@ -32425,7 +32425,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1742</v>
       </c>
@@ -32441,7 +32441,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -32464,20 +32464,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>1764</v>
       </c>
       <c r="B12" s="12">
         <f ca="1">B2+B4+B10</f>
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>1933</v>
@@ -32487,28 +32487,28 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>1656</v>
       </c>
       <c r="B13" s="12">
         <f ca="1">SUM(B2:B10)</f>
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1761</v>
       </c>
@@ -32532,29 +32532,29 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7265625" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -32616,7 +32616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1956</v>
       </c>
@@ -32657,7 +32657,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>289</v>
       </c>
@@ -32698,7 +32698,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1696</v>
       </c>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930C8CDD-1A83-4FB6-985C-22368B1DF8E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA18F6DB-58C6-4A50-B72B-DA4CF9FEAB2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$413</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6749,8 +6749,8 @@
   <dimension ref="A1:T434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J248" sqref="J248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15416,7 +15416,7 @@
         <v>21</v>
       </c>
       <c r="J151" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="K151" t="s">
         <v>1684</v>
@@ -15475,7 +15475,7 @@
         <v>21</v>
       </c>
       <c r="J152" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="K152" t="s">
         <v>1684</v>
@@ -20724,19 +20724,19 @@
         <v>1455</v>
       </c>
       <c r="F243" t="s">
-        <v>499</v>
+        <v>51</v>
       </c>
       <c r="G243" t="s">
         <v>20</v>
       </c>
       <c r="H243" t="s">
-        <v>499</v>
+        <v>51</v>
       </c>
       <c r="I243" t="s">
-        <v>499</v>
+        <v>1662</v>
       </c>
       <c r="J243" t="s">
-        <v>499</v>
+        <v>1668</v>
       </c>
       <c r="K243" t="s">
         <v>1684</v>
@@ -20960,7 +20960,7 @@
         <v>1662</v>
       </c>
       <c r="J247" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="K247" t="s">
         <v>1684</v>
@@ -32142,7 +32142,7 @@
       </c>
       <c r="N2" s="15">
         <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!I:I"),M2))</f>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P2" s="14" t="s">
         <v>1669</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="N4" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>1667</v>
@@ -32258,7 +32258,7 @@
       </c>
       <c r="T4" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
@@ -32327,21 +32327,21 @@
       </c>
       <c r="K6" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>1668</v>
       </c>
       <c r="Q6" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>499</v>
       </c>
       <c r="T6" s="15">
         <f t="shared" ref="T6" ca="1" si="5">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!F:F"),S6))</f>
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -32371,7 +32371,7 @@
       </c>
       <c r="K7" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>1933</v>
@@ -32385,7 +32385,7 @@
       </c>
       <c r="Q7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -32415,7 +32415,7 @@
       </c>
       <c r="Q8" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>1933</v>
@@ -32438,7 +32438,7 @@
       </c>
       <c r="Q9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6152EA9C-10EA-483F-8796-E00172731B09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB09960C-6E17-4C12-9B57-9989F5C9E8AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
     <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
@@ -6745,9 +6745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:T435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A331" sqref="A331"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H396" sqref="H396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30775,10 +30775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFAC224-3B06-46C1-8FBC-4E0275C3F461}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30866,27 +30866,82 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="R2" s="2">
+        <v>42176</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B3" t="s">
-        <v>1547</v>
+        <v>1577</v>
       </c>
       <c r="C3" t="s">
-        <v>1547</v>
+        <v>1578</v>
       </c>
       <c r="D3" t="s">
-        <v>1547</v>
+        <v>1578</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1548</v>
+        <v>1579</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
@@ -30913,126 +30968,105 @@
         <v>1684</v>
       </c>
       <c r="N3" t="s">
-        <v>1549</v>
+        <v>1580</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>1551</v>
+        <v>1581</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>1582</v>
       </c>
       <c r="R3" s="2">
-        <v>42176</v>
+        <v>42141</v>
       </c>
       <c r="S3" t="s">
-        <v>1552</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>27</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1642</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="C5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="K4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1684</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1580</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1581</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>1582</v>
-      </c>
-      <c r="R4" s="2">
-        <v>42141</v>
-      </c>
-      <c r="S4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="J5" s="9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1684</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1721</v>
+        <v>1725</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1700</v>
       </c>
       <c r="C6" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="D6" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="F6" t="s">
         <v>1697</v>
@@ -31058,22 +31092,25 @@
       <c r="M6" t="s">
         <v>1684</v>
       </c>
+      <c r="N6" t="s">
+        <v>1722</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B7" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="C7" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="D7" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="F7" t="s">
         <v>1697</v>
@@ -31094,30 +31131,27 @@
         <v>1683</v>
       </c>
       <c r="L7" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M7" t="s">
         <v>1684</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B8" t="s">
-        <v>1705</v>
+        <v>1694</v>
       </c>
       <c r="C8" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="D8" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="F8" t="s">
         <v>1697</v>
@@ -31138,7 +31172,7 @@
         <v>1683</v>
       </c>
       <c r="L8" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="M8" t="s">
         <v>1684</v>
@@ -31146,19 +31180,19 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1694</v>
+        <v>1728</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1721</v>
       </c>
       <c r="C9" t="s">
-        <v>1694</v>
+        <v>1707</v>
       </c>
       <c r="D9" t="s">
-        <v>1694</v>
+        <v>1707</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="F9" t="s">
         <v>1697</v>
@@ -31179,7 +31213,7 @@
         <v>1683</v>
       </c>
       <c r="L9" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M9" t="s">
         <v>1684</v>
@@ -31187,19 +31221,19 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C10" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="D10" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="F10" t="s">
         <v>1697</v>
@@ -31228,19 +31262,19 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>1729</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>1721</v>
+        <v>1730</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1711</v>
       </c>
       <c r="C11" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="D11" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="F11" t="s">
         <v>1697</v>
@@ -31261,7 +31295,7 @@
         <v>1683</v>
       </c>
       <c r="L11" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="M11" t="s">
         <v>1684</v>
@@ -31269,19 +31303,19 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B12" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="C12" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="D12" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="F12" t="s">
         <v>1697</v>
@@ -31302,27 +31336,30 @@
         <v>1683</v>
       </c>
       <c r="L12" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M12" t="s">
         <v>1684</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B13" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="C13" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="D13" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="F13" t="s">
         <v>1697</v>
@@ -31349,24 +31386,24 @@
         <v>1684</v>
       </c>
       <c r="N13" t="s">
-        <v>1840</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1715</v>
+        <v>1733</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1721</v>
       </c>
       <c r="C14" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="D14" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="F14" t="s">
         <v>1697</v>
@@ -31387,30 +31424,27 @@
         <v>1683</v>
       </c>
       <c r="L14" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="M14" t="s">
         <v>1684</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>1721</v>
+        <v>1734</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1719</v>
       </c>
       <c r="C15" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="D15" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="F15" t="s">
         <v>1697</v>
@@ -31437,62 +31471,62 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1719</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1697</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1685</v>
-      </c>
-      <c r="H16" s="9" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="C17" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="K16" t="s">
-        <v>1683</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1684</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="J17" s="9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1683</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1683</v>
+      </c>
+      <c r="M17" t="s">
         <v>1684</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C18" t="s">
-        <v>1772</v>
+        <v>1785</v>
       </c>
       <c r="D18" t="s">
-        <v>1772</v>
+        <v>1785</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>1773</v>
+        <v>1786</v>
       </c>
       <c r="F18" t="s">
         <v>1769</v>
@@ -31513,7 +31547,7 @@
         <v>1683</v>
       </c>
       <c r="L18" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="M18" t="s">
         <v>1684</v>
@@ -31521,19 +31555,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C19" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="D19" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="F19" t="s">
         <v>1769</v>
@@ -31554,7 +31588,7 @@
         <v>1683</v>
       </c>
       <c r="L19" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M19" t="s">
         <v>1684</v>
@@ -31562,19 +31596,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C20" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D20" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1778</v>
+        <v>1701</v>
       </c>
       <c r="F20" t="s">
         <v>1769</v>
@@ -31603,19 +31637,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C21" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
       <c r="D21" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>1701</v>
+        <v>1782</v>
       </c>
       <c r="F21" t="s">
         <v>1769</v>
@@ -31644,19 +31678,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>1768</v>
+        <v>1783</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C22" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="D22" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
       <c r="F22" t="s">
         <v>1769</v>
@@ -31685,19 +31719,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C23" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
       <c r="D23" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>1775</v>
+        <v>1780</v>
       </c>
       <c r="F23" t="s">
         <v>1769</v>
@@ -31726,19 +31760,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C24" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="D24" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="F24" t="s">
         <v>1769</v>
@@ -31764,22 +31798,25 @@
       <c r="M24" t="s">
         <v>1684</v>
       </c>
+      <c r="N24" t="s">
+        <v>1841</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C25" t="s">
-        <v>1770</v>
+        <v>1789</v>
       </c>
       <c r="D25" t="s">
-        <v>1770</v>
+        <v>1789</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>1771</v>
+        <v>1790</v>
       </c>
       <c r="F25" t="s">
         <v>1769</v>
@@ -31800,79 +31837,79 @@
         <v>1683</v>
       </c>
       <c r="L25" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="M25" t="s">
         <v>1684</v>
       </c>
       <c r="N25" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="C26" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1769</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1671</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="C27" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="K26" t="s">
-        <v>1683</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1684</v>
-      </c>
-      <c r="M26" t="s">
-        <v>1684</v>
-      </c>
-      <c r="N26" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="K27" t="s">
+        <v>1683</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1684</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1684</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C28" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D28" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>1739</v>
+        <v>1745</v>
       </c>
       <c r="F28" t="s">
         <v>1740</v>
@@ -31899,24 +31936,24 @@
         <v>1684</v>
       </c>
       <c r="N28" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C29" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="D29" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="F29" t="s">
         <v>1740</v>
@@ -31943,24 +31980,24 @@
         <v>1684</v>
       </c>
       <c r="N29" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>1721</v>
       </c>
       <c r="C30" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="D30" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="F30" t="s">
         <v>1740</v>
@@ -31987,61 +32024,17 @@
         <v>1684</v>
       </c>
       <c r="N30" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1748</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>1749</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1740</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1741</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>1721</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>1721</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>1721</v>
-      </c>
-      <c r="K31" t="s">
-        <v>1683</v>
-      </c>
-      <c r="L31" t="s">
-        <v>1684</v>
-      </c>
-      <c r="M31" t="s">
-        <v>1684</v>
-      </c>
-      <c r="N31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E33" s="10"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E32" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T4" xr:uid="{C3BDEECB-DEA1-4819-8F62-78B8A91245CF}"/>
+  <autoFilter ref="A1:T3" xr:uid="{C3BDEECB-DEA1-4819-8F62-78B8A91245CF}"/>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1" xr:uid="{005D0019-F051-48D6-9561-B0A8640FB022}"/>
-    <hyperlink ref="Q4" r:id="rId2" xr:uid="{8B1EF86E-C6B9-4279-8134-325B7CE58D5B}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{005D0019-F051-48D6-9561-B0A8640FB022}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{8B1EF86E-C6B9-4279-8134-325B7CE58D5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD63533-95C3-4F46-BC1D-99C5B726A50E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3BDE16-7E88-4A30-B355-E11A5FD983D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7355" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7363" uniqueCount="1976">
   <si>
     <t>Taxon Sort</t>
   </si>
@@ -6154,6 +6154,30 @@
   </si>
   <si>
     <t>no photo or audio of potential wild birds on eBird; two at Anstead on 4th Sep 2010 maybe good candidates for vagrants? Sue Lee 13/03/19 Very good candidate for vagrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article </t>
+  </si>
+  <si>
+    <t>306_Oriental Plover_Sunbird25(4)</t>
+  </si>
+  <si>
+    <t>https://search.informit.com.au/documentSummary;dn=209368307262145;res=IELHSS</t>
+  </si>
+  <si>
+    <t>Archerfield Airport</t>
+  </si>
+  <si>
+    <t>490_Little Penguin_Emu55(1)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1071/MU955072a</t>
+  </si>
+  <si>
+    <t>Moreton Bay Mouth</t>
+  </si>
+  <si>
+    <t>Con Reilly</t>
   </si>
 </sst>
 </file>
@@ -6745,9 +6769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:T435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11584,7 +11608,7 @@
         <v>499</v>
       </c>
       <c r="G83" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="H83" t="s">
         <v>499</v>
@@ -11596,7 +11620,7 @@
         <v>499</v>
       </c>
       <c r="K83" t="s">
-        <v>108</v>
+        <v>1683</v>
       </c>
       <c r="L83" t="s">
         <v>1684</v>
@@ -11608,10 +11632,23 @@
         <v>409</v>
       </c>
       <c r="O83" t="s">
-        <v>1839</v>
-      </c>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="2"/>
+        <v>1968</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1969</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="R83" s="2">
+        <v>34651</v>
+      </c>
+      <c r="S83" t="s">
+        <v>1971</v>
+      </c>
+      <c r="T83" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84">
@@ -14208,7 +14245,7 @@
         <v>499</v>
       </c>
       <c r="K129" t="s">
-        <v>108</v>
+        <v>1683</v>
       </c>
       <c r="L129" t="s">
         <v>1684</v>
@@ -15269,10 +15306,23 @@
         <v>1897</v>
       </c>
       <c r="O147" t="s">
-        <v>1839</v>
-      </c>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="2"/>
+        <v>1968</v>
+      </c>
+      <c r="P147" t="s">
+        <v>1972</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="R147" s="2">
+        <v>19633</v>
+      </c>
+      <c r="S147" t="s">
+        <v>1974</v>
+      </c>
+      <c r="T147" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148">
@@ -30778,7 +30828,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32046,7 +32096,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32108,14 +32158,14 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B10" ca="1" si="0">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A2))</f>
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
         <v>1683</v>
       </c>
       <c r="E2">
         <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!K:K"),D2))</f>
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>23</v>
@@ -32268,7 +32318,7 @@
       </c>
       <c r="E5">
         <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!K:K"),D5))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>1839</v>
@@ -32351,7 +32401,7 @@
       </c>
       <c r="E7" s="12">
         <f ca="1">E2+E4</f>
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>1932</v>
@@ -32441,7 +32491,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>1932</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3BDE16-7E88-4A30-B355-E11A5FD983D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9C627E-8586-4627-96D8-078F1B346008}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7363" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7363" uniqueCount="1977">
   <si>
     <t>Taxon Sort</t>
   </si>
@@ -6178,6 +6178,9 @@
   </si>
   <si>
     <t>Con Reilly</t>
+  </si>
+  <si>
+    <t>Double-eyed Fig-Parrot</t>
   </si>
 </sst>
 </file>
@@ -6769,39 +6772,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:T435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D410" sqref="D410"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6863,7 +6866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7049,7 +7052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -7285,7 +7288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -7296,7 +7299,7 @@
         <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>63</v>
@@ -7344,7 +7347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34</v>
       </c>
@@ -7403,7 +7406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -7462,7 +7465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
@@ -7521,7 +7524,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -7639,7 +7642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43</v>
       </c>
@@ -7698,7 +7701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -7757,7 +7760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>103</v>
@@ -7816,7 +7819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -7863,7 +7866,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>61</v>
       </c>
@@ -7922,7 +7925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -8040,7 +8043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
       </c>
@@ -8099,7 +8102,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79</v>
       </c>
@@ -8158,7 +8161,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>136</v>
@@ -8217,7 +8220,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -8276,7 +8279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -8335,7 +8338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96</v>
       </c>
@@ -8394,7 +8397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -8453,7 +8456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>115</v>
       </c>
@@ -8512,7 +8515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>116</v>
       </c>
@@ -8561,7 +8564,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>120</v>
       </c>
@@ -8620,7 +8623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>123</v>
       </c>
@@ -8682,7 +8685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>124</v>
       </c>
@@ -8741,7 +8744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>128</v>
       </c>
@@ -8800,7 +8803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>134</v>
       </c>
@@ -8859,7 +8862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>145</v>
       </c>
@@ -8918,7 +8921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>149</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>151</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>158</v>
       </c>
@@ -9095,7 +9098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>161</v>
       </c>
@@ -9154,7 +9157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>167</v>
       </c>
@@ -9213,7 +9216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>171</v>
       </c>
@@ -9272,7 +9275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>173</v>
       </c>
@@ -9331,7 +9334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>174</v>
       </c>
@@ -9380,7 +9383,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>175</v>
       </c>
@@ -9439,7 +9442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>178</v>
       </c>
@@ -9498,7 +9501,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>184</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>186</v>
       </c>
@@ -9616,7 +9619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>189</v>
       </c>
@@ -9675,7 +9678,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>192</v>
       </c>
@@ -9734,7 +9737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>195</v>
       </c>
@@ -9793,7 +9796,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>205</v>
       </c>
@@ -9901,7 +9904,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>206</v>
       </c>
@@ -9960,7 +9963,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>213</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>218</v>
       </c>
@@ -10078,7 +10081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>223</v>
       </c>
@@ -10122,7 +10125,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>228</v>
       </c>
@@ -10181,7 +10184,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>234</v>
       </c>
@@ -10240,7 +10243,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>241</v>
       </c>
@@ -10299,7 +10302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>246</v>
       </c>
@@ -10358,7 +10361,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>249</v>
       </c>
@@ -10417,7 +10420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>251</v>
       </c>
@@ -10476,7 +10479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>253</v>
       </c>
@@ -10535,7 +10538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>259</v>
       </c>
@@ -10594,7 +10597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>265</v>
       </c>
@@ -10653,7 +10656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>267</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>269</v>
       </c>
@@ -10759,7 +10762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>273</v>
       </c>
@@ -10818,7 +10821,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>274</v>
       </c>
@@ -10877,7 +10880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>275</v>
       </c>
@@ -10936,7 +10939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>278</v>
       </c>
@@ -10995,7 +10998,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>279</v>
       </c>
@@ -11054,7 +11057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>280</v>
       </c>
@@ -11116,7 +11119,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>284</v>
       </c>
@@ -11175,7 +11178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>285</v>
       </c>
@@ -11234,7 +11237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>286</v>
       </c>
@@ -11293,7 +11296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>288</v>
       </c>
@@ -11352,7 +11355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>297</v>
       </c>
@@ -11411,7 +11414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>298</v>
       </c>
@@ -11470,7 +11473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>300</v>
       </c>
@@ -11529,7 +11532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>303</v>
       </c>
@@ -11588,7 +11591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>306</v>
       </c>
@@ -11650,7 +11653,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>310</v>
       </c>
@@ -11709,7 +11712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>312</v>
       </c>
@@ -11756,7 +11759,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>313</v>
       </c>
@@ -11815,7 +11818,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>316</v>
       </c>
@@ -11874,7 +11877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>319</v>
       </c>
@@ -11885,7 +11888,7 @@
         <v>425</v>
       </c>
       <c r="D88" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>426</v>
@@ -11933,7 +11936,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>321</v>
       </c>
@@ -11992,7 +11995,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>324</v>
       </c>
@@ -12051,7 +12054,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>327</v>
       </c>
@@ -12098,7 +12101,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>330</v>
       </c>
@@ -12157,7 +12160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>331</v>
       </c>
@@ -12216,7 +12219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>335</v>
       </c>
@@ -12275,7 +12278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>337</v>
       </c>
@@ -12334,7 +12337,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>339</v>
       </c>
@@ -12393,7 +12396,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>340</v>
       </c>
@@ -12452,7 +12455,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>343</v>
       </c>
@@ -12511,7 +12514,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>344</v>
       </c>
@@ -12570,7 +12573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>346</v>
       </c>
@@ -12629,7 +12632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>348</v>
       </c>
@@ -12688,7 +12691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>349</v>
       </c>
@@ -12747,7 +12750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>350</v>
       </c>
@@ -12806,7 +12809,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>351</v>
       </c>
@@ -12865,7 +12868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>358</v>
       </c>
@@ -12924,7 +12927,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>359</v>
       </c>
@@ -12983,7 +12986,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>360</v>
       </c>
@@ -13042,7 +13045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>363</v>
       </c>
@@ -13101,7 +13104,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>366</v>
       </c>
@@ -13160,7 +13163,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>367</v>
       </c>
@@ -13219,7 +13222,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>369</v>
       </c>
@@ -13278,7 +13281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>370</v>
       </c>
@@ -13325,7 +13328,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>371</v>
       </c>
@@ -13372,7 +13375,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>373</v>
       </c>
@@ -13431,7 +13434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>376</v>
       </c>
@@ -13490,7 +13493,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>377</v>
       </c>
@@ -13549,7 +13552,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>382</v>
       </c>
@@ -13608,7 +13611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>384</v>
       </c>
@@ -13667,7 +13670,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>385</v>
       </c>
@@ -13726,7 +13729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>390</v>
       </c>
@@ -13785,7 +13788,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>391</v>
       </c>
@@ -13834,7 +13837,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>392</v>
       </c>
@@ -13881,7 +13884,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>394</v>
       </c>
@@ -13928,7 +13931,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>395</v>
       </c>
@@ -13987,7 +13990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>396</v>
       </c>
@@ -14046,7 +14049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>398</v>
       </c>
@@ -14095,7 +14098,7 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>400</v>
       </c>
@@ -14154,7 +14157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>404</v>
       </c>
@@ -14213,7 +14216,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>406</v>
       </c>
@@ -14224,7 +14227,7 @@
         <v>1857</v>
       </c>
       <c r="D129" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>1858</v>
@@ -14262,7 +14265,7 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>408</v>
       </c>
@@ -14324,7 +14327,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>411</v>
       </c>
@@ -14383,7 +14386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>416</v>
       </c>
@@ -14442,7 +14445,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>417</v>
       </c>
@@ -14489,7 +14492,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>423</v>
       </c>
@@ -14548,7 +14551,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>428</v>
       </c>
@@ -14607,7 +14610,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>431</v>
       </c>
@@ -14666,7 +14669,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>434</v>
       </c>
@@ -14725,7 +14728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>442</v>
       </c>
@@ -14784,7 +14787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>443</v>
       </c>
@@ -14843,7 +14846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>444</v>
       </c>
@@ -14902,7 +14905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>446</v>
       </c>
@@ -14961,7 +14964,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>456</v>
       </c>
@@ -15020,7 +15023,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>463</v>
       </c>
@@ -15079,7 +15082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>465</v>
       </c>
@@ -15090,7 +15093,7 @@
         <v>635</v>
       </c>
       <c r="D144" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>636</v>
@@ -15138,7 +15141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>469</v>
       </c>
@@ -15200,7 +15203,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>472</v>
       </c>
@@ -15262,7 +15265,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>490</v>
       </c>
@@ -15324,7 +15327,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>493</v>
       </c>
@@ -15383,7 +15386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>497</v>
       </c>
@@ -15432,7 +15435,7 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>499</v>
       </c>
@@ -15481,7 +15484,7 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>501</v>
       </c>
@@ -15540,7 +15543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>506</v>
       </c>
@@ -15589,7 +15592,7 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>514</v>
       </c>
@@ -15638,7 +15641,7 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>517</v>
       </c>
@@ -15685,7 +15688,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>518</v>
       </c>
@@ -15747,7 +15750,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>519</v>
       </c>
@@ -15794,7 +15797,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>521</v>
       </c>
@@ -15841,7 +15844,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>524</v>
       </c>
@@ -15903,7 +15906,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>534</v>
       </c>
@@ -15950,7 +15953,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>535</v>
       </c>
@@ -16012,7 +16015,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>537</v>
       </c>
@@ -16059,7 +16062,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>544</v>
       </c>
@@ -16106,7 +16109,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>547</v>
       </c>
@@ -16165,7 +16168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>548</v>
       </c>
@@ -16212,7 +16215,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>549</v>
       </c>
@@ -16271,7 +16274,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>555</v>
       </c>
@@ -16318,7 +16321,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>559</v>
       </c>
@@ -16365,7 +16368,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>560</v>
       </c>
@@ -16424,7 +16427,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>563</v>
       </c>
@@ -16483,7 +16486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>564</v>
       </c>
@@ -16530,7 +16533,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>567</v>
       </c>
@@ -16592,7 +16595,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>569</v>
       </c>
@@ -16639,7 +16642,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>573</v>
       </c>
@@ -16686,7 +16689,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>575</v>
       </c>
@@ -16733,7 +16736,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>577</v>
       </c>
@@ -16792,7 +16795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>579</v>
       </c>
@@ -16841,7 +16844,7 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>581</v>
       </c>
@@ -16890,7 +16893,7 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>582</v>
       </c>
@@ -16949,7 +16952,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>583</v>
       </c>
@@ -16998,7 +17001,7 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>584</v>
       </c>
@@ -17057,7 +17060,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>587</v>
       </c>
@@ -17106,7 +17109,7 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>589</v>
       </c>
@@ -17155,7 +17158,7 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>590</v>
       </c>
@@ -17202,7 +17205,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>591</v>
       </c>
@@ -17261,7 +17264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>596</v>
       </c>
@@ -17310,7 +17313,7 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>602</v>
       </c>
@@ -17369,7 +17372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>611</v>
       </c>
@@ -17428,7 +17431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>613</v>
       </c>
@@ -17487,7 +17490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>614</v>
       </c>
@@ -17549,7 +17552,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>615</v>
       </c>
@@ -17608,7 +17611,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>619</v>
       </c>
@@ -17667,7 +17670,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>627</v>
       </c>
@@ -17726,7 +17729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>629</v>
       </c>
@@ -17785,7 +17788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>636</v>
       </c>
@@ -17844,7 +17847,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>640</v>
       </c>
@@ -17903,7 +17906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>645</v>
       </c>
@@ -17962,7 +17965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>647</v>
       </c>
@@ -18021,7 +18024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>650</v>
       </c>
@@ -18080,7 +18083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>651</v>
       </c>
@@ -18139,7 +18142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>656</v>
       </c>
@@ -18198,7 +18201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>658</v>
       </c>
@@ -18257,7 +18260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>659</v>
       </c>
@@ -18316,7 +18319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>660</v>
       </c>
@@ -18375,7 +18378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>661</v>
       </c>
@@ -18434,7 +18437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>662</v>
       </c>
@@ -18493,7 +18496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>663</v>
       </c>
@@ -18552,7 +18555,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>665</v>
       </c>
@@ -18601,7 +18604,7 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>669</v>
       </c>
@@ -18660,7 +18663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>670</v>
       </c>
@@ -18719,7 +18722,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>672</v>
       </c>
@@ -18778,7 +18781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>674</v>
       </c>
@@ -18825,7 +18828,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>677</v>
       </c>
@@ -18884,7 +18887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>682</v>
       </c>
@@ -18943,7 +18946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>684</v>
       </c>
@@ -19002,7 +19005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>686</v>
       </c>
@@ -19061,7 +19064,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>688</v>
       </c>
@@ -19120,7 +19123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>690</v>
       </c>
@@ -19179,7 +19182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>693</v>
       </c>
@@ -19238,7 +19241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>694</v>
       </c>
@@ -19287,7 +19290,7 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>697</v>
       </c>
@@ -19334,7 +19337,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>698</v>
       </c>
@@ -19393,7 +19396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>699</v>
       </c>
@@ -19452,7 +19455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>702</v>
       </c>
@@ -19511,7 +19514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>705</v>
       </c>
@@ -19570,7 +19573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>706</v>
       </c>
@@ -19629,7 +19632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>707</v>
       </c>
@@ -19688,7 +19691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>708</v>
       </c>
@@ -19747,7 +19750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>710</v>
       </c>
@@ -19806,7 +19809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>717</v>
       </c>
@@ -19865,7 +19868,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>719</v>
       </c>
@@ -19914,7 +19917,7 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>720</v>
       </c>
@@ -19973,7 +19976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>721</v>
       </c>
@@ -20032,7 +20035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>722</v>
       </c>
@@ -20091,7 +20094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>724</v>
       </c>
@@ -20150,7 +20153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>726</v>
       </c>
@@ -20209,7 +20212,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>728</v>
       </c>
@@ -20268,7 +20271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>730</v>
       </c>
@@ -20327,7 +20330,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>735</v>
       </c>
@@ -20386,7 +20389,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>741</v>
       </c>
@@ -20445,7 +20448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>742</v>
       </c>
@@ -20504,7 +20507,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>746</v>
       </c>
@@ -20563,7 +20566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>764</v>
       </c>
@@ -20622,7 +20625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>765</v>
       </c>
@@ -20681,7 +20684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>773</v>
       </c>
@@ -20740,7 +20743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>782</v>
       </c>
@@ -20799,7 +20802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>785</v>
       </c>
@@ -20858,7 +20861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>789</v>
       </c>
@@ -20917,7 +20920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>793</v>
       </c>
@@ -20976,7 +20979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>797</v>
       </c>
@@ -21035,7 +21038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>800</v>
       </c>
@@ -21082,7 +21085,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>803</v>
       </c>
@@ -21093,7 +21096,7 @@
         <v>953</v>
       </c>
       <c r="D251" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E251" s="8" t="s">
         <v>954</v>
@@ -21141,7 +21144,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>807</v>
       </c>
@@ -21200,7 +21203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>810</v>
       </c>
@@ -21259,7 +21262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>813</v>
       </c>
@@ -21318,7 +21321,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>814</v>
       </c>
@@ -21377,7 +21380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>818</v>
       </c>
@@ -21426,7 +21429,7 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>819</v>
       </c>
@@ -21473,7 +21476,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>825</v>
       </c>
@@ -21532,7 +21535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>829</v>
       </c>
@@ -21591,7 +21594,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>838</v>
       </c>
@@ -21650,7 +21653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>842</v>
       </c>
@@ -21712,7 +21715,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>845</v>
       </c>
@@ -21774,7 +21777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>849</v>
       </c>
@@ -21833,7 +21836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>853</v>
       </c>
@@ -21892,7 +21895,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>861</v>
       </c>
@@ -21951,7 +21954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>864</v>
       </c>
@@ -21998,7 +22001,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>871</v>
       </c>
@@ -22060,7 +22063,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>882</v>
       </c>
@@ -22109,7 +22112,7 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>887</v>
       </c>
@@ -22168,7 +22171,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>898</v>
       </c>
@@ -22227,7 +22230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>901</v>
       </c>
@@ -22274,7 +22277,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>914</v>
       </c>
@@ -22321,7 +22324,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>933</v>
       </c>
@@ -22380,7 +22383,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>935</v>
       </c>
@@ -22439,7 +22442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>938</v>
       </c>
@@ -22498,7 +22501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>943</v>
       </c>
@@ -22557,7 +22560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>948</v>
       </c>
@@ -22616,7 +22619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>953</v>
       </c>
@@ -22627,7 +22630,7 @@
         <v>1882</v>
       </c>
       <c r="D278" t="s">
-        <v>1881</v>
+        <v>1976</v>
       </c>
       <c r="E278" s="8" t="s">
         <v>1883</v>
@@ -22665,7 +22668,7 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="2"/>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>961</v>
       </c>
@@ -22724,7 +22727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>980</v>
       </c>
@@ -22783,7 +22786,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>983</v>
       </c>
@@ -22842,7 +22845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>984</v>
       </c>
@@ -22901,7 +22904,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>995</v>
       </c>
@@ -22960,7 +22963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1001</v>
       </c>
@@ -23019,7 +23022,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1006</v>
       </c>
@@ -23066,7 +23069,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1019</v>
       </c>
@@ -23125,7 +23128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1025</v>
       </c>
@@ -23184,7 +23187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1037</v>
       </c>
@@ -23243,7 +23246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1094</v>
       </c>
@@ -23290,7 +23293,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1101</v>
       </c>
@@ -23349,7 +23352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1103</v>
       </c>
@@ -23408,7 +23411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1104</v>
       </c>
@@ -23467,7 +23470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1116</v>
       </c>
@@ -23526,7 +23529,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1119</v>
       </c>
@@ -23585,7 +23588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1123</v>
       </c>
@@ -23644,7 +23647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1131</v>
       </c>
@@ -23703,7 +23706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1137</v>
       </c>
@@ -23762,7 +23765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1145</v>
       </c>
@@ -23821,7 +23824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1149</v>
       </c>
@@ -23880,7 +23883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1153</v>
       </c>
@@ -23927,7 +23930,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1159</v>
       </c>
@@ -23986,7 +23989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1162</v>
       </c>
@@ -24045,7 +24048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1171</v>
       </c>
@@ -24104,7 +24107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1195</v>
       </c>
@@ -24163,7 +24166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1208</v>
       </c>
@@ -24222,7 +24225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1210</v>
       </c>
@@ -24281,7 +24284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1214</v>
       </c>
@@ -24340,7 +24343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1215</v>
       </c>
@@ -24399,7 +24402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1231</v>
       </c>
@@ -24458,7 +24461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1238</v>
       </c>
@@ -24517,7 +24520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1249</v>
       </c>
@@ -24576,7 +24579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1250</v>
       </c>
@@ -24635,7 +24638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1254</v>
       </c>
@@ -24682,7 +24685,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1261</v>
       </c>
@@ -24741,7 +24744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1262</v>
       </c>
@@ -24800,7 +24803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1274</v>
       </c>
@@ -24859,7 +24862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1282</v>
       </c>
@@ -24918,7 +24921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1290</v>
       </c>
@@ -24977,7 +24980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1294</v>
       </c>
@@ -25026,7 +25029,7 @@
       <c r="Q319" s="1"/>
       <c r="R319" s="2"/>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1300</v>
       </c>
@@ -25085,7 +25088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1313</v>
       </c>
@@ -25144,7 +25147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1317</v>
       </c>
@@ -25203,7 +25206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1321</v>
       </c>
@@ -25262,7 +25265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1330</v>
       </c>
@@ -25321,7 +25324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1355</v>
       </c>
@@ -25380,7 +25383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1360</v>
       </c>
@@ -25439,7 +25442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1374</v>
       </c>
@@ -25498,7 +25501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1389</v>
       </c>
@@ -25557,7 +25560,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1394</v>
       </c>
@@ -25619,7 +25622,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1398</v>
       </c>
@@ -25678,7 +25681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1411</v>
       </c>
@@ -25737,7 +25740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1424</v>
       </c>
@@ -25796,7 +25799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1430</v>
       </c>
@@ -25855,7 +25858,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1434</v>
       </c>
@@ -25914,7 +25917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1444</v>
       </c>
@@ -25973,7 +25976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1450</v>
       </c>
@@ -26020,7 +26023,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1451</v>
       </c>
@@ -26079,7 +26082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1453</v>
       </c>
@@ -26138,7 +26141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1457</v>
       </c>
@@ -26197,7 +26200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1463</v>
       </c>
@@ -26256,7 +26259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1466</v>
       </c>
@@ -26315,7 +26318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1469</v>
       </c>
@@ -26374,7 +26377,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1474</v>
       </c>
@@ -26433,7 +26436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1500</v>
       </c>
@@ -26492,7 +26495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1509</v>
       </c>
@@ -26551,7 +26554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1520</v>
       </c>
@@ -26610,7 +26613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1529</v>
       </c>
@@ -26669,7 +26672,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1536</v>
       </c>
@@ -26728,7 +26731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1543</v>
       </c>
@@ -26787,7 +26790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1553</v>
       </c>
@@ -26846,7 +26849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1557</v>
       </c>
@@ -26905,7 +26908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1573</v>
       </c>
@@ -26964,7 +26967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1592</v>
       </c>
@@ -27023,7 +27026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1601</v>
       </c>
@@ -27082,7 +27085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1604</v>
       </c>
@@ -27141,7 +27144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1612</v>
       </c>
@@ -27200,7 +27203,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1613</v>
       </c>
@@ -27259,7 +27262,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1614</v>
       </c>
@@ -27318,7 +27321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1617</v>
       </c>
@@ -27377,7 +27380,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1622</v>
       </c>
@@ -27424,7 +27427,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1625</v>
       </c>
@@ -27483,7 +27486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1627</v>
       </c>
@@ -27542,7 +27545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1635</v>
       </c>
@@ -27601,7 +27604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1639</v>
       </c>
@@ -27660,7 +27663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1644</v>
       </c>
@@ -27719,7 +27722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1656</v>
       </c>
@@ -27778,7 +27781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1664</v>
       </c>
@@ -27825,7 +27828,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1669</v>
       </c>
@@ -27884,7 +27887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1677</v>
       </c>
@@ -27943,7 +27946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1678</v>
       </c>
@@ -28002,7 +28005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1681</v>
       </c>
@@ -28061,7 +28064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1689</v>
       </c>
@@ -28120,7 +28123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1692</v>
       </c>
@@ -28179,7 +28182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1696</v>
       </c>
@@ -28238,7 +28241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1701</v>
       </c>
@@ -28297,7 +28300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1705</v>
       </c>
@@ -28356,7 +28359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1711</v>
       </c>
@@ -28415,7 +28418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1715</v>
       </c>
@@ -28474,7 +28477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1720</v>
       </c>
@@ -28533,7 +28536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1725</v>
       </c>
@@ -28592,7 +28595,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1733</v>
       </c>
@@ -28651,7 +28654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1744</v>
       </c>
@@ -28710,7 +28713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1753</v>
       </c>
@@ -28769,7 +28772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1756</v>
       </c>
@@ -28816,7 +28819,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1769</v>
       </c>
@@ -28875,7 +28878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1775</v>
       </c>
@@ -28934,7 +28937,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1779</v>
       </c>
@@ -28993,7 +28996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1788</v>
       </c>
@@ -29042,7 +29045,7 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="2"/>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1790</v>
       </c>
@@ -29101,7 +29104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1800</v>
       </c>
@@ -29160,7 +29163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1807</v>
       </c>
@@ -29209,7 +29212,7 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="2"/>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1812</v>
       </c>
@@ -29268,7 +29271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1818</v>
       </c>
@@ -29327,7 +29330,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1826</v>
       </c>
@@ -29386,7 +29389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1831</v>
       </c>
@@ -29445,7 +29448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1838</v>
       </c>
@@ -29507,7 +29510,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1850</v>
       </c>
@@ -29554,7 +29557,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1852</v>
       </c>
@@ -29601,7 +29604,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1868</v>
       </c>
@@ -29660,7 +29663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1876</v>
       </c>
@@ -29719,7 +29722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1877</v>
       </c>
@@ -29778,7 +29781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1878</v>
       </c>
@@ -29837,7 +29840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1880</v>
       </c>
@@ -29896,7 +29899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1887</v>
       </c>
@@ -29955,7 +29958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1890</v>
       </c>
@@ -30002,7 +30005,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1893</v>
       </c>
@@ -30061,7 +30064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1894</v>
       </c>
@@ -30120,7 +30123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1899</v>
       </c>
@@ -30179,7 +30182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1915</v>
       </c>
@@ -30238,7 +30241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1928</v>
       </c>
@@ -30297,7 +30300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1933</v>
       </c>
@@ -30356,7 +30359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1935</v>
       </c>
@@ -30418,7 +30421,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1960</v>
       </c>
@@ -30477,7 +30480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1966</v>
       </c>
@@ -30536,67 +30539,67 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435"/>
     </row>
   </sheetData>
@@ -30831,29 +30834,29 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7265625" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -30915,7 +30918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1948</v>
       </c>
@@ -30977,7 +30980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1949</v>
       </c>
@@ -31039,7 +31042,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -31061,7 +31064,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1724</v>
       </c>
@@ -31102,7 +31105,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1725</v>
       </c>
@@ -31146,7 +31149,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>1726</v>
       </c>
@@ -31187,7 +31190,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1727</v>
       </c>
@@ -31228,7 +31231,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1728</v>
       </c>
@@ -31269,7 +31272,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1729</v>
       </c>
@@ -31310,7 +31313,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1730</v>
       </c>
@@ -31351,7 +31354,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1731</v>
       </c>
@@ -31395,7 +31398,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1732</v>
       </c>
@@ -31439,7 +31442,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1733</v>
       </c>
@@ -31480,7 +31483,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1734</v>
       </c>
@@ -31521,7 +31524,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1764</v>
       </c>
@@ -31562,7 +31565,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1765</v>
       </c>
@@ -31603,7 +31606,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1766</v>
       </c>
@@ -31644,7 +31647,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1767</v>
       </c>
@@ -31685,7 +31688,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1768</v>
       </c>
@@ -31726,7 +31729,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1783</v>
       </c>
@@ -31767,7 +31770,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>1784</v>
       </c>
@@ -31808,7 +31811,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1787</v>
       </c>
@@ -31852,7 +31855,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1788</v>
       </c>
@@ -31896,12 +31899,12 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1735</v>
       </c>
@@ -31945,7 +31948,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>1736</v>
       </c>
@@ -31989,7 +31992,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>1737</v>
       </c>
@@ -32033,7 +32036,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1738</v>
       </c>
@@ -32077,7 +32080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E32" s="10"/>
     </row>
   </sheetData>
@@ -32099,16 +32102,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1947</v>
       </c>
@@ -32152,7 +32155,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -32203,7 +32206,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1761</v>
       </c>
@@ -32254,7 +32257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -32305,7 +32308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1642</v>
       </c>
@@ -32356,7 +32359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1685</v>
       </c>
@@ -32388,7 +32391,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1762</v>
       </c>
@@ -32432,7 +32435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1671</v>
       </c>
@@ -32469,7 +32472,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1741</v>
       </c>
@@ -32485,7 +32488,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -32508,14 +32511,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1763</v>
       </c>
@@ -32531,7 +32534,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>1655</v>
       </c>
@@ -32541,18 +32544,18 @@
       </c>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1760</v>
       </c>
@@ -32576,29 +32579,29 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7265625" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -32660,7 +32663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1956</v>
       </c>
@@ -32701,7 +32704,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>289</v>
       </c>
@@ -32742,7 +32745,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1695</v>
       </c>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9C627E-8586-4627-96D8-078F1B346008}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD742415-697E-49B1-93AA-A5F920E8C36C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7363" uniqueCount="1977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7367" uniqueCount="1980">
   <si>
     <t>Taxon Sort</t>
   </si>
@@ -6181,6 +6181,15 @@
   </si>
   <si>
     <t>Double-eyed Fig-Parrot</t>
+  </si>
+  <si>
+    <t>544_Salvin's Prion_QMO5412</t>
+  </si>
+  <si>
+    <t>http://www.collections.qm.qld.gov.au/search.do?view=detail&amp;page=1&amp;id=2163134&amp;db=object</t>
+  </si>
+  <si>
+    <t>Oxley, Brisbane</t>
   </si>
 </sst>
 </file>
@@ -6772,9 +6781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:T435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D410" sqref="D410"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16094,7 +16103,7 @@
         <v>499</v>
       </c>
       <c r="K162" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="L162" t="s">
         <v>1684</v>
@@ -16106,7 +16115,22 @@
         <v>1871</v>
       </c>
       <c r="O162" t="s">
-        <v>1839</v>
+        <v>1911</v>
+      </c>
+      <c r="P162" t="s">
+        <v>1977</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="R162" s="2">
+        <v>19920</v>
+      </c>
+      <c r="S162" t="s">
+        <v>1979</v>
+      </c>
+      <c r="T162" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
@@ -30819,10 +30843,11 @@
     <hyperlink ref="Q260" r:id="rId208" xr:uid="{D049A8EB-420B-45CB-A9F8-B19EB29A6494}"/>
     <hyperlink ref="Q259" r:id="rId209" xr:uid="{B56B0650-0B6D-4FE8-B110-7AAD0678C5FE}"/>
     <hyperlink ref="Q258" r:id="rId210" xr:uid="{F0942B82-A764-49DA-A8AB-84F5AF6CB634}"/>
+    <hyperlink ref="Q162" r:id="rId211" xr:uid="{B2CD6B08-E97E-41F0-A3D8-9A84E89D5B71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId211"/>
-  <legacyDrawing r:id="rId212"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId212"/>
+  <legacyDrawing r:id="rId213"/>
 </worksheet>
 </file>
 
@@ -32099,7 +32124,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32168,7 +32193,7 @@
       </c>
       <c r="E2">
         <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!K:K"),D2))</f>
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>23</v>
@@ -32219,7 +32244,7 @@
       </c>
       <c r="E3">
         <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!K:K"),D3))</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>266</v>
@@ -32404,7 +32429,7 @@
       </c>
       <c r="E7" s="12">
         <f ca="1">E2+E4</f>
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>1932</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD742415-697E-49B1-93AA-A5F920E8C36C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A9A0C-4078-421A-AE29-B6D9C116706C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6781,39 +6781,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:T435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M266" sqref="M266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>12</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>16</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>20</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>24</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>28</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>30</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>34</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>36</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>37</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>41</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>42</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>43</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>44</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>47</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>60</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>61</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>64</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>76</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>78</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>79</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>81</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>85</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>91</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>96</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>100</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>115</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>116</v>
       </c>
@@ -8573,7 +8573,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>120</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>123</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>124</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>128</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>134</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>145</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>149</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>151</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>158</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>161</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>167</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>171</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>173</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>174</v>
       </c>
@@ -9392,7 +9392,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>175</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>178</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>184</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>186</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>189</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>192</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>195</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>201</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>205</v>
       </c>
@@ -9913,7 +9913,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>206</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>213</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>218</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>223</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>228</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>234</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>241</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>246</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>249</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>251</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>253</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>259</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>265</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>267</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>269</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>273</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>274</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>275</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>278</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>279</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>280</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>284</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>285</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>286</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>288</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>297</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>298</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>300</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>303</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>306</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>310</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>312</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>313</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>316</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>319</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>321</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>324</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>327</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>330</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>331</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>335</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>337</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>339</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>340</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>343</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>344</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>346</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>348</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>349</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>350</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>351</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>358</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>359</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>360</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>363</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>366</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>367</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>369</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>370</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>371</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>373</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>376</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>377</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>382</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>384</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>385</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>390</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>391</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>392</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>394</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>395</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>396</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>398</v>
       </c>
@@ -14107,7 +14107,7 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>400</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>404</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>406</v>
       </c>
@@ -14274,7 +14274,7 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>408</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>411</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>416</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>417</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>423</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>428</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>431</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>434</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>442</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>443</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>444</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>446</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>456</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>463</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>465</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>469</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>472</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>490</v>
       </c>
@@ -15336,7 +15336,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>493</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>497</v>
       </c>
@@ -15444,7 +15444,7 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>499</v>
       </c>
@@ -15493,7 +15493,7 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>501</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>506</v>
       </c>
@@ -15601,7 +15601,7 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>514</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>517</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>518</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>519</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>521</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>524</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>534</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>535</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>537</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>544</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>547</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>548</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>549</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>555</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>559</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>560</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>563</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>564</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>567</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>569</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>573</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>575</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>577</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>579</v>
       </c>
@@ -16868,7 +16868,7 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>581</v>
       </c>
@@ -16917,7 +16917,7 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>582</v>
       </c>
@@ -16976,7 +16976,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>583</v>
       </c>
@@ -17025,7 +17025,7 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>584</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>587</v>
       </c>
@@ -17133,7 +17133,7 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>589</v>
       </c>
@@ -17182,7 +17182,7 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>590</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>591</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>596</v>
       </c>
@@ -17337,7 +17337,7 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>602</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>611</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>613</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>614</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>615</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>619</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>627</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>629</v>
       </c>
@@ -17812,7 +17812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>636</v>
       </c>
@@ -17871,7 +17871,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>640</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>645</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>647</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>650</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>651</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>656</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>658</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>659</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>660</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>661</v>
       </c>
@@ -18461,7 +18461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>662</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>663</v>
       </c>
@@ -18579,7 +18579,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>665</v>
       </c>
@@ -18628,7 +18628,7 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>669</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>670</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>672</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>674</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>677</v>
       </c>
@@ -18911,7 +18911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>682</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>684</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>686</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>688</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>690</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>693</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>694</v>
       </c>
@@ -19314,7 +19314,7 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>697</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>698</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>699</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>702</v>
       </c>
@@ -19538,7 +19538,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>705</v>
       </c>
@@ -19597,7 +19597,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>706</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>707</v>
       </c>
@@ -19715,7 +19715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>708</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>710</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>717</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>719</v>
       </c>
@@ -19941,7 +19941,7 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>720</v>
       </c>
@@ -20000,7 +20000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>721</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>722</v>
       </c>
@@ -20118,7 +20118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>724</v>
       </c>
@@ -20177,7 +20177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>726</v>
       </c>
@@ -20236,7 +20236,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>728</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>730</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>735</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>741</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>742</v>
       </c>
@@ -20531,7 +20531,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>746</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>764</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>765</v>
       </c>
@@ -20708,7 +20708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>773</v>
       </c>
@@ -20767,7 +20767,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>782</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>785</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>789</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>793</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>797</v>
       </c>
@@ -21062,7 +21062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>800</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>803</v>
       </c>
@@ -21168,7 +21168,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>807</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>810</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>813</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>814</v>
       </c>
@@ -21404,7 +21404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A256" s="7">
         <v>818</v>
       </c>
@@ -21453,7 +21453,7 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>819</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>825</v>
       </c>
@@ -21559,7 +21559,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>829</v>
       </c>
@@ -21618,7 +21618,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>838</v>
       </c>
@@ -21677,7 +21677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>842</v>
       </c>
@@ -21739,7 +21739,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>845</v>
       </c>
@@ -21801,7 +21801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>849</v>
       </c>
@@ -21860,7 +21860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>853</v>
       </c>
@@ -21919,7 +21919,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>861</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>1683</v>
       </c>
       <c r="M265" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O265" t="s">
         <v>23</v>
@@ -21978,7 +21978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>864</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>871</v>
       </c>
@@ -22087,7 +22087,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>882</v>
       </c>
@@ -22136,7 +22136,7 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>887</v>
       </c>
@@ -22195,7 +22195,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>898</v>
       </c>
@@ -22254,7 +22254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>901</v>
       </c>
@@ -22301,7 +22301,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>914</v>
       </c>
@@ -22348,7 +22348,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>933</v>
       </c>
@@ -22407,7 +22407,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>935</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>938</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>943</v>
       </c>
@@ -22584,7 +22584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>948</v>
       </c>
@@ -22643,7 +22643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>953</v>
       </c>
@@ -22692,7 +22692,7 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="2"/>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>961</v>
       </c>
@@ -22751,7 +22751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>980</v>
       </c>
@@ -22810,7 +22810,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>983</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>984</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>995</v>
       </c>
@@ -22987,7 +22987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1001</v>
       </c>
@@ -23046,7 +23046,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1006</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1019</v>
       </c>
@@ -23152,7 +23152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1025</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1037</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>1094</v>
       </c>
@@ -23317,7 +23317,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>1101</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>1103</v>
       </c>
@@ -23435,7 +23435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1104</v>
       </c>
@@ -23494,7 +23494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1116</v>
       </c>
@@ -23553,7 +23553,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1119</v>
       </c>
@@ -23612,7 +23612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1123</v>
       </c>
@@ -23671,7 +23671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1131</v>
       </c>
@@ -23730,7 +23730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1137</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1145</v>
       </c>
@@ -23848,7 +23848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>1149</v>
       </c>
@@ -23907,7 +23907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>1153</v>
       </c>
@@ -23954,7 +23954,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>1159</v>
       </c>
@@ -24013,7 +24013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>1162</v>
       </c>
@@ -24072,7 +24072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>1171</v>
       </c>
@@ -24131,7 +24131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1195</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>1208</v>
       </c>
@@ -24249,7 +24249,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>1210</v>
       </c>
@@ -24308,7 +24308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>1214</v>
       </c>
@@ -24367,7 +24367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>1215</v>
       </c>
@@ -24426,7 +24426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>1231</v>
       </c>
@@ -24485,7 +24485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>1238</v>
       </c>
@@ -24544,7 +24544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>1249</v>
       </c>
@@ -24603,7 +24603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1250</v>
       </c>
@@ -24662,7 +24662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>1254</v>
       </c>
@@ -24709,7 +24709,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>1261</v>
       </c>
@@ -24768,7 +24768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>1262</v>
       </c>
@@ -24827,7 +24827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>1274</v>
       </c>
@@ -24886,7 +24886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1282</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1290</v>
       </c>
@@ -25004,7 +25004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1294</v>
       </c>
@@ -25053,7 +25053,7 @@
       <c r="Q319" s="1"/>
       <c r="R319" s="2"/>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1300</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>1313</v>
       </c>
@@ -25171,7 +25171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>1317</v>
       </c>
@@ -25230,7 +25230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>1321</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1330</v>
       </c>
@@ -25348,7 +25348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>1355</v>
       </c>
@@ -25407,7 +25407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1360</v>
       </c>
@@ -25466,7 +25466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1374</v>
       </c>
@@ -25525,7 +25525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1389</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1394</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1398</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1411</v>
       </c>
@@ -25764,7 +25764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1424</v>
       </c>
@@ -25823,7 +25823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1430</v>
       </c>
@@ -25882,7 +25882,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1434</v>
       </c>
@@ -25941,7 +25941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1444</v>
       </c>
@@ -26000,7 +26000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>1450</v>
       </c>
@@ -26047,7 +26047,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1451</v>
       </c>
@@ -26106,7 +26106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1453</v>
       </c>
@@ -26165,7 +26165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1457</v>
       </c>
@@ -26224,7 +26224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1463</v>
       </c>
@@ -26283,7 +26283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1466</v>
       </c>
@@ -26342,7 +26342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1469</v>
       </c>
@@ -26401,7 +26401,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>1474</v>
       </c>
@@ -26460,7 +26460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>1500</v>
       </c>
@@ -26519,7 +26519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>1509</v>
       </c>
@@ -26578,7 +26578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>1520</v>
       </c>
@@ -26637,7 +26637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>1529</v>
       </c>
@@ -26696,7 +26696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>1536</v>
       </c>
@@ -26755,7 +26755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>1543</v>
       </c>
@@ -26814,7 +26814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>1553</v>
       </c>
@@ -26873,7 +26873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>1557</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>1573</v>
       </c>
@@ -26991,7 +26991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>1592</v>
       </c>
@@ -27050,7 +27050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>1601</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>1604</v>
       </c>
@@ -27168,7 +27168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>1612</v>
       </c>
@@ -27227,7 +27227,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>1613</v>
       </c>
@@ -27286,7 +27286,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>1614</v>
       </c>
@@ -27345,7 +27345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>1617</v>
       </c>
@@ -27404,7 +27404,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>1622</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>1625</v>
       </c>
@@ -27510,7 +27510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>1627</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>1635</v>
       </c>
@@ -27628,7 +27628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>1639</v>
       </c>
@@ -27687,7 +27687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>1644</v>
       </c>
@@ -27746,7 +27746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>1656</v>
       </c>
@@ -27805,7 +27805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>1664</v>
       </c>
@@ -27852,7 +27852,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>1669</v>
       </c>
@@ -27911,7 +27911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>1677</v>
       </c>
@@ -27970,7 +27970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>1678</v>
       </c>
@@ -28029,7 +28029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>1681</v>
       </c>
@@ -28088,7 +28088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>1689</v>
       </c>
@@ -28147,7 +28147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>1692</v>
       </c>
@@ -28206,7 +28206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>1696</v>
       </c>
@@ -28265,7 +28265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>1701</v>
       </c>
@@ -28324,7 +28324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>1705</v>
       </c>
@@ -28383,7 +28383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>1711</v>
       </c>
@@ -28442,7 +28442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>1715</v>
       </c>
@@ -28501,7 +28501,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>1720</v>
       </c>
@@ -28560,7 +28560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>1725</v>
       </c>
@@ -28619,7 +28619,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>1733</v>
       </c>
@@ -28678,7 +28678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>1744</v>
       </c>
@@ -28737,7 +28737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>1753</v>
       </c>
@@ -28796,7 +28796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>1756</v>
       </c>
@@ -28843,7 +28843,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>1769</v>
       </c>
@@ -28902,7 +28902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>1775</v>
       </c>
@@ -28961,7 +28961,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>1779</v>
       </c>
@@ -29020,7 +29020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>1788</v>
       </c>
@@ -29069,7 +29069,7 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="2"/>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>1790</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>1800</v>
       </c>
@@ -29187,7 +29187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>1807</v>
       </c>
@@ -29236,7 +29236,7 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="2"/>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>1812</v>
       </c>
@@ -29295,7 +29295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>1818</v>
       </c>
@@ -29354,7 +29354,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>1826</v>
       </c>
@@ -29413,7 +29413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>1831</v>
       </c>
@@ -29472,7 +29472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>1838</v>
       </c>
@@ -29534,7 +29534,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>1850</v>
       </c>
@@ -29581,7 +29581,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>1852</v>
       </c>
@@ -29628,7 +29628,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>1868</v>
       </c>
@@ -29687,7 +29687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>1876</v>
       </c>
@@ -29746,7 +29746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>1877</v>
       </c>
@@ -29805,7 +29805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>1878</v>
       </c>
@@ -29864,7 +29864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>1880</v>
       </c>
@@ -29923,7 +29923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>1887</v>
       </c>
@@ -29982,7 +29982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>1890</v>
       </c>
@@ -30029,7 +30029,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>1893</v>
       </c>
@@ -30088,7 +30088,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>1894</v>
       </c>
@@ -30147,7 +30147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>1899</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>1915</v>
       </c>
@@ -30265,7 +30265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>1928</v>
       </c>
@@ -30324,7 +30324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>1933</v>
       </c>
@@ -30383,7 +30383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>1935</v>
       </c>
@@ -30445,7 +30445,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>1960</v>
       </c>
@@ -30504,7 +30504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>1966</v>
       </c>
@@ -30563,67 +30563,67 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E434"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E435"/>
     </row>
   </sheetData>
@@ -30859,29 +30859,29 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7265625" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -30943,7 +30943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1948</v>
       </c>
@@ -31005,7 +31005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1949</v>
       </c>
@@ -31067,7 +31067,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -31089,7 +31089,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>1724</v>
       </c>
@@ -31130,7 +31130,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>1725</v>
       </c>
@@ -31174,7 +31174,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>1726</v>
       </c>
@@ -31215,7 +31215,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>1727</v>
       </c>
@@ -31256,7 +31256,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>1728</v>
       </c>
@@ -31297,7 +31297,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>1729</v>
       </c>
@@ -31338,7 +31338,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>1730</v>
       </c>
@@ -31379,7 +31379,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1731</v>
       </c>
@@ -31423,7 +31423,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>1732</v>
       </c>
@@ -31467,7 +31467,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>1733</v>
       </c>
@@ -31508,7 +31508,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>1734</v>
       </c>
@@ -31549,7 +31549,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>1764</v>
       </c>
@@ -31590,7 +31590,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>1765</v>
       </c>
@@ -31631,7 +31631,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>1766</v>
       </c>
@@ -31672,7 +31672,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>1767</v>
       </c>
@@ -31713,7 +31713,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1768</v>
       </c>
@@ -31754,7 +31754,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>1783</v>
       </c>
@@ -31795,7 +31795,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>1784</v>
       </c>
@@ -31836,7 +31836,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>1787</v>
       </c>
@@ -31880,7 +31880,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>1788</v>
       </c>
@@ -31924,12 +31924,12 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>1735</v>
       </c>
@@ -31973,7 +31973,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>1736</v>
       </c>
@@ -32017,7 +32017,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>1737</v>
       </c>
@@ -32061,7 +32061,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>1738</v>
       </c>
@@ -32105,7 +32105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E32" s="10"/>
     </row>
   </sheetData>
@@ -32127,16 +32127,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>1947</v>
       </c>
@@ -32180,7 +32180,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -32231,7 +32231,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1761</v>
       </c>
@@ -32282,7 +32282,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -32333,7 +32333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1642</v>
       </c>
@@ -32384,7 +32384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1685</v>
       </c>
@@ -32416,7 +32416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1762</v>
       </c>
@@ -32460,7 +32460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1671</v>
       </c>
@@ -32497,7 +32497,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1741</v>
       </c>
@@ -32513,7 +32513,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -32536,14 +32536,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>1763</v>
       </c>
@@ -32559,7 +32559,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>1655</v>
       </c>
@@ -32569,18 +32569,18 @@
       </c>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1760</v>
       </c>
@@ -32604,29 +32604,29 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7265625" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -32688,7 +32688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1956</v>
       </c>
@@ -32729,7 +32729,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>289</v>
       </c>
@@ -32770,7 +32770,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1695</v>
       </c>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A9A0C-4078-421A-AE29-B6D9C116706C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE3DFC8-8AEC-4BF2-A72F-F0D60B1ADEEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -120,7 +120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Louis Backstrom:</t>
         </r>
@@ -129,7 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Wild birds on Primary List
@@ -145,7 +145,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Louis Backstrom:</t>
         </r>
@@ -154,7 +154,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Escapee Birds on Supplementary List
@@ -170,7 +170,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Louis Backstrom:</t>
         </r>
@@ -179,7 +179,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This value should be the number of species on the eBird website
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6196,7 +6196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6261,19 +6261,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -6781,39 +6768,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:T435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M266" sqref="M266"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6875,7 +6862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6937,7 +6924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -6999,7 +6986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7037,7 +7024,7 @@
         <v>1683</v>
       </c>
       <c r="M4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="N4" t="s">
         <v>30</v>
@@ -7061,7 +7048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -7099,7 +7086,7 @@
         <v>1683</v>
       </c>
       <c r="M5" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O5" t="s">
         <v>23</v>
@@ -7120,7 +7107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -7179,7 +7166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -7238,7 +7225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -7297,7 +7284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -7356,7 +7343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34</v>
       </c>
@@ -7415,7 +7402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -7474,7 +7461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
@@ -7533,7 +7520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -7592,7 +7579,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -7651,7 +7638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43</v>
       </c>
@@ -7710,7 +7697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -7769,7 +7756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47</v>
       </c>
@@ -7828,7 +7815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -7875,7 +7862,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>61</v>
       </c>
@@ -7934,7 +7921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -7993,7 +7980,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -8052,7 +8039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
       </c>
@@ -8111,7 +8098,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79</v>
       </c>
@@ -8170,7 +8157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -8229,7 +8216,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -8288,7 +8275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -8347,7 +8334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96</v>
       </c>
@@ -8406,7 +8393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -8465,7 +8452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>115</v>
       </c>
@@ -8524,7 +8511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>116</v>
       </c>
@@ -8573,7 +8560,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>120</v>
       </c>
@@ -8632,7 +8619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>123</v>
       </c>
@@ -8694,7 +8681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>124</v>
       </c>
@@ -8753,7 +8740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>128</v>
       </c>
@@ -8812,7 +8799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>134</v>
       </c>
@@ -8871,7 +8858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>145</v>
       </c>
@@ -8930,7 +8917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>149</v>
       </c>
@@ -8989,7 +8976,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>151</v>
       </c>
@@ -9048,7 +9035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>158</v>
       </c>
@@ -9107,7 +9094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>161</v>
       </c>
@@ -9166,7 +9153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>167</v>
       </c>
@@ -9225,7 +9212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>171</v>
       </c>
@@ -9284,7 +9271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>173</v>
       </c>
@@ -9343,7 +9330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>174</v>
       </c>
@@ -9392,7 +9379,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>175</v>
       </c>
@@ -9451,7 +9438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>178</v>
       </c>
@@ -9510,7 +9497,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>184</v>
       </c>
@@ -9569,7 +9556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>186</v>
       </c>
@@ -9628,7 +9615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>189</v>
       </c>
@@ -9687,7 +9674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>192</v>
       </c>
@@ -9746,7 +9733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>195</v>
       </c>
@@ -9805,7 +9792,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201</v>
       </c>
@@ -9864,7 +9851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>205</v>
       </c>
@@ -9913,7 +9900,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>206</v>
       </c>
@@ -9972,7 +9959,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>213</v>
       </c>
@@ -10031,7 +10018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>218</v>
       </c>
@@ -10090,7 +10077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>223</v>
       </c>
@@ -10134,7 +10121,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>228</v>
       </c>
@@ -10193,7 +10180,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>234</v>
       </c>
@@ -10252,7 +10239,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>241</v>
       </c>
@@ -10311,7 +10298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>246</v>
       </c>
@@ -10370,7 +10357,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>249</v>
       </c>
@@ -10429,7 +10416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>251</v>
       </c>
@@ -10488,7 +10475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>253</v>
       </c>
@@ -10547,7 +10534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>259</v>
       </c>
@@ -10606,7 +10593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>265</v>
       </c>
@@ -10665,7 +10652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>267</v>
       </c>
@@ -10712,7 +10699,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>269</v>
       </c>
@@ -10771,7 +10758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>273</v>
       </c>
@@ -10830,7 +10817,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>274</v>
       </c>
@@ -10889,7 +10876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>275</v>
       </c>
@@ -10948,7 +10935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>278</v>
       </c>
@@ -11007,7 +10994,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>279</v>
       </c>
@@ -11066,7 +11053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>280</v>
       </c>
@@ -11128,7 +11115,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>284</v>
       </c>
@@ -11187,7 +11174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>285</v>
       </c>
@@ -11246,7 +11233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>286</v>
       </c>
@@ -11305,7 +11292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>288</v>
       </c>
@@ -11364,7 +11351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>297</v>
       </c>
@@ -11423,7 +11410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>298</v>
       </c>
@@ -11482,7 +11469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>300</v>
       </c>
@@ -11541,7 +11528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>303</v>
       </c>
@@ -11600,7 +11587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>306</v>
       </c>
@@ -11662,7 +11649,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>310</v>
       </c>
@@ -11721,7 +11708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>312</v>
       </c>
@@ -11768,7 +11755,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>313</v>
       </c>
@@ -11827,7 +11814,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>316</v>
       </c>
@@ -11886,7 +11873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>319</v>
       </c>
@@ -11945,7 +11932,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>321</v>
       </c>
@@ -12004,7 +11991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>324</v>
       </c>
@@ -12063,7 +12050,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>327</v>
       </c>
@@ -12110,7 +12097,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>330</v>
       </c>
@@ -12169,7 +12156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>331</v>
       </c>
@@ -12228,7 +12215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>335</v>
       </c>
@@ -12287,7 +12274,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>337</v>
       </c>
@@ -12346,7 +12333,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>339</v>
       </c>
@@ -12405,7 +12392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>340</v>
       </c>
@@ -12464,7 +12451,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>343</v>
       </c>
@@ -12523,7 +12510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>344</v>
       </c>
@@ -12582,7 +12569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>346</v>
       </c>
@@ -12641,7 +12628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>348</v>
       </c>
@@ -12700,7 +12687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>349</v>
       </c>
@@ -12759,7 +12746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>350</v>
       </c>
@@ -12818,7 +12805,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>351</v>
       </c>
@@ -12877,7 +12864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>358</v>
       </c>
@@ -12936,7 +12923,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>359</v>
       </c>
@@ -12995,7 +12982,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>360</v>
       </c>
@@ -13054,7 +13041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>363</v>
       </c>
@@ -13113,7 +13100,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>366</v>
       </c>
@@ -13172,7 +13159,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>367</v>
       </c>
@@ -13231,7 +13218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>369</v>
       </c>
@@ -13290,7 +13277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>370</v>
       </c>
@@ -13337,7 +13324,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>371</v>
       </c>
@@ -13384,7 +13371,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>373</v>
       </c>
@@ -13443,7 +13430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>376</v>
       </c>
@@ -13502,7 +13489,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>377</v>
       </c>
@@ -13561,7 +13548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>382</v>
       </c>
@@ -13620,7 +13607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>384</v>
       </c>
@@ -13679,7 +13666,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>385</v>
       </c>
@@ -13738,7 +13725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>390</v>
       </c>
@@ -13797,7 +13784,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>391</v>
       </c>
@@ -13846,7 +13833,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>392</v>
       </c>
@@ -13893,7 +13880,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>394</v>
       </c>
@@ -13940,7 +13927,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>395</v>
       </c>
@@ -13999,7 +13986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>396</v>
       </c>
@@ -14058,7 +14045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>398</v>
       </c>
@@ -14107,7 +14094,7 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>400</v>
       </c>
@@ -14166,7 +14153,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>404</v>
       </c>
@@ -14225,7 +14212,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>406</v>
       </c>
@@ -14274,7 +14261,7 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>408</v>
       </c>
@@ -14336,7 +14323,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>411</v>
       </c>
@@ -14395,7 +14382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>416</v>
       </c>
@@ -14454,7 +14441,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>417</v>
       </c>
@@ -14501,7 +14488,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>423</v>
       </c>
@@ -14560,7 +14547,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>428</v>
       </c>
@@ -14619,7 +14606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>431</v>
       </c>
@@ -14678,7 +14665,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>434</v>
       </c>
@@ -14737,7 +14724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>442</v>
       </c>
@@ -14796,7 +14783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>443</v>
       </c>
@@ -14855,7 +14842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>444</v>
       </c>
@@ -14914,7 +14901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>446</v>
       </c>
@@ -14973,7 +14960,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>456</v>
       </c>
@@ -15032,7 +15019,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>463</v>
       </c>
@@ -15091,7 +15078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>465</v>
       </c>
@@ -15150,7 +15137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>469</v>
       </c>
@@ -15212,7 +15199,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>472</v>
       </c>
@@ -15274,7 +15261,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>490</v>
       </c>
@@ -15336,7 +15323,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>493</v>
       </c>
@@ -15395,7 +15382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>497</v>
       </c>
@@ -15444,7 +15431,7 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>499</v>
       </c>
@@ -15493,7 +15480,7 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>501</v>
       </c>
@@ -15552,7 +15539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>506</v>
       </c>
@@ -15601,7 +15588,7 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>514</v>
       </c>
@@ -15650,7 +15637,7 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>517</v>
       </c>
@@ -15697,7 +15684,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>518</v>
       </c>
@@ -15759,7 +15746,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>519</v>
       </c>
@@ -15806,7 +15793,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>521</v>
       </c>
@@ -15853,7 +15840,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>524</v>
       </c>
@@ -15915,7 +15902,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>534</v>
       </c>
@@ -15962,7 +15949,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>535</v>
       </c>
@@ -16024,7 +16011,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>537</v>
       </c>
@@ -16071,7 +16058,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>544</v>
       </c>
@@ -16133,7 +16120,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>547</v>
       </c>
@@ -16192,7 +16179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>548</v>
       </c>
@@ -16239,7 +16226,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>549</v>
       </c>
@@ -16298,7 +16285,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>555</v>
       </c>
@@ -16345,7 +16332,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>559</v>
       </c>
@@ -16392,7 +16379,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>560</v>
       </c>
@@ -16451,7 +16438,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>563</v>
       </c>
@@ -16510,7 +16497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>564</v>
       </c>
@@ -16557,7 +16544,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>567</v>
       </c>
@@ -16619,7 +16606,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>569</v>
       </c>
@@ -16666,7 +16653,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>573</v>
       </c>
@@ -16713,7 +16700,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>575</v>
       </c>
@@ -16760,7 +16747,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>577</v>
       </c>
@@ -16819,7 +16806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>579</v>
       </c>
@@ -16868,7 +16855,7 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>581</v>
       </c>
@@ -16917,7 +16904,7 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>582</v>
       </c>
@@ -16976,7 +16963,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>583</v>
       </c>
@@ -17025,7 +17012,7 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>584</v>
       </c>
@@ -17084,7 +17071,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>587</v>
       </c>
@@ -17133,7 +17120,7 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>589</v>
       </c>
@@ -17182,7 +17169,7 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>590</v>
       </c>
@@ -17229,7 +17216,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>591</v>
       </c>
@@ -17288,7 +17275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>596</v>
       </c>
@@ -17337,7 +17324,7 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>602</v>
       </c>
@@ -17396,7 +17383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>611</v>
       </c>
@@ -17455,7 +17442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>613</v>
       </c>
@@ -17514,7 +17501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>614</v>
       </c>
@@ -17576,7 +17563,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>615</v>
       </c>
@@ -17635,7 +17622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>619</v>
       </c>
@@ -17694,7 +17681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>627</v>
       </c>
@@ -17753,7 +17740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>629</v>
       </c>
@@ -17812,7 +17799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>636</v>
       </c>
@@ -17871,7 +17858,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>640</v>
       </c>
@@ -17930,7 +17917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>645</v>
       </c>
@@ -17989,7 +17976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>647</v>
       </c>
@@ -18048,7 +18035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>650</v>
       </c>
@@ -18107,7 +18094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>651</v>
       </c>
@@ -18166,7 +18153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>656</v>
       </c>
@@ -18225,7 +18212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>658</v>
       </c>
@@ -18284,7 +18271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>659</v>
       </c>
@@ -18343,7 +18330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>660</v>
       </c>
@@ -18402,7 +18389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>661</v>
       </c>
@@ -18461,7 +18448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>662</v>
       </c>
@@ -18520,7 +18507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>663</v>
       </c>
@@ -18579,7 +18566,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>665</v>
       </c>
@@ -18628,7 +18615,7 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>669</v>
       </c>
@@ -18687,7 +18674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>670</v>
       </c>
@@ -18746,7 +18733,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>672</v>
       </c>
@@ -18805,7 +18792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>674</v>
       </c>
@@ -18852,7 +18839,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>677</v>
       </c>
@@ -18911,7 +18898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>682</v>
       </c>
@@ -18970,7 +18957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>684</v>
       </c>
@@ -19029,7 +19016,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>686</v>
       </c>
@@ -19088,7 +19075,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>688</v>
       </c>
@@ -19147,7 +19134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>690</v>
       </c>
@@ -19206,7 +19193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>693</v>
       </c>
@@ -19265,7 +19252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>694</v>
       </c>
@@ -19314,7 +19301,7 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>697</v>
       </c>
@@ -19361,7 +19348,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>698</v>
       </c>
@@ -19420,7 +19407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>699</v>
       </c>
@@ -19479,7 +19466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>702</v>
       </c>
@@ -19538,7 +19525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>705</v>
       </c>
@@ -19597,7 +19584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>706</v>
       </c>
@@ -19656,7 +19643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>707</v>
       </c>
@@ -19715,7 +19702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>708</v>
       </c>
@@ -19774,7 +19761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>710</v>
       </c>
@@ -19833,7 +19820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>717</v>
       </c>
@@ -19892,7 +19879,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>719</v>
       </c>
@@ -19941,7 +19928,7 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>720</v>
       </c>
@@ -20000,7 +19987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>721</v>
       </c>
@@ -20059,7 +20046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>722</v>
       </c>
@@ -20118,7 +20105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>724</v>
       </c>
@@ -20177,7 +20164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>726</v>
       </c>
@@ -20236,7 +20223,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>728</v>
       </c>
@@ -20295,7 +20282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>730</v>
       </c>
@@ -20354,7 +20341,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>735</v>
       </c>
@@ -20413,7 +20400,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>741</v>
       </c>
@@ -20472,7 +20459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>742</v>
       </c>
@@ -20531,7 +20518,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>746</v>
       </c>
@@ -20590,7 +20577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>764</v>
       </c>
@@ -20649,7 +20636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>765</v>
       </c>
@@ -20708,7 +20695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>773</v>
       </c>
@@ -20767,7 +20754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>782</v>
       </c>
@@ -20826,7 +20813,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>785</v>
       </c>
@@ -20885,7 +20872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>789</v>
       </c>
@@ -20944,7 +20931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>793</v>
       </c>
@@ -21003,7 +20990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>797</v>
       </c>
@@ -21062,7 +21049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>800</v>
       </c>
@@ -21109,7 +21096,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>803</v>
       </c>
@@ -21168,7 +21155,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>807</v>
       </c>
@@ -21227,7 +21214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>810</v>
       </c>
@@ -21286,7 +21273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>813</v>
       </c>
@@ -21345,7 +21332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>814</v>
       </c>
@@ -21404,7 +21391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>818</v>
       </c>
@@ -21453,7 +21440,7 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>819</v>
       </c>
@@ -21500,7 +21487,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>825</v>
       </c>
@@ -21559,7 +21546,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>829</v>
       </c>
@@ -21618,7 +21605,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>838</v>
       </c>
@@ -21677,7 +21664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>842</v>
       </c>
@@ -21739,7 +21726,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>845</v>
       </c>
@@ -21801,7 +21788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>849</v>
       </c>
@@ -21860,7 +21847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>853</v>
       </c>
@@ -21919,7 +21906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>861</v>
       </c>
@@ -21978,7 +21965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>864</v>
       </c>
@@ -22025,7 +22012,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>871</v>
       </c>
@@ -22087,7 +22074,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>882</v>
       </c>
@@ -22136,7 +22123,7 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>887</v>
       </c>
@@ -22195,7 +22182,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>898</v>
       </c>
@@ -22254,7 +22241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>901</v>
       </c>
@@ -22301,7 +22288,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>914</v>
       </c>
@@ -22348,7 +22335,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>933</v>
       </c>
@@ -22407,7 +22394,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>935</v>
       </c>
@@ -22466,7 +22453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>938</v>
       </c>
@@ -22525,7 +22512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>943</v>
       </c>
@@ -22584,7 +22571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>948</v>
       </c>
@@ -22643,7 +22630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>953</v>
       </c>
@@ -22692,7 +22679,7 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="2"/>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>961</v>
       </c>
@@ -22751,7 +22738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>980</v>
       </c>
@@ -22810,7 +22797,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>983</v>
       </c>
@@ -22869,7 +22856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>984</v>
       </c>
@@ -22928,7 +22915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>995</v>
       </c>
@@ -22987,7 +22974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1001</v>
       </c>
@@ -23046,7 +23033,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1006</v>
       </c>
@@ -23093,7 +23080,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1019</v>
       </c>
@@ -23152,7 +23139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1025</v>
       </c>
@@ -23211,7 +23198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1037</v>
       </c>
@@ -23270,7 +23257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1094</v>
       </c>
@@ -23317,7 +23304,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1101</v>
       </c>
@@ -23376,7 +23363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1103</v>
       </c>
@@ -23435,7 +23422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1104</v>
       </c>
@@ -23494,7 +23481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1116</v>
       </c>
@@ -23553,7 +23540,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1119</v>
       </c>
@@ -23612,7 +23599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1123</v>
       </c>
@@ -23671,7 +23658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1131</v>
       </c>
@@ -23730,7 +23717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1137</v>
       </c>
@@ -23789,7 +23776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1145</v>
       </c>
@@ -23848,7 +23835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1149</v>
       </c>
@@ -23907,7 +23894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1153</v>
       </c>
@@ -23954,7 +23941,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1159</v>
       </c>
@@ -24013,7 +24000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1162</v>
       </c>
@@ -24072,7 +24059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1171</v>
       </c>
@@ -24131,7 +24118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1195</v>
       </c>
@@ -24190,7 +24177,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1208</v>
       </c>
@@ -24249,7 +24236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1210</v>
       </c>
@@ -24308,7 +24295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1214</v>
       </c>
@@ -24367,7 +24354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1215</v>
       </c>
@@ -24426,7 +24413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1231</v>
       </c>
@@ -24485,7 +24472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1238</v>
       </c>
@@ -24544,7 +24531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1249</v>
       </c>
@@ -24603,7 +24590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1250</v>
       </c>
@@ -24662,7 +24649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1254</v>
       </c>
@@ -24709,7 +24696,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1261</v>
       </c>
@@ -24768,7 +24755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1262</v>
       </c>
@@ -24827,7 +24814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1274</v>
       </c>
@@ -24886,7 +24873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1282</v>
       </c>
@@ -24945,7 +24932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1290</v>
       </c>
@@ -25004,7 +24991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1294</v>
       </c>
@@ -25053,7 +25040,7 @@
       <c r="Q319" s="1"/>
       <c r="R319" s="2"/>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1300</v>
       </c>
@@ -25112,7 +25099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1313</v>
       </c>
@@ -25171,7 +25158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1317</v>
       </c>
@@ -25230,7 +25217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1321</v>
       </c>
@@ -25289,7 +25276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1330</v>
       </c>
@@ -25348,7 +25335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1355</v>
       </c>
@@ -25407,7 +25394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1360</v>
       </c>
@@ -25466,7 +25453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1374</v>
       </c>
@@ -25525,7 +25512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1389</v>
       </c>
@@ -25584,7 +25571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1394</v>
       </c>
@@ -25646,7 +25633,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1398</v>
       </c>
@@ -25705,7 +25692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1411</v>
       </c>
@@ -25764,7 +25751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1424</v>
       </c>
@@ -25823,7 +25810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1430</v>
       </c>
@@ -25882,7 +25869,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1434</v>
       </c>
@@ -25941,7 +25928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1444</v>
       </c>
@@ -26000,7 +25987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1450</v>
       </c>
@@ -26047,7 +26034,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1451</v>
       </c>
@@ -26106,7 +26093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1453</v>
       </c>
@@ -26165,7 +26152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1457</v>
       </c>
@@ -26224,7 +26211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1463</v>
       </c>
@@ -26283,7 +26270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1466</v>
       </c>
@@ -26342,7 +26329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1469</v>
       </c>
@@ -26401,7 +26388,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1474</v>
       </c>
@@ -26460,7 +26447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1500</v>
       </c>
@@ -26519,7 +26506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1509</v>
       </c>
@@ -26578,7 +26565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1520</v>
       </c>
@@ -26637,7 +26624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1529</v>
       </c>
@@ -26696,7 +26683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1536</v>
       </c>
@@ -26755,7 +26742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1543</v>
       </c>
@@ -26814,7 +26801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1553</v>
       </c>
@@ -26873,7 +26860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1557</v>
       </c>
@@ -26932,7 +26919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1573</v>
       </c>
@@ -26991,7 +26978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1592</v>
       </c>
@@ -27050,7 +27037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1601</v>
       </c>
@@ -27109,7 +27096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1604</v>
       </c>
@@ -27168,7 +27155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1612</v>
       </c>
@@ -27227,7 +27214,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1613</v>
       </c>
@@ -27286,7 +27273,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1614</v>
       </c>
@@ -27345,7 +27332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1617</v>
       </c>
@@ -27404,7 +27391,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1622</v>
       </c>
@@ -27451,7 +27438,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1625</v>
       </c>
@@ -27510,7 +27497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1627</v>
       </c>
@@ -27569,7 +27556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1635</v>
       </c>
@@ -27628,7 +27615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1639</v>
       </c>
@@ -27687,7 +27674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1644</v>
       </c>
@@ -27746,7 +27733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1656</v>
       </c>
@@ -27805,7 +27792,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1664</v>
       </c>
@@ -27852,7 +27839,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1669</v>
       </c>
@@ -27911,7 +27898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1677</v>
       </c>
@@ -27970,7 +27957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1678</v>
       </c>
@@ -28029,7 +28016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1681</v>
       </c>
@@ -28088,7 +28075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1689</v>
       </c>
@@ -28147,7 +28134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1692</v>
       </c>
@@ -28206,7 +28193,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1696</v>
       </c>
@@ -28265,7 +28252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1701</v>
       </c>
@@ -28324,7 +28311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1705</v>
       </c>
@@ -28383,7 +28370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1711</v>
       </c>
@@ -28442,7 +28429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1715</v>
       </c>
@@ -28501,7 +28488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1720</v>
       </c>
@@ -28560,7 +28547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1725</v>
       </c>
@@ -28619,7 +28606,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1733</v>
       </c>
@@ -28678,7 +28665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1744</v>
       </c>
@@ -28737,7 +28724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1753</v>
       </c>
@@ -28796,7 +28783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1756</v>
       </c>
@@ -28843,7 +28830,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1769</v>
       </c>
@@ -28902,7 +28889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1775</v>
       </c>
@@ -28961,7 +28948,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1779</v>
       </c>
@@ -29020,7 +29007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1788</v>
       </c>
@@ -29069,7 +29056,7 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="2"/>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1790</v>
       </c>
@@ -29128,7 +29115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1800</v>
       </c>
@@ -29187,7 +29174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1807</v>
       </c>
@@ -29236,7 +29223,7 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="2"/>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1812</v>
       </c>
@@ -29295,7 +29282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1818</v>
       </c>
@@ -29354,7 +29341,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1826</v>
       </c>
@@ -29413,7 +29400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1831</v>
       </c>
@@ -29472,7 +29459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1838</v>
       </c>
@@ -29534,7 +29521,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1850</v>
       </c>
@@ -29581,7 +29568,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1852</v>
       </c>
@@ -29628,7 +29615,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1868</v>
       </c>
@@ -29687,7 +29674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1876</v>
       </c>
@@ -29746,7 +29733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1877</v>
       </c>
@@ -29805,7 +29792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1878</v>
       </c>
@@ -29864,7 +29851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1880</v>
       </c>
@@ -29923,7 +29910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1887</v>
       </c>
@@ -29982,7 +29969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1890</v>
       </c>
@@ -30029,7 +30016,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1893</v>
       </c>
@@ -30088,7 +30075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1894</v>
       </c>
@@ -30147,7 +30134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1899</v>
       </c>
@@ -30206,7 +30193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1915</v>
       </c>
@@ -30265,7 +30252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1928</v>
       </c>
@@ -30324,7 +30311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1933</v>
       </c>
@@ -30383,7 +30370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1935</v>
       </c>
@@ -30445,7 +30432,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1960</v>
       </c>
@@ -30504,7 +30491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1966</v>
       </c>
@@ -30563,67 +30550,67 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435"/>
     </row>
   </sheetData>
@@ -30859,29 +30846,29 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7265625" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -30943,7 +30930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1948</v>
       </c>
@@ -31005,7 +30992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1949</v>
       </c>
@@ -31067,7 +31054,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -31089,7 +31076,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1724</v>
       </c>
@@ -31130,7 +31117,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1725</v>
       </c>
@@ -31174,7 +31161,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>1726</v>
       </c>
@@ -31215,7 +31202,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1727</v>
       </c>
@@ -31256,7 +31243,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1728</v>
       </c>
@@ -31297,7 +31284,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1729</v>
       </c>
@@ -31338,7 +31325,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1730</v>
       </c>
@@ -31379,7 +31366,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1731</v>
       </c>
@@ -31423,7 +31410,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1732</v>
       </c>
@@ -31467,7 +31454,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1733</v>
       </c>
@@ -31508,7 +31495,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1734</v>
       </c>
@@ -31549,7 +31536,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1764</v>
       </c>
@@ -31590,7 +31577,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1765</v>
       </c>
@@ -31631,7 +31618,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1766</v>
       </c>
@@ -31672,7 +31659,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1767</v>
       </c>
@@ -31713,7 +31700,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1768</v>
       </c>
@@ -31754,7 +31741,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1783</v>
       </c>
@@ -31795,7 +31782,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>1784</v>
       </c>
@@ -31836,7 +31823,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1787</v>
       </c>
@@ -31880,7 +31867,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1788</v>
       </c>
@@ -31924,12 +31911,12 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1735</v>
       </c>
@@ -31973,7 +31960,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>1736</v>
       </c>
@@ -32017,7 +32004,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>1737</v>
       </c>
@@ -32061,7 +32048,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1738</v>
       </c>
@@ -32105,7 +32092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E32" s="10"/>
     </row>
   </sheetData>
@@ -32127,16 +32114,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1947</v>
       </c>
@@ -32180,7 +32167,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -32231,7 +32218,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1761</v>
       </c>
@@ -32282,7 +32269,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -32333,7 +32320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1642</v>
       </c>
@@ -32384,7 +32371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1685</v>
       </c>
@@ -32416,7 +32403,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1762</v>
       </c>
@@ -32460,7 +32447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1671</v>
       </c>
@@ -32497,7 +32484,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1741</v>
       </c>
@@ -32513,7 +32500,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -32536,14 +32523,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1763</v>
       </c>
@@ -32559,7 +32546,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>1655</v>
       </c>
@@ -32569,18 +32556,18 @@
       </c>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1760</v>
       </c>
@@ -32604,29 +32591,29 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7265625" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -32688,7 +32675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1956</v>
       </c>
@@ -32729,7 +32716,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>289</v>
       </c>
@@ -32770,7 +32757,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1695</v>
       </c>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE3DFC8-8AEC-4BF2-A72F-F0D60B1ADEEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033369D-9CB6-412E-8DE0-2F2EF9367CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6770,7 +6770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7204,7 +7204,7 @@
         <v>1683</v>
       </c>
       <c r="M7" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O7" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033369D-9CB6-412E-8DE0-2F2EF9367CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6C710-1496-44D1-9372-501BE77AF55A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,9 +22,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6766,11 +6766,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="L172" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6862,7 +6863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6924,7 +6925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -6986,7 +6987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -7107,7 +7108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -7284,7 +7285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
@@ -7520,7 +7521,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -7579,7 +7580,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -7638,7 +7639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43</v>
       </c>
@@ -7697,7 +7698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -7756,7 +7757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>61</v>
       </c>
@@ -7921,7 +7922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79</v>
       </c>
@@ -8157,7 +8158,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96</v>
       </c>
@@ -8393,7 +8394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -8452,7 +8453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>115</v>
       </c>
@@ -8511,7 +8512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>116</v>
       </c>
@@ -8560,7 +8561,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>120</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>123</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>124</v>
       </c>
@@ -8740,7 +8741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>128</v>
       </c>
@@ -8799,7 +8800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>134</v>
       </c>
@@ -8858,7 +8859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>145</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>149</v>
       </c>
@@ -8976,7 +8977,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>151</v>
       </c>
@@ -9035,7 +9036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>158</v>
       </c>
@@ -9094,7 +9095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>161</v>
       </c>
@@ -9153,7 +9154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>167</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>171</v>
       </c>
@@ -9271,7 +9272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>173</v>
       </c>
@@ -9330,7 +9331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>174</v>
       </c>
@@ -9379,7 +9380,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>175</v>
       </c>
@@ -9438,7 +9439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>178</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>184</v>
       </c>
@@ -9556,7 +9557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>186</v>
       </c>
@@ -9615,7 +9616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>189</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>192</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>195</v>
       </c>
@@ -9792,7 +9793,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201</v>
       </c>
@@ -9851,7 +9852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>205</v>
       </c>
@@ -9900,7 +9901,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>206</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>213</v>
       </c>
@@ -10018,7 +10019,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>218</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>223</v>
       </c>
@@ -10121,7 +10122,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>228</v>
       </c>
@@ -10180,7 +10181,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>234</v>
       </c>
@@ -10239,7 +10240,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>241</v>
       </c>
@@ -10298,7 +10299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>246</v>
       </c>
@@ -10357,7 +10358,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>249</v>
       </c>
@@ -10416,7 +10417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>251</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>253</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>259</v>
       </c>
@@ -10593,7 +10594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>265</v>
       </c>
@@ -10652,7 +10653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>267</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>269</v>
       </c>
@@ -10758,7 +10759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>273</v>
       </c>
@@ -10817,7 +10818,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>274</v>
       </c>
@@ -10876,7 +10877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>275</v>
       </c>
@@ -10935,7 +10936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>278</v>
       </c>
@@ -10994,7 +10995,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>279</v>
       </c>
@@ -11053,7 +11054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>280</v>
       </c>
@@ -11115,7 +11116,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>284</v>
       </c>
@@ -11174,7 +11175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>285</v>
       </c>
@@ -11233,7 +11234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>286</v>
       </c>
@@ -11292,7 +11293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>288</v>
       </c>
@@ -11351,7 +11352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>297</v>
       </c>
@@ -11410,7 +11411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>298</v>
       </c>
@@ -11469,7 +11470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>300</v>
       </c>
@@ -11528,7 +11529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>303</v>
       </c>
@@ -11649,7 +11650,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>310</v>
       </c>
@@ -11708,7 +11709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>312</v>
       </c>
@@ -11755,7 +11756,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>313</v>
       </c>
@@ -11814,7 +11815,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>316</v>
       </c>
@@ -11873,7 +11874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>319</v>
       </c>
@@ -11932,7 +11933,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>321</v>
       </c>
@@ -11991,7 +11992,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>324</v>
       </c>
@@ -12050,7 +12051,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>327</v>
       </c>
@@ -12097,7 +12098,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>330</v>
       </c>
@@ -12156,7 +12157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>331</v>
       </c>
@@ -12215,7 +12216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>335</v>
       </c>
@@ -12274,7 +12275,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>337</v>
       </c>
@@ -12333,7 +12334,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>339</v>
       </c>
@@ -12392,7 +12393,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>340</v>
       </c>
@@ -12451,7 +12452,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>343</v>
       </c>
@@ -12510,7 +12511,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>344</v>
       </c>
@@ -12569,7 +12570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>346</v>
       </c>
@@ -12628,7 +12629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>348</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>349</v>
       </c>
@@ -12746,7 +12747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>350</v>
       </c>
@@ -12805,7 +12806,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>351</v>
       </c>
@@ -12864,7 +12865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>358</v>
       </c>
@@ -12923,7 +12924,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>359</v>
       </c>
@@ -12982,7 +12983,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>360</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>363</v>
       </c>
@@ -13100,7 +13101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>366</v>
       </c>
@@ -13159,7 +13160,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>367</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>369</v>
       </c>
@@ -13277,7 +13278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>370</v>
       </c>
@@ -13324,7 +13325,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>371</v>
       </c>
@@ -13371,7 +13372,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>373</v>
       </c>
@@ -13430,7 +13431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>376</v>
       </c>
@@ -13489,7 +13490,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>377</v>
       </c>
@@ -13548,7 +13549,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>382</v>
       </c>
@@ -13607,7 +13608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>384</v>
       </c>
@@ -13666,7 +13667,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>385</v>
       </c>
@@ -13725,7 +13726,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>390</v>
       </c>
@@ -13784,7 +13785,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>391</v>
       </c>
@@ -13833,7 +13834,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>392</v>
       </c>
@@ -13880,7 +13881,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>394</v>
       </c>
@@ -13927,7 +13928,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>395</v>
       </c>
@@ -13986,7 +13987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>396</v>
       </c>
@@ -14045,7 +14046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>398</v>
       </c>
@@ -14094,7 +14095,7 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>400</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>404</v>
       </c>
@@ -14232,7 +14233,7 @@
         <v>499</v>
       </c>
       <c r="G129" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="H129" t="s">
         <v>499</v>
@@ -14323,7 +14324,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>411</v>
       </c>
@@ -14382,7 +14383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>416</v>
       </c>
@@ -14441,7 +14442,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>417</v>
       </c>
@@ -14488,7 +14489,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>423</v>
       </c>
@@ -14547,7 +14548,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>428</v>
       </c>
@@ -14606,7 +14607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>431</v>
       </c>
@@ -14665,7 +14666,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>434</v>
       </c>
@@ -14724,7 +14725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>442</v>
       </c>
@@ -14783,7 +14784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>443</v>
       </c>
@@ -14842,7 +14843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>444</v>
       </c>
@@ -14901,7 +14902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>446</v>
       </c>
@@ -14960,7 +14961,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>456</v>
       </c>
@@ -15019,7 +15020,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>463</v>
       </c>
@@ -15078,7 +15079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>465</v>
       </c>
@@ -15323,7 +15324,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>493</v>
       </c>
@@ -15382,7 +15383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>497</v>
       </c>
@@ -15466,7 +15467,7 @@
         <v>1683</v>
       </c>
       <c r="L150" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M150" t="s">
         <v>1684</v>
@@ -15480,7 +15481,7 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>501</v>
       </c>
@@ -15539,7 +15540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>506</v>
       </c>
@@ -15588,7 +15589,7 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>514</v>
       </c>
@@ -15637,7 +15638,7 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>517</v>
       </c>
@@ -15746,7 +15747,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>519</v>
       </c>
@@ -15793,7 +15794,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>521</v>
       </c>
@@ -15902,7 +15903,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>534</v>
       </c>
@@ -16011,7 +16012,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>537</v>
       </c>
@@ -16078,7 +16079,7 @@
         <v>499</v>
       </c>
       <c r="G162" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="H162" t="s">
         <v>499</v>
@@ -16120,7 +16121,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>547</v>
       </c>
@@ -16179,7 +16180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>548</v>
       </c>
@@ -16261,7 +16262,7 @@
         <v>1683</v>
       </c>
       <c r="L165" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M165" t="s">
         <v>1684</v>
@@ -16285,7 +16286,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>555</v>
       </c>
@@ -16332,7 +16333,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>559</v>
       </c>
@@ -16414,7 +16415,7 @@
         <v>1683</v>
       </c>
       <c r="L168" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M168" t="s">
         <v>1684</v>
@@ -16438,7 +16439,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>563</v>
       </c>
@@ -16497,7 +16498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>564</v>
       </c>
@@ -16641,7 +16642,7 @@
         <v>1683</v>
       </c>
       <c r="L172" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M172" t="s">
         <v>1684</v>
@@ -16653,7 +16654,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>573</v>
       </c>
@@ -16700,7 +16701,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>575</v>
       </c>
@@ -16782,7 +16783,7 @@
         <v>1683</v>
       </c>
       <c r="L175" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M175" t="s">
         <v>1684</v>
@@ -16806,7 +16807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>579</v>
       </c>
@@ -16855,7 +16856,7 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>581</v>
       </c>
@@ -16904,7 +16905,7 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>582</v>
       </c>
@@ -16998,7 +16999,7 @@
         <v>1683</v>
       </c>
       <c r="L179" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M179" t="s">
         <v>1684</v>
@@ -17012,7 +17013,7 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>584</v>
       </c>
@@ -17071,7 +17072,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>587</v>
       </c>
@@ -17120,7 +17121,7 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>589</v>
       </c>
@@ -17169,7 +17170,7 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>590</v>
       </c>
@@ -17216,7 +17217,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>591</v>
       </c>
@@ -17275,7 +17276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>596</v>
       </c>
@@ -17359,7 +17360,7 @@
         <v>1683</v>
       </c>
       <c r="L186" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M186" t="s">
         <v>1684</v>
@@ -17383,7 +17384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>611</v>
       </c>
@@ -17442,7 +17443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>613</v>
       </c>
@@ -17563,7 +17564,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>615</v>
       </c>
@@ -17622,7 +17623,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>619</v>
       </c>
@@ -17681,7 +17682,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>627</v>
       </c>
@@ -17740,7 +17741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>629</v>
       </c>
@@ -17799,7 +17800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>636</v>
       </c>
@@ -17858,7 +17859,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>640</v>
       </c>
@@ -17917,7 +17918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>645</v>
       </c>
@@ -17976,7 +17977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>647</v>
       </c>
@@ -18035,7 +18036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>650</v>
       </c>
@@ -18094,7 +18095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>651</v>
       </c>
@@ -18153,7 +18154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>656</v>
       </c>
@@ -18212,7 +18213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>658</v>
       </c>
@@ -18271,7 +18272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>659</v>
       </c>
@@ -18330,7 +18331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>660</v>
       </c>
@@ -18389,7 +18390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>661</v>
       </c>
@@ -18448,7 +18449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>662</v>
       </c>
@@ -18507,7 +18508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>663</v>
       </c>
@@ -18566,7 +18567,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>665</v>
       </c>
@@ -18615,7 +18616,7 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>669</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>670</v>
       </c>
@@ -18733,7 +18734,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>672</v>
       </c>
@@ -18792,7 +18793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>674</v>
       </c>
@@ -18839,7 +18840,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>677</v>
       </c>
@@ -18898,7 +18899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>682</v>
       </c>
@@ -18957,7 +18958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>684</v>
       </c>
@@ -19016,7 +19017,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>686</v>
       </c>
@@ -19075,7 +19076,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>688</v>
       </c>
@@ -19134,7 +19135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>690</v>
       </c>
@@ -19193,7 +19194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>693</v>
       </c>
@@ -19252,7 +19253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>694</v>
       </c>
@@ -19301,7 +19302,7 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>697</v>
       </c>
@@ -19348,7 +19349,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>698</v>
       </c>
@@ -19407,7 +19408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>699</v>
       </c>
@@ -19466,7 +19467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>702</v>
       </c>
@@ -19525,7 +19526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>705</v>
       </c>
@@ -19584,7 +19585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>706</v>
       </c>
@@ -19643,7 +19644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>707</v>
       </c>
@@ -19702,7 +19703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>708</v>
       </c>
@@ -19761,7 +19762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>710</v>
       </c>
@@ -19820,7 +19821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>717</v>
       </c>
@@ -19879,7 +19880,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>719</v>
       </c>
@@ -19928,7 +19929,7 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>720</v>
       </c>
@@ -19987,7 +19988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>721</v>
       </c>
@@ -20046,7 +20047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>722</v>
       </c>
@@ -20105,7 +20106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>724</v>
       </c>
@@ -20164,7 +20165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>726</v>
       </c>
@@ -20223,7 +20224,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>728</v>
       </c>
@@ -20282,7 +20283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>730</v>
       </c>
@@ -20341,7 +20342,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>735</v>
       </c>
@@ -20400,7 +20401,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>741</v>
       </c>
@@ -20459,7 +20460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>742</v>
       </c>
@@ -20518,7 +20519,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>746</v>
       </c>
@@ -20577,7 +20578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>764</v>
       </c>
@@ -20636,7 +20637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>765</v>
       </c>
@@ -20695,7 +20696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>773</v>
       </c>
@@ -20754,7 +20755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>782</v>
       </c>
@@ -20813,7 +20814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>785</v>
       </c>
@@ -20872,7 +20873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>789</v>
       </c>
@@ -20931,7 +20932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>793</v>
       </c>
@@ -20990,7 +20991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>797</v>
       </c>
@@ -21049,7 +21050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>800</v>
       </c>
@@ -21096,7 +21097,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>803</v>
       </c>
@@ -21155,7 +21156,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>807</v>
       </c>
@@ -21214,7 +21215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>810</v>
       </c>
@@ -21273,7 +21274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>813</v>
       </c>
@@ -21332,7 +21333,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>814</v>
       </c>
@@ -21391,7 +21392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>818</v>
       </c>
@@ -21440,7 +21441,7 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>819</v>
       </c>
@@ -21487,7 +21488,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>825</v>
       </c>
@@ -21546,7 +21547,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>829</v>
       </c>
@@ -21605,7 +21606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>838</v>
       </c>
@@ -21664,7 +21665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>842</v>
       </c>
@@ -21726,7 +21727,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>845</v>
       </c>
@@ -21788,7 +21789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>849</v>
       </c>
@@ -21847,7 +21848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>853</v>
       </c>
@@ -21906,7 +21907,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>861</v>
       </c>
@@ -21965,7 +21966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>864</v>
       </c>
@@ -22012,7 +22013,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>871</v>
       </c>
@@ -22074,7 +22075,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>882</v>
       </c>
@@ -22123,7 +22124,7 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>887</v>
       </c>
@@ -22182,7 +22183,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>898</v>
       </c>
@@ -22241,7 +22242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>901</v>
       </c>
@@ -22288,7 +22289,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>914</v>
       </c>
@@ -22335,7 +22336,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>933</v>
       </c>
@@ -22394,7 +22395,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>935</v>
       </c>
@@ -22453,7 +22454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>938</v>
       </c>
@@ -22512,7 +22513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>943</v>
       </c>
@@ -22571,7 +22572,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>948</v>
       </c>
@@ -22630,7 +22631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>953</v>
       </c>
@@ -22679,7 +22680,7 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="2"/>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>961</v>
       </c>
@@ -22738,7 +22739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>980</v>
       </c>
@@ -22797,7 +22798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>983</v>
       </c>
@@ -22856,7 +22857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>984</v>
       </c>
@@ -22915,7 +22916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>995</v>
       </c>
@@ -22974,7 +22975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1001</v>
       </c>
@@ -23033,7 +23034,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1006</v>
       </c>
@@ -23080,7 +23081,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1019</v>
       </c>
@@ -23139,7 +23140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1025</v>
       </c>
@@ -23198,7 +23199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1037</v>
       </c>
@@ -23257,7 +23258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1094</v>
       </c>
@@ -23304,7 +23305,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1101</v>
       </c>
@@ -23363,7 +23364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1103</v>
       </c>
@@ -23422,7 +23423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1104</v>
       </c>
@@ -23481,7 +23482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1116</v>
       </c>
@@ -23540,7 +23541,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1119</v>
       </c>
@@ -23599,7 +23600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1123</v>
       </c>
@@ -23658,7 +23659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1131</v>
       </c>
@@ -23717,7 +23718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1137</v>
       </c>
@@ -23776,7 +23777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1145</v>
       </c>
@@ -23835,7 +23836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1149</v>
       </c>
@@ -23894,7 +23895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1153</v>
       </c>
@@ -23941,7 +23942,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1159</v>
       </c>
@@ -24000,7 +24001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1162</v>
       </c>
@@ -24059,7 +24060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1171</v>
       </c>
@@ -24118,7 +24119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1195</v>
       </c>
@@ -24177,7 +24178,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1208</v>
       </c>
@@ -24236,7 +24237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1210</v>
       </c>
@@ -24295,7 +24296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1214</v>
       </c>
@@ -24354,7 +24355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1215</v>
       </c>
@@ -24413,7 +24414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1231</v>
       </c>
@@ -24472,7 +24473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1238</v>
       </c>
@@ -24531,7 +24532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1249</v>
       </c>
@@ -24590,7 +24591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1250</v>
       </c>
@@ -24649,7 +24650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1254</v>
       </c>
@@ -24696,7 +24697,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1261</v>
       </c>
@@ -24755,7 +24756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1262</v>
       </c>
@@ -24814,7 +24815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1274</v>
       </c>
@@ -24873,7 +24874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1282</v>
       </c>
@@ -24932,7 +24933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1290</v>
       </c>
@@ -24991,7 +24992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1294</v>
       </c>
@@ -25040,7 +25041,7 @@
       <c r="Q319" s="1"/>
       <c r="R319" s="2"/>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1300</v>
       </c>
@@ -25099,7 +25100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1313</v>
       </c>
@@ -25158,7 +25159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1317</v>
       </c>
@@ -25217,7 +25218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1321</v>
       </c>
@@ -25276,7 +25277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1330</v>
       </c>
@@ -25335,7 +25336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1355</v>
       </c>
@@ -25394,7 +25395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1360</v>
       </c>
@@ -25453,7 +25454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1374</v>
       </c>
@@ -25512,7 +25513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1389</v>
       </c>
@@ -25571,7 +25572,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1394</v>
       </c>
@@ -25633,7 +25634,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1398</v>
       </c>
@@ -25692,7 +25693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1411</v>
       </c>
@@ -25751,7 +25752,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1424</v>
       </c>
@@ -25810,7 +25811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1430</v>
       </c>
@@ -25869,7 +25870,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1434</v>
       </c>
@@ -25928,7 +25929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1444</v>
       </c>
@@ -25987,7 +25988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1450</v>
       </c>
@@ -26034,7 +26035,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1451</v>
       </c>
@@ -26093,7 +26094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1453</v>
       </c>
@@ -26152,7 +26153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1457</v>
       </c>
@@ -26211,7 +26212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1463</v>
       </c>
@@ -26270,7 +26271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1466</v>
       </c>
@@ -26329,7 +26330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1469</v>
       </c>
@@ -26388,7 +26389,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1474</v>
       </c>
@@ -26447,7 +26448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1500</v>
       </c>
@@ -26506,7 +26507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1509</v>
       </c>
@@ -26565,7 +26566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1520</v>
       </c>
@@ -26624,7 +26625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1529</v>
       </c>
@@ -26683,7 +26684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1536</v>
       </c>
@@ -26742,7 +26743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1543</v>
       </c>
@@ -26801,7 +26802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1553</v>
       </c>
@@ -26860,7 +26861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1557</v>
       </c>
@@ -26919,7 +26920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1573</v>
       </c>
@@ -26978,7 +26979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1592</v>
       </c>
@@ -27037,7 +27038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1601</v>
       </c>
@@ -27096,7 +27097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1604</v>
       </c>
@@ -27155,7 +27156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1612</v>
       </c>
@@ -27214,7 +27215,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1613</v>
       </c>
@@ -27273,7 +27274,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1614</v>
       </c>
@@ -27332,7 +27333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1617</v>
       </c>
@@ -27391,7 +27392,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1622</v>
       </c>
@@ -27438,7 +27439,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1625</v>
       </c>
@@ -27497,7 +27498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1627</v>
       </c>
@@ -27556,7 +27557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1635</v>
       </c>
@@ -27615,7 +27616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1639</v>
       </c>
@@ -27674,7 +27675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1644</v>
       </c>
@@ -27733,7 +27734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1656</v>
       </c>
@@ -27792,7 +27793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1664</v>
       </c>
@@ -27839,7 +27840,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1669</v>
       </c>
@@ -27898,7 +27899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1677</v>
       </c>
@@ -27957,7 +27958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1678</v>
       </c>
@@ -28016,7 +28017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1681</v>
       </c>
@@ -28075,7 +28076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1689</v>
       </c>
@@ -28134,7 +28135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1692</v>
       </c>
@@ -28193,7 +28194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1696</v>
       </c>
@@ -28252,7 +28253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1701</v>
       </c>
@@ -28311,7 +28312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1705</v>
       </c>
@@ -28370,7 +28371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1711</v>
       </c>
@@ -28429,7 +28430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1715</v>
       </c>
@@ -28488,7 +28489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1720</v>
       </c>
@@ -28547,7 +28548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1725</v>
       </c>
@@ -28606,7 +28607,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1733</v>
       </c>
@@ -28665,7 +28666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1744</v>
       </c>
@@ -28724,7 +28725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1753</v>
       </c>
@@ -28783,7 +28784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1756</v>
       </c>
@@ -28830,7 +28831,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1769</v>
       </c>
@@ -28889,7 +28890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1775</v>
       </c>
@@ -28948,7 +28949,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1779</v>
       </c>
@@ -29007,7 +29008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1788</v>
       </c>
@@ -29056,7 +29057,7 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="2"/>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1790</v>
       </c>
@@ -29115,7 +29116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1800</v>
       </c>
@@ -29174,7 +29175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1807</v>
       </c>
@@ -29223,7 +29224,7 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="2"/>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1812</v>
       </c>
@@ -29282,7 +29283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1818</v>
       </c>
@@ -29341,7 +29342,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1826</v>
       </c>
@@ -29400,7 +29401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1831</v>
       </c>
@@ -29459,7 +29460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1838</v>
       </c>
@@ -29521,7 +29522,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1850</v>
       </c>
@@ -29568,7 +29569,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1852</v>
       </c>
@@ -29615,7 +29616,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1868</v>
       </c>
@@ -29674,7 +29675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1876</v>
       </c>
@@ -29733,7 +29734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1877</v>
       </c>
@@ -29792,7 +29793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1878</v>
       </c>
@@ -29851,7 +29852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1880</v>
       </c>
@@ -29910,7 +29911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1887</v>
       </c>
@@ -29969,7 +29970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1890</v>
       </c>
@@ -30016,7 +30017,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1893</v>
       </c>
@@ -30075,7 +30076,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1894</v>
       </c>
@@ -30134,7 +30135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1899</v>
       </c>
@@ -30193,7 +30194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1915</v>
       </c>
@@ -30252,7 +30253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1928</v>
       </c>
@@ -30311,7 +30312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1933</v>
       </c>
@@ -30432,7 +30433,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1960</v>
       </c>
@@ -30491,7 +30492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1966</v>
       </c>
@@ -30615,6 +30616,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:T414" xr:uid="{AE202148-585A-4061-B20F-EDD71BEF1164}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:T414">
       <sortCondition ref="A1:A414"/>
     </sortState>
@@ -32173,7 +32184,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B10" ca="1" si="0">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A2))</f>
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D2" t="s">
         <v>1683</v>
@@ -32506,7 +32517,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>1932</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C6C710-1496-44D1-9372-501BE77AF55A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8C9F25-974E-4033-8427-4A111BD71C73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,9 +22,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6766,12 +6766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L172" sqref="L172"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6863,7 +6862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -6987,7 +6986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24</v>
       </c>
@@ -7226,7 +7225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -7264,7 +7263,7 @@
         <v>1683</v>
       </c>
       <c r="M8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O8" t="s">
         <v>23</v>
@@ -7285,7 +7284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -7462,7 +7461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>37</v>
       </c>
@@ -7521,7 +7520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -7580,7 +7579,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -7639,7 +7638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43</v>
       </c>
@@ -7698,7 +7697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>47</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>60</v>
       </c>
@@ -7863,7 +7862,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>61</v>
       </c>
@@ -7922,7 +7921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -8040,7 +8039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>78</v>
       </c>
@@ -8099,7 +8098,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>79</v>
       </c>
@@ -8158,7 +8157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>81</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -8276,7 +8275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>91</v>
       </c>
@@ -8335,7 +8334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>100</v>
       </c>
@@ -8453,7 +8452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>115</v>
       </c>
@@ -8512,7 +8511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>116</v>
       </c>
@@ -8561,7 +8560,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>120</v>
       </c>
@@ -8620,7 +8619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>123</v>
       </c>
@@ -8682,7 +8681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>124</v>
       </c>
@@ -8741,7 +8740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>128</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>134</v>
       </c>
@@ -8859,7 +8858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>145</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>149</v>
       </c>
@@ -8977,7 +8976,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>151</v>
       </c>
@@ -9036,7 +9035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>158</v>
       </c>
@@ -9095,7 +9094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>161</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>167</v>
       </c>
@@ -9213,7 +9212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>171</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>173</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>174</v>
       </c>
@@ -9380,7 +9379,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>175</v>
       </c>
@@ -9439,7 +9438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>178</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>184</v>
       </c>
@@ -9557,7 +9556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>186</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>189</v>
       </c>
@@ -9675,7 +9674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>192</v>
       </c>
@@ -9734,7 +9733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>195</v>
       </c>
@@ -9793,7 +9792,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>205</v>
       </c>
@@ -9901,7 +9900,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>206</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>213</v>
       </c>
@@ -10019,7 +10018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>218</v>
       </c>
@@ -10078,7 +10077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>223</v>
       </c>
@@ -10122,7 +10121,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>228</v>
       </c>
@@ -10181,7 +10180,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>234</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>241</v>
       </c>
@@ -10299,7 +10298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>246</v>
       </c>
@@ -10358,7 +10357,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>249</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>251</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>253</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>259</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>265</v>
       </c>
@@ -10653,7 +10652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>267</v>
       </c>
@@ -10700,7 +10699,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>269</v>
       </c>
@@ -10759,7 +10758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>273</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>274</v>
       </c>
@@ -10877,7 +10876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>275</v>
       </c>
@@ -10936,7 +10935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>278</v>
       </c>
@@ -10995,7 +10994,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>279</v>
       </c>
@@ -11054,7 +11053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>280</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>284</v>
       </c>
@@ -11175,7 +11174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>285</v>
       </c>
@@ -11234,7 +11233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>286</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>288</v>
       </c>
@@ -11352,7 +11351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>297</v>
       </c>
@@ -11411,7 +11410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>298</v>
       </c>
@@ -11470,7 +11469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>300</v>
       </c>
@@ -11529,7 +11528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>303</v>
       </c>
@@ -11650,7 +11649,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>310</v>
       </c>
@@ -11709,7 +11708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>312</v>
       </c>
@@ -11756,7 +11755,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>313</v>
       </c>
@@ -11815,7 +11814,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>316</v>
       </c>
@@ -11874,7 +11873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>319</v>
       </c>
@@ -11933,7 +11932,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>321</v>
       </c>
@@ -11992,7 +11991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>324</v>
       </c>
@@ -12051,7 +12050,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>327</v>
       </c>
@@ -12098,7 +12097,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>330</v>
       </c>
@@ -12157,7 +12156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>331</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>335</v>
       </c>
@@ -12275,7 +12274,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>337</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>339</v>
       </c>
@@ -12393,7 +12392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>340</v>
       </c>
@@ -12452,7 +12451,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>343</v>
       </c>
@@ -12511,7 +12510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>344</v>
       </c>
@@ -12570,7 +12569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>346</v>
       </c>
@@ -12629,7 +12628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>348</v>
       </c>
@@ -12688,7 +12687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>349</v>
       </c>
@@ -12747,7 +12746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>350</v>
       </c>
@@ -12806,7 +12805,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>351</v>
       </c>
@@ -12865,7 +12864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>358</v>
       </c>
@@ -12924,7 +12923,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>359</v>
       </c>
@@ -12983,7 +12982,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>360</v>
       </c>
@@ -13042,7 +13041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>363</v>
       </c>
@@ -13101,7 +13100,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>366</v>
       </c>
@@ -13160,7 +13159,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>367</v>
       </c>
@@ -13219,7 +13218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>369</v>
       </c>
@@ -13278,7 +13277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>370</v>
       </c>
@@ -13325,7 +13324,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>371</v>
       </c>
@@ -13372,7 +13371,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>373</v>
       </c>
@@ -13431,7 +13430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>376</v>
       </c>
@@ -13490,7 +13489,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>377</v>
       </c>
@@ -13549,7 +13548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>382</v>
       </c>
@@ -13608,7 +13607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>384</v>
       </c>
@@ -13667,7 +13666,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>385</v>
       </c>
@@ -13726,7 +13725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>390</v>
       </c>
@@ -13785,7 +13784,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>391</v>
       </c>
@@ -13834,7 +13833,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>392</v>
       </c>
@@ -13881,7 +13880,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>394</v>
       </c>
@@ -13928,7 +13927,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>395</v>
       </c>
@@ -13987,7 +13986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>396</v>
       </c>
@@ -14046,7 +14045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>398</v>
       </c>
@@ -14095,7 +14094,7 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>400</v>
       </c>
@@ -14154,7 +14153,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>404</v>
       </c>
@@ -14324,7 +14323,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>411</v>
       </c>
@@ -14383,7 +14382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>416</v>
       </c>
@@ -14442,7 +14441,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>417</v>
       </c>
@@ -14489,7 +14488,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>423</v>
       </c>
@@ -14548,7 +14547,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>428</v>
       </c>
@@ -14607,7 +14606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>431</v>
       </c>
@@ -14666,7 +14665,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>434</v>
       </c>
@@ -14725,7 +14724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>442</v>
       </c>
@@ -14784,7 +14783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>443</v>
       </c>
@@ -14843,7 +14842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>444</v>
       </c>
@@ -14902,7 +14901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>446</v>
       </c>
@@ -14961,7 +14960,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>456</v>
       </c>
@@ -15020,7 +15019,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>463</v>
       </c>
@@ -15079,7 +15078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>465</v>
       </c>
@@ -15324,7 +15323,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>493</v>
       </c>
@@ -15383,7 +15382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>497</v>
       </c>
@@ -15481,7 +15480,7 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>501</v>
       </c>
@@ -15540,7 +15539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>506</v>
       </c>
@@ -15589,7 +15588,7 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>514</v>
       </c>
@@ -15638,7 +15637,7 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>517</v>
       </c>
@@ -15747,7 +15746,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>519</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>521</v>
       </c>
@@ -15903,7 +15902,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>534</v>
       </c>
@@ -16012,7 +16011,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>537</v>
       </c>
@@ -16121,7 +16120,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>547</v>
       </c>
@@ -16180,7 +16179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>548</v>
       </c>
@@ -16286,7 +16285,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>555</v>
       </c>
@@ -16333,7 +16332,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>559</v>
       </c>
@@ -16439,7 +16438,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>563</v>
       </c>
@@ -16498,7 +16497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>564</v>
       </c>
@@ -16654,7 +16653,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>573</v>
       </c>
@@ -16701,7 +16700,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>575</v>
       </c>
@@ -16807,7 +16806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>579</v>
       </c>
@@ -16856,7 +16855,7 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>581</v>
       </c>
@@ -16905,7 +16904,7 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>582</v>
       </c>
@@ -17013,7 +17012,7 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>584</v>
       </c>
@@ -17072,7 +17071,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>587</v>
       </c>
@@ -17121,7 +17120,7 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>589</v>
       </c>
@@ -17170,7 +17169,7 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>590</v>
       </c>
@@ -17217,7 +17216,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>591</v>
       </c>
@@ -17276,7 +17275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>596</v>
       </c>
@@ -17384,7 +17383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>611</v>
       </c>
@@ -17443,7 +17442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>613</v>
       </c>
@@ -17564,7 +17563,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>615</v>
       </c>
@@ -17623,7 +17622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>619</v>
       </c>
@@ -17682,7 +17681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>627</v>
       </c>
@@ -17741,7 +17740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>629</v>
       </c>
@@ -17800,7 +17799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>636</v>
       </c>
@@ -17859,7 +17858,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>640</v>
       </c>
@@ -17918,7 +17917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>645</v>
       </c>
@@ -17977,7 +17976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>647</v>
       </c>
@@ -18036,7 +18035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>650</v>
       </c>
@@ -18095,7 +18094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>651</v>
       </c>
@@ -18154,7 +18153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>656</v>
       </c>
@@ -18213,7 +18212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>658</v>
       </c>
@@ -18272,7 +18271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>659</v>
       </c>
@@ -18331,7 +18330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>660</v>
       </c>
@@ -18390,7 +18389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>661</v>
       </c>
@@ -18449,7 +18448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>662</v>
       </c>
@@ -18508,7 +18507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>663</v>
       </c>
@@ -18567,7 +18566,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>665</v>
       </c>
@@ -18616,7 +18615,7 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>669</v>
       </c>
@@ -18675,7 +18674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>670</v>
       </c>
@@ -18734,7 +18733,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>672</v>
       </c>
@@ -18793,7 +18792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>674</v>
       </c>
@@ -18840,7 +18839,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>677</v>
       </c>
@@ -18899,7 +18898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>682</v>
       </c>
@@ -18958,7 +18957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>684</v>
       </c>
@@ -19017,7 +19016,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>686</v>
       </c>
@@ -19076,7 +19075,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>688</v>
       </c>
@@ -19135,7 +19134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>690</v>
       </c>
@@ -19194,7 +19193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>693</v>
       </c>
@@ -19253,7 +19252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>694</v>
       </c>
@@ -19302,7 +19301,7 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>697</v>
       </c>
@@ -19349,7 +19348,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>698</v>
       </c>
@@ -19408,7 +19407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>699</v>
       </c>
@@ -19467,7 +19466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>702</v>
       </c>
@@ -19526,7 +19525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>705</v>
       </c>
@@ -19585,7 +19584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>706</v>
       </c>
@@ -19644,7 +19643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>707</v>
       </c>
@@ -19703,7 +19702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>708</v>
       </c>
@@ -19762,7 +19761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>710</v>
       </c>
@@ -19821,7 +19820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>717</v>
       </c>
@@ -19880,7 +19879,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>719</v>
       </c>
@@ -19929,7 +19928,7 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>720</v>
       </c>
@@ -19988,7 +19987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>721</v>
       </c>
@@ -20047,7 +20046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>722</v>
       </c>
@@ -20106,7 +20105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>724</v>
       </c>
@@ -20165,7 +20164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>726</v>
       </c>
@@ -20224,7 +20223,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>728</v>
       </c>
@@ -20283,7 +20282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>730</v>
       </c>
@@ -20342,7 +20341,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>735</v>
       </c>
@@ -20401,7 +20400,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>741</v>
       </c>
@@ -20460,7 +20459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>742</v>
       </c>
@@ -20519,7 +20518,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>746</v>
       </c>
@@ -20578,7 +20577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>764</v>
       </c>
@@ -20637,7 +20636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>765</v>
       </c>
@@ -20696,7 +20695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>773</v>
       </c>
@@ -20755,7 +20754,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>782</v>
       </c>
@@ -20814,7 +20813,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>785</v>
       </c>
@@ -20873,7 +20872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>789</v>
       </c>
@@ -20932,7 +20931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>793</v>
       </c>
@@ -20991,7 +20990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>797</v>
       </c>
@@ -21050,7 +21049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>800</v>
       </c>
@@ -21097,7 +21096,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>803</v>
       </c>
@@ -21156,7 +21155,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>807</v>
       </c>
@@ -21215,7 +21214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>810</v>
       </c>
@@ -21274,7 +21273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>813</v>
       </c>
@@ -21333,7 +21332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>814</v>
       </c>
@@ -21392,7 +21391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>818</v>
       </c>
@@ -21441,7 +21440,7 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>819</v>
       </c>
@@ -21488,7 +21487,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>825</v>
       </c>
@@ -21547,7 +21546,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>829</v>
       </c>
@@ -21606,7 +21605,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>838</v>
       </c>
@@ -21665,7 +21664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>842</v>
       </c>
@@ -21727,7 +21726,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>845</v>
       </c>
@@ -21789,7 +21788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>849</v>
       </c>
@@ -21848,7 +21847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>853</v>
       </c>
@@ -21907,7 +21906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>861</v>
       </c>
@@ -21966,7 +21965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>864</v>
       </c>
@@ -22013,7 +22012,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>871</v>
       </c>
@@ -22075,7 +22074,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>882</v>
       </c>
@@ -22124,7 +22123,7 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>887</v>
       </c>
@@ -22183,7 +22182,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>898</v>
       </c>
@@ -22242,7 +22241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>901</v>
       </c>
@@ -22289,7 +22288,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>914</v>
       </c>
@@ -22336,7 +22335,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>933</v>
       </c>
@@ -22395,7 +22394,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>935</v>
       </c>
@@ -22454,7 +22453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>938</v>
       </c>
@@ -22513,7 +22512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>943</v>
       </c>
@@ -22572,7 +22571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>948</v>
       </c>
@@ -22631,7 +22630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>953</v>
       </c>
@@ -22680,7 +22679,7 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="2"/>
     </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>961</v>
       </c>
@@ -22739,7 +22738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>980</v>
       </c>
@@ -22798,7 +22797,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>983</v>
       </c>
@@ -22857,7 +22856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>984</v>
       </c>
@@ -22916,7 +22915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>995</v>
       </c>
@@ -22975,7 +22974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1001</v>
       </c>
@@ -23034,7 +23033,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1006</v>
       </c>
@@ -23081,7 +23080,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1019</v>
       </c>
@@ -23140,7 +23139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1025</v>
       </c>
@@ -23199,7 +23198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1037</v>
       </c>
@@ -23258,7 +23257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1094</v>
       </c>
@@ -23305,7 +23304,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1101</v>
       </c>
@@ -23364,7 +23363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1103</v>
       </c>
@@ -23423,7 +23422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1104</v>
       </c>
@@ -23482,7 +23481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1116</v>
       </c>
@@ -23541,7 +23540,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1119</v>
       </c>
@@ -23600,7 +23599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1123</v>
       </c>
@@ -23659,7 +23658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1131</v>
       </c>
@@ -23718,7 +23717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1137</v>
       </c>
@@ -23777,7 +23776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1145</v>
       </c>
@@ -23836,7 +23835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1149</v>
       </c>
@@ -23895,7 +23894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1153</v>
       </c>
@@ -23942,7 +23941,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1159</v>
       </c>
@@ -24001,7 +24000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1162</v>
       </c>
@@ -24060,7 +24059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1171</v>
       </c>
@@ -24119,7 +24118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1195</v>
       </c>
@@ -24178,7 +24177,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1208</v>
       </c>
@@ -24237,7 +24236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1210</v>
       </c>
@@ -24296,7 +24295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1214</v>
       </c>
@@ -24355,7 +24354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1215</v>
       </c>
@@ -24414,7 +24413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1231</v>
       </c>
@@ -24473,7 +24472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1238</v>
       </c>
@@ -24532,7 +24531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1249</v>
       </c>
@@ -24591,7 +24590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1250</v>
       </c>
@@ -24650,7 +24649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1254</v>
       </c>
@@ -24697,7 +24696,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1261</v>
       </c>
@@ -24756,7 +24755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1262</v>
       </c>
@@ -24815,7 +24814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1274</v>
       </c>
@@ -24874,7 +24873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1282</v>
       </c>
@@ -24933,7 +24932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1290</v>
       </c>
@@ -24992,7 +24991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1294</v>
       </c>
@@ -25041,7 +25040,7 @@
       <c r="Q319" s="1"/>
       <c r="R319" s="2"/>
     </row>
-    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1300</v>
       </c>
@@ -25100,7 +25099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1313</v>
       </c>
@@ -25159,7 +25158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1317</v>
       </c>
@@ -25218,7 +25217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1321</v>
       </c>
@@ -25277,7 +25276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1330</v>
       </c>
@@ -25336,7 +25335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1355</v>
       </c>
@@ -25395,7 +25394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1360</v>
       </c>
@@ -25454,7 +25453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1374</v>
       </c>
@@ -25513,7 +25512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1389</v>
       </c>
@@ -25572,7 +25571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1394</v>
       </c>
@@ -25634,7 +25633,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1398</v>
       </c>
@@ -25693,7 +25692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1411</v>
       </c>
@@ -25752,7 +25751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1424</v>
       </c>
@@ -25811,7 +25810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1430</v>
       </c>
@@ -25870,7 +25869,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1434</v>
       </c>
@@ -25929,7 +25928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1444</v>
       </c>
@@ -25988,7 +25987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1450</v>
       </c>
@@ -26035,7 +26034,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1451</v>
       </c>
@@ -26094,7 +26093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1453</v>
       </c>
@@ -26153,7 +26152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1457</v>
       </c>
@@ -26212,7 +26211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1463</v>
       </c>
@@ -26271,7 +26270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1466</v>
       </c>
@@ -26330,7 +26329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1469</v>
       </c>
@@ -26389,7 +26388,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1474</v>
       </c>
@@ -26448,7 +26447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1500</v>
       </c>
@@ -26507,7 +26506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1509</v>
       </c>
@@ -26566,7 +26565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1520</v>
       </c>
@@ -26625,7 +26624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1529</v>
       </c>
@@ -26684,7 +26683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1536</v>
       </c>
@@ -26743,7 +26742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1543</v>
       </c>
@@ -26802,7 +26801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1553</v>
       </c>
@@ -26861,7 +26860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1557</v>
       </c>
@@ -26920,7 +26919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1573</v>
       </c>
@@ -26979,7 +26978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1592</v>
       </c>
@@ -27038,7 +27037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1601</v>
       </c>
@@ -27097,7 +27096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1604</v>
       </c>
@@ -27156,7 +27155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1612</v>
       </c>
@@ -27215,7 +27214,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1613</v>
       </c>
@@ -27274,7 +27273,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1614</v>
       </c>
@@ -27333,7 +27332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1617</v>
       </c>
@@ -27392,7 +27391,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1622</v>
       </c>
@@ -27439,7 +27438,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1625</v>
       </c>
@@ -27498,7 +27497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1627</v>
       </c>
@@ -27557,7 +27556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1635</v>
       </c>
@@ -27616,7 +27615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1639</v>
       </c>
@@ -27675,7 +27674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1644</v>
       </c>
@@ -27734,7 +27733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1656</v>
       </c>
@@ -27793,7 +27792,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1664</v>
       </c>
@@ -27840,7 +27839,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1669</v>
       </c>
@@ -27899,7 +27898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1677</v>
       </c>
@@ -27958,7 +27957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1678</v>
       </c>
@@ -28017,7 +28016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1681</v>
       </c>
@@ -28076,7 +28075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1689</v>
       </c>
@@ -28135,7 +28134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1692</v>
       </c>
@@ -28194,7 +28193,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1696</v>
       </c>
@@ -28253,7 +28252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1701</v>
       </c>
@@ -28312,7 +28311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1705</v>
       </c>
@@ -28371,7 +28370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1711</v>
       </c>
@@ -28430,7 +28429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1715</v>
       </c>
@@ -28489,7 +28488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1720</v>
       </c>
@@ -28548,7 +28547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1725</v>
       </c>
@@ -28607,7 +28606,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1733</v>
       </c>
@@ -28666,7 +28665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1744</v>
       </c>
@@ -28725,7 +28724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1753</v>
       </c>
@@ -28784,7 +28783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1756</v>
       </c>
@@ -28831,7 +28830,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1769</v>
       </c>
@@ -28890,7 +28889,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1775</v>
       </c>
@@ -28949,7 +28948,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1779</v>
       </c>
@@ -29008,7 +29007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1788</v>
       </c>
@@ -29057,7 +29056,7 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="2"/>
     </row>
-    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1790</v>
       </c>
@@ -29116,7 +29115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1800</v>
       </c>
@@ -29175,7 +29174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1807</v>
       </c>
@@ -29224,7 +29223,7 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="2"/>
     </row>
-    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1812</v>
       </c>
@@ -29283,7 +29282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1818</v>
       </c>
@@ -29342,7 +29341,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1826</v>
       </c>
@@ -29401,7 +29400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1831</v>
       </c>
@@ -29460,7 +29459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1838</v>
       </c>
@@ -29522,7 +29521,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1850</v>
       </c>
@@ -29569,7 +29568,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1852</v>
       </c>
@@ -29616,7 +29615,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1868</v>
       </c>
@@ -29675,7 +29674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1876</v>
       </c>
@@ -29734,7 +29733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1877</v>
       </c>
@@ -29793,7 +29792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1878</v>
       </c>
@@ -29852,7 +29851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1880</v>
       </c>
@@ -29911,7 +29910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1887</v>
       </c>
@@ -29970,7 +29969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1890</v>
       </c>
@@ -30017,7 +30016,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1893</v>
       </c>
@@ -30076,7 +30075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1894</v>
       </c>
@@ -30135,7 +30134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1899</v>
       </c>
@@ -30194,7 +30193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1915</v>
       </c>
@@ -30253,7 +30252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1928</v>
       </c>
@@ -30312,7 +30311,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1933</v>
       </c>
@@ -30433,7 +30432,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1960</v>
       </c>
@@ -30492,7 +30491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1966</v>
       </c>
@@ -30616,16 +30615,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:T414" xr:uid="{AE202148-585A-4061-B20F-EDD71BEF1164}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="No"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:T414">
       <sortCondition ref="A1:A414"/>
     </sortState>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8C9F25-974E-4033-8427-4A111BD71C73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69252CA2-307F-4716-A71C-D4E8D7DE0AB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6770,7 +6770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7322,7 +7322,7 @@
         <v>1683</v>
       </c>
       <c r="M9" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O9" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69252CA2-307F-4716-A71C-D4E8D7DE0AB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20D9330-082C-4451-8700-6E87BFF59879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -6769,8 +6769,8 @@
   <dimension ref="A1:T435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30263,7 +30263,7 @@
         <v>1636</v>
       </c>
       <c r="D410" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E410" s="8" t="s">
         <v>1637</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20D9330-082C-4451-8700-6E87BFF59879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC4314-8E28-4928-92C0-3EE31F8B88B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -6769,8 +6769,8 @@
   <dimension ref="A1:T435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D413" sqref="D413"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7440,7 +7440,7 @@
         <v>1683</v>
       </c>
       <c r="M11" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O11" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC4314-8E28-4928-92C0-3EE31F8B88B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA28996F-E1B4-4847-9CF2-B324A11214CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6770,7 +6770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7499,7 +7499,7 @@
         <v>1683</v>
       </c>
       <c r="M12" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O12" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA28996F-E1B4-4847-9CF2-B324A11214CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A80858-C2A2-44FD-813C-630BE068D7FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6770,7 +6770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7558,7 +7558,7 @@
         <v>1683</v>
       </c>
       <c r="M13" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O13" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3EFCEB-7B60-477A-A03A-83FE253BA7FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE6CD2B-C6AD-4792-B7F1-54F23128E3CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="3" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7368" uniqueCount="1994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7372" uniqueCount="1998">
   <si>
     <t>Taxon Sort</t>
   </si>
@@ -6232,6 +6232,18 @@
   </si>
   <si>
     <t>New Holland x White-cheeked Honeyeater</t>
+  </si>
+  <si>
+    <t>406_Grey Ternlet_01.jpg</t>
+  </si>
+  <si>
+    <t>https://macaulaylibrary.org/asset/144434481</t>
+  </si>
+  <si>
+    <t>Moreton Bay off Wynnum</t>
+  </si>
+  <si>
+    <t>Lena Chi</t>
   </si>
 </sst>
 </file>
@@ -6808,12 +6820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:V435"/>
+  <dimension ref="A1:U435"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C400" sqref="C400"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8641,7 +8652,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2127</v>
       </c>
@@ -9502,7 +9513,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3194</v>
       </c>
@@ -10050,7 +10061,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3358</v>
       </c>
@@ -12112,7 +12123,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5706</v>
       </c>
@@ -14187,7 +14198,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6025</v>
       </c>
@@ -14289,7 +14300,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6075</v>
       </c>
@@ -14875,7 +14886,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6321</v>
       </c>
@@ -14919,15 +14930,28 @@
         <v>1834</v>
       </c>
       <c r="O133" t="s">
-        <v>1814</v>
-      </c>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="P133" t="s">
+        <v>1994</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="R133" s="2">
+        <v>43533</v>
+      </c>
+      <c r="S133" t="s">
+        <v>1996</v>
+      </c>
+      <c r="T133" t="s">
+        <v>1997</v>
+      </c>
       <c r="U133">
         <v>406</v>
       </c>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6331</v>
       </c>
@@ -15612,7 +15636,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6481</v>
       </c>
@@ -15677,7 +15701,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6492</v>
       </c>
@@ -15742,7 +15766,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6519</v>
       </c>
@@ -15869,7 +15893,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6544</v>
       </c>
@@ -15934,7 +15958,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6545</v>
       </c>
@@ -15984,7 +16008,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6546</v>
       </c>
@@ -16101,7 +16125,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6557</v>
       </c>
@@ -16153,7 +16177,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6561</v>
       </c>
@@ -16519,7 +16543,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6650</v>
       </c>
@@ -16808,7 +16832,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6677</v>
       </c>
@@ -16858,7 +16882,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6681</v>
       </c>
@@ -16908,7 +16932,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6682</v>
       </c>
@@ -17147,7 +17171,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6707</v>
       </c>
@@ -17247,7 +17271,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6716</v>
       </c>
@@ -17488,7 +17512,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6739</v>
       </c>
@@ -17540,7 +17564,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>6741</v>
       </c>
@@ -17932,7 +17956,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>6777</v>
       </c>
@@ -18108,7 +18132,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>6855</v>
       </c>
@@ -18780,7 +18804,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>7003</v>
       </c>
@@ -19949,7 +19973,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>7313</v>
       </c>
@@ -20609,7 +20633,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>7804</v>
       </c>
@@ -23204,7 +23228,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>11798</v>
       </c>
@@ -23256,7 +23280,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>11810</v>
       </c>
@@ -24400,7 +24424,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>16890</v>
       </c>
@@ -26546,7 +26570,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>17501</v>
       </c>
@@ -30872,7 +30896,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="399" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>28322</v>
       </c>
@@ -31421,7 +31445,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>34104</v>
       </c>
@@ -31659,7 +31683,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>34133</v>
       </c>
@@ -31899,13 +31923,7 @@
       <c r="E435"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T414" xr:uid="{19B4AC61-4D89-4886-A4F3-71B43E4AFDAA}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T414" xr:uid="{19B4AC61-4D89-4886-A4F3-71B43E4AFDAA}"/>
   <sortState ref="A2:U414">
     <sortCondition ref="U1"/>
   </sortState>
@@ -32121,10 +32139,11 @@
     <hyperlink ref="Q259" r:id="rId209" xr:uid="{B56B0650-0B6D-4FE8-B110-7AAD0678C5FE}"/>
     <hyperlink ref="Q258" r:id="rId210" xr:uid="{F0942B82-A764-49DA-A8AB-84F5AF6CB634}"/>
     <hyperlink ref="Q174" r:id="rId211" xr:uid="{B2CD6B08-E97E-41F0-A3D8-9A84E89D5B71}"/>
+    <hyperlink ref="Q133" r:id="rId212" xr:uid="{D3385EE0-5F7D-407E-B4C1-3D0032A601A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId212"/>
-  <legacyDrawing r:id="rId213"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId213"/>
+  <legacyDrawing r:id="rId214"/>
 </worksheet>
 </file>
 
@@ -32133,7 +32152,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32401,7 +32420,7 @@
         <v>1682</v>
       </c>
       <c r="L5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M5" t="s">
         <v>1683</v>
@@ -32442,7 +32461,7 @@
         <v>1682</v>
       </c>
       <c r="L6" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M6" t="s">
         <v>1683</v>
@@ -33884,7 +33903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04E6990-0DE1-4FFF-9BE3-82E036D7135B}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5928930F-B8F7-4346-AB3B-00EFDAFE21B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158E1E3E-BDBB-463F-A539-9979BA8ECC6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7386" uniqueCount="2001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7413" uniqueCount="2009">
   <si>
     <t>Taxon Sort</t>
   </si>
@@ -6253,6 +6253,30 @@
   </si>
   <si>
     <t>Article</t>
+  </si>
+  <si>
+    <t>H00468</t>
+  </si>
+  <si>
+    <t>Muscovy Duck x Mallard (hybrid)</t>
+  </si>
+  <si>
+    <t>Cairina moschata x Anas platyrhynchos</t>
+  </si>
+  <si>
+    <t>Muscovy Duck x Mallard</t>
+  </si>
+  <si>
+    <t>Cox's Sandpiper</t>
+  </si>
+  <si>
+    <t>G00272</t>
+  </si>
+  <si>
+    <t>Domestic goose sp. (Domestic type)</t>
+  </si>
+  <si>
+    <t>Anser sp. (Domestic type)</t>
   </si>
 </sst>
 </file>
@@ -6829,12 +6853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U435"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8662,7 +8685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2127</v>
       </c>
@@ -9523,7 +9546,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3194</v>
       </c>
@@ -10071,7 +10094,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3358</v>
       </c>
@@ -14208,7 +14231,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6025</v>
       </c>
@@ -14310,7 +14333,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6075</v>
       </c>
@@ -15956,7 +15979,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6545</v>
       </c>
@@ -16121,7 +16144,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6557</v>
       </c>
@@ -16173,7 +16196,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6561</v>
       </c>
@@ -16857,7 +16880,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6677</v>
       </c>
@@ -16907,7 +16930,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6681</v>
       </c>
@@ -17181,7 +17204,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6707</v>
       </c>
@@ -17522,7 +17545,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6739</v>
       </c>
@@ -17574,7 +17597,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>6741</v>
       </c>
@@ -17966,7 +17989,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>6777</v>
       </c>
@@ -18142,7 +18165,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>6855</v>
       </c>
@@ -19983,7 +20006,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>7313</v>
       </c>
@@ -20643,7 +20666,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>7804</v>
       </c>
@@ -23238,7 +23261,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>11798</v>
       </c>
@@ -23290,7 +23313,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>11810</v>
       </c>
@@ -24446,7 +24469,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>16890</v>
       </c>
@@ -26583,7 +26606,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>17501</v>
       </c>
@@ -31455,7 +31478,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>34104</v>
       </c>
@@ -31693,7 +31716,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>34133</v>
       </c>
@@ -31933,13 +31956,7 @@
       <c r="E435"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T414" xr:uid="{19B4AC61-4D89-4886-A4F3-71B43E4AFDAA}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T414" xr:uid="{19B4AC61-4D89-4886-A4F3-71B43E4AFDAA}"/>
   <sortState ref="A2:U414">
     <sortCondition ref="A1"/>
   </sortState>
@@ -32165,10 +32182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFAC224-3B06-46C1-8FBC-4E0275C3F461}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32177,7 +32194,7 @@
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -32986,19 +33003,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>1978</v>
+        <v>2006</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C20" t="s">
-        <v>1756</v>
+        <v>2007</v>
       </c>
       <c r="D20" t="s">
-        <v>1756</v>
+        <v>2007</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1757</v>
+        <v>2008</v>
       </c>
       <c r="F20" t="s">
         <v>1748</v>
@@ -33019,7 +33036,7 @@
         <v>1682</v>
       </c>
       <c r="L20" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="M20" t="s">
         <v>1683</v>
@@ -33027,19 +33044,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C21" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="D21" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>1700</v>
+        <v>1757</v>
       </c>
       <c r="F21" t="s">
         <v>1748</v>
@@ -33068,19 +33085,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C22" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="D22" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1761</v>
+        <v>1700</v>
       </c>
       <c r="F22" t="s">
         <v>1748</v>
@@ -33109,19 +33126,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C23" t="s">
-        <v>1753</v>
+        <v>1760</v>
       </c>
       <c r="D23" t="s">
-        <v>1753</v>
+        <v>1760</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>1754</v>
+        <v>1761</v>
       </c>
       <c r="F23" t="s">
         <v>1748</v>
@@ -33150,19 +33167,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C24" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="D24" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="F24" t="s">
         <v>1748</v>
@@ -33191,19 +33208,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C25" t="s">
-        <v>1749</v>
+        <v>1758</v>
       </c>
       <c r="D25" t="s">
-        <v>1749</v>
+        <v>1758</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>1750</v>
+        <v>1759</v>
       </c>
       <c r="F25" t="s">
         <v>1748</v>
@@ -33229,25 +33246,22 @@
       <c r="M25" t="s">
         <v>1683</v>
       </c>
-      <c r="N25" t="s">
-        <v>1816</v>
-      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C26" t="s">
-        <v>1764</v>
+        <v>1749</v>
       </c>
       <c r="D26" t="s">
-        <v>1764</v>
+        <v>1749</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>1765</v>
+        <v>1750</v>
       </c>
       <c r="F26" t="s">
         <v>1748</v>
@@ -33268,79 +33282,79 @@
         <v>1682</v>
       </c>
       <c r="L26" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M26" t="s">
         <v>1683</v>
       </c>
       <c r="N26" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1683</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N27" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1990</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>1723</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1725</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>1720</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>1720</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K28" t="s">
-        <v>1682</v>
-      </c>
-      <c r="L28" t="s">
-        <v>1683</v>
-      </c>
-      <c r="M28" t="s">
-        <v>1683</v>
-      </c>
-      <c r="N28" t="s">
-        <v>1726</v>
-      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>1986</v>
+        <v>2001</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C29" t="s">
-        <v>1727</v>
+        <v>2002</v>
       </c>
       <c r="D29" t="s">
-        <v>1727</v>
+        <v>2004</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>1729</v>
+        <v>2003</v>
       </c>
       <c r="F29" t="s">
         <v>1724</v>
@@ -33367,24 +33381,24 @@
         <v>1683</v>
       </c>
       <c r="N29" t="s">
-        <v>1734</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C30" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D30" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="F30" t="s">
         <v>1724</v>
@@ -33411,24 +33425,24 @@
         <v>1683</v>
       </c>
       <c r="N30" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C31" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
       <c r="D31" t="s">
-        <v>1992</v>
+        <v>2005</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="F31" t="s">
         <v>1724</v>
@@ -33455,11 +33469,99 @@
         <v>1683</v>
       </c>
       <c r="N31" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1683</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1683</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="10"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T3" xr:uid="{C3BDEECB-DEA1-4819-8F62-78B8A91245CF}">
@@ -33483,7 +33585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C82657-9756-4B67-8631-B6FE063E8DDC}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -33545,7 +33647,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A2))</f>
+        <f t="shared" ref="B2:B10" ca="1" si="0">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A2))</f>
         <v>367</v>
       </c>
       <c r="D2" t="s">
@@ -33566,7 +33668,7 @@
         <v>1663</v>
       </c>
       <c r="K2" s="15">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!H:H"),J2))</f>
+        <f t="shared" ref="K2:K8" ca="1" si="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!H:H"),J2))</f>
         <v>24</v>
       </c>
       <c r="M2" s="14" t="s">
@@ -33580,7 +33682,7 @@
         <v>1667</v>
       </c>
       <c r="Q2" s="15">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!J:J"),P2))</f>
+        <f t="shared" ref="Q2:Q10" ca="1" si="2">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!J:J"),P2))</f>
         <v>157</v>
       </c>
       <c r="S2" s="14" t="s">
@@ -33596,7 +33698,7 @@
         <v>1745</v>
       </c>
       <c r="B3">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A3))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" t="s">
@@ -33610,35 +33712,35 @@
         <v>266</v>
       </c>
       <c r="H3" s="16">
-        <f t="shared" ref="H3:H6" ca="1" si="0">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!O:O"),G3))</f>
+        <f t="shared" ref="H3:H6" ca="1" si="3">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!O:O"),G3))</f>
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>1659</v>
       </c>
       <c r="K3" s="16">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!H:H"),J3))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>71</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="16">
-        <f t="shared" ref="N3:N5" ca="1" si="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!I:I"),M3))</f>
+        <f t="shared" ref="N3:N5" ca="1" si="4">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!I:I"),M3))</f>
         <v>118</v>
       </c>
       <c r="P3" s="16" t="s">
         <v>1662</v>
       </c>
       <c r="Q3" s="16">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!J:J"),P3))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>17</v>
       </c>
       <c r="S3" s="16" t="s">
         <v>64</v>
       </c>
       <c r="T3" s="16">
-        <f t="shared" ref="T3:T5" ca="1" si="2">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!F:F"),S3))</f>
+        <f t="shared" ref="T3:T5" ca="1" si="5">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!F:F"),S3))</f>
         <v>62</v>
       </c>
     </row>
@@ -33647,7 +33749,7 @@
         <v>137</v>
       </c>
       <c r="B4">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A4))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="D4" t="s">
@@ -33661,35 +33763,35 @@
         <v>1885</v>
       </c>
       <c r="H4" s="15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>1916</v>
       </c>
       <c r="K4" s="15">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!H:H"),J4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>54</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>499</v>
       </c>
       <c r="N4" s="15">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>108</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>1665</v>
       </c>
       <c r="Q4" s="15">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!J:J"),P4))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>54</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>51</v>
       </c>
       <c r="T4" s="15">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>24</v>
       </c>
     </row>
@@ -33698,7 +33800,7 @@
         <v>1641</v>
       </c>
       <c r="B5">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A5))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="D5" t="s">
@@ -33712,35 +33814,35 @@
         <v>1814</v>
       </c>
       <c r="H5" s="17">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>65</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>1658</v>
       </c>
       <c r="K5" s="16">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!H:H"),J5))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>73</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>1740</v>
       </c>
       <c r="N5" s="16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
       <c r="P5" s="16" t="s">
         <v>1657</v>
       </c>
       <c r="Q5" s="16">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!J:J"),P5))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>13</v>
       </c>
       <c r="S5" s="16" t="s">
         <v>1740</v>
       </c>
       <c r="T5" s="16">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -33749,7 +33851,7 @@
         <v>1684</v>
       </c>
       <c r="B6">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A6))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="D6" s="6"/>
@@ -33758,28 +33860,28 @@
         <v>2000</v>
       </c>
       <c r="H6" s="15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>51</v>
       </c>
       <c r="K6" s="15">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!H:H"),J6))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>79</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>1666</v>
       </c>
       <c r="Q6" s="15">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!J:J"),P6))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>499</v>
       </c>
       <c r="T6" s="15">
-        <f t="shared" ref="T6" ca="1" si="3">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!F:F"),S6))</f>
+        <f t="shared" ref="T6" ca="1" si="6">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!F:F"),S6))</f>
         <v>108</v>
       </c>
     </row>
@@ -33788,7 +33890,7 @@
         <v>1746</v>
       </c>
       <c r="B7">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A7))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -33802,7 +33904,7 @@
         <v>499</v>
       </c>
       <c r="K7" s="16">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!H:H"),J7))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>108</v>
       </c>
       <c r="M7" s="11" t="s">
@@ -33816,7 +33918,7 @@
         <v>1664</v>
       </c>
       <c r="Q7" s="16">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!J:J"),P7))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>21</v>
       </c>
     </row>
@@ -33825,8 +33927,8 @@
         <v>1670</v>
       </c>
       <c r="B8">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A8))</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>1654</v>
@@ -33846,14 +33948,14 @@
         <v>1740</v>
       </c>
       <c r="K8" s="15">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!H:H"),J8))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>1661</v>
       </c>
       <c r="Q8" s="15">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!J:J"),P8))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>29</v>
       </c>
       <c r="S8" s="11" t="s">
@@ -33869,14 +33971,14 @@
         <v>1725</v>
       </c>
       <c r="B9">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A9))</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>499</v>
       </c>
       <c r="Q9" s="16">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!J:J"),P9))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>108</v>
       </c>
     </row>
@@ -33885,7 +33987,7 @@
         <v>108</v>
       </c>
       <c r="B10">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$17&amp;"'!G:G"),A10))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="J10" s="11" t="s">
@@ -33899,7 +34001,7 @@
         <v>1740</v>
       </c>
       <c r="Q10" s="15">
-        <f ca="1">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!J:J"),P10))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -33932,7 +34034,7 @@
       </c>
       <c r="B13" s="12">
         <f ca="1">SUM(B2:B10)</f>
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C13" s="10"/>
     </row>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158E1E3E-BDBB-463F-A539-9979BA8ECC6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5784074C-AD13-4012-9982-C63559EAE9D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -6855,9 +6855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:U435"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7371,7 +7371,7 @@
         <v>1682</v>
       </c>
       <c r="M8" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O8" t="s">
         <v>23</v>
@@ -32184,8 +32184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFAC224-3B06-46C1-8FBC-4E0275C3F461}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32456,7 +32456,7 @@
         <v>1682</v>
       </c>
       <c r="M5" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5784074C-AD13-4012-9982-C63559EAE9D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AD7386-CEE8-4F84-95DC-2D00BCE126EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="3" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -6855,9 +6855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:U435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7433,7 +7433,7 @@
         <v>1682</v>
       </c>
       <c r="M9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O9" t="s">
         <v>23</v>
@@ -7867,7 +7867,7 @@
         <v>1682</v>
       </c>
       <c r="M16" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O16" t="s">
         <v>23</v>
@@ -32185,7 +32185,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34069,7 +34069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04E6990-0DE1-4FFF-9BE3-82E036D7135B}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -34079,7 +34079,7 @@
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AD7386-CEE8-4F84-95DC-2D00BCE126EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6524DBC-CA2E-41AF-A43F-5A7D099D92DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="3" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7413" uniqueCount="2009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7418" uniqueCount="2009">
   <si>
     <t>Taxon Sort</t>
   </si>
@@ -6267,9 +6267,6 @@
     <t>Muscovy Duck x Mallard</t>
   </si>
   <si>
-    <t>Cox's Sandpiper</t>
-  </si>
-  <si>
     <t>G00272</t>
   </si>
   <si>
@@ -6277,6 +6274,9 @@
   </si>
   <si>
     <t>Anser sp. (Domestic type)</t>
+  </si>
+  <si>
+    <t>"Cox's" Sandpiper</t>
   </si>
 </sst>
 </file>
@@ -6857,7 +6857,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12067,7 +12067,7 @@
         <v>1682</v>
       </c>
       <c r="L85" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M85" t="s">
         <v>1683</v>
@@ -14954,7 +14954,7 @@
         <v>1682</v>
       </c>
       <c r="L133" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M133" t="s">
         <v>1683</v>
@@ -15019,7 +15019,7 @@
         <v>1682</v>
       </c>
       <c r="L134" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M134" t="s">
         <v>1683</v>
@@ -15704,7 +15704,7 @@
         <v>1682</v>
       </c>
       <c r="L145" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M145" t="s">
         <v>1683</v>
@@ -15769,7 +15769,7 @@
         <v>1682</v>
       </c>
       <c r="L146" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M146" t="s">
         <v>1683</v>
@@ -15834,7 +15834,7 @@
         <v>1682</v>
       </c>
       <c r="L147" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M147" t="s">
         <v>1683</v>
@@ -15949,7 +15949,7 @@
         <v>1682</v>
       </c>
       <c r="L149" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M149" t="s">
         <v>1683</v>
@@ -16064,7 +16064,7 @@
         <v>1682</v>
       </c>
       <c r="L151" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M151" t="s">
         <v>1683</v>
@@ -16561,7 +16561,7 @@
         <v>1682</v>
       </c>
       <c r="L160" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M160" t="s">
         <v>1683</v>
@@ -16850,7 +16850,7 @@
         <v>1682</v>
       </c>
       <c r="L165" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M165" t="s">
         <v>1683</v>
@@ -17289,7 +17289,7 @@
         <v>1682</v>
       </c>
       <c r="L173" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M173" t="s">
         <v>1683</v>
@@ -18842,25 +18842,25 @@
         <v>697</v>
       </c>
       <c r="F200" t="s">
-        <v>499</v>
+        <v>1740</v>
       </c>
       <c r="G200" t="s">
         <v>20</v>
       </c>
       <c r="H200" t="s">
-        <v>499</v>
+        <v>1740</v>
       </c>
       <c r="I200" t="s">
-        <v>499</v>
+        <v>1740</v>
       </c>
       <c r="J200" t="s">
-        <v>499</v>
+        <v>1740</v>
       </c>
       <c r="K200" t="s">
         <v>1682</v>
       </c>
       <c r="L200" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M200" t="s">
         <v>1683</v>
@@ -30961,7 +30961,7 @@
         <v>1682</v>
       </c>
       <c r="L399" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M399" t="s">
         <v>1683</v>
@@ -32184,8 +32184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFAC224-3B06-46C1-8FBC-4E0275C3F461}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32538,7 +32538,7 @@
         <v>1682</v>
       </c>
       <c r="L7" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M7" t="s">
         <v>1683</v>
@@ -32620,7 +32620,7 @@
         <v>1682</v>
       </c>
       <c r="L9" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M9" t="s">
         <v>1683</v>
@@ -32743,7 +32743,7 @@
         <v>1682</v>
       </c>
       <c r="L12" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M12" t="s">
         <v>1683</v>
@@ -32872,7 +32872,7 @@
         <v>1682</v>
       </c>
       <c r="L15" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M15" t="s">
         <v>1683</v>
@@ -32913,7 +32913,7 @@
         <v>1682</v>
       </c>
       <c r="L16" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M16" t="s">
         <v>1683</v>
@@ -32995,7 +32995,7 @@
         <v>1682</v>
       </c>
       <c r="L19" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M19" t="s">
         <v>1683</v>
@@ -33003,19 +33003,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C20" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>2007</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>2008</v>
       </c>
       <c r="F20" t="s">
         <v>1748</v>
@@ -33036,7 +33036,7 @@
         <v>1682</v>
       </c>
       <c r="L20" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M20" t="s">
         <v>1683</v>
@@ -33326,7 +33326,7 @@
         <v>1682</v>
       </c>
       <c r="L27" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M27" t="s">
         <v>1683</v>
@@ -33375,7 +33375,7 @@
         <v>1682</v>
       </c>
       <c r="L29" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M29" t="s">
         <v>1683</v>
@@ -33419,7 +33419,7 @@
         <v>1682</v>
       </c>
       <c r="L30" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M30" t="s">
         <v>1683</v>
@@ -33439,7 +33439,7 @@
         <v>1727</v>
       </c>
       <c r="D31" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>1729</v>
@@ -33463,7 +33463,7 @@
         <v>1682</v>
       </c>
       <c r="L31" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M31" t="s">
         <v>1683</v>
@@ -33507,7 +33507,7 @@
         <v>1682</v>
       </c>
       <c r="L32" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M32" t="s">
         <v>1683</v>
@@ -33551,7 +33551,7 @@
         <v>1682</v>
       </c>
       <c r="L33" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="M33" t="s">
         <v>1683</v>
@@ -33586,7 +33586,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33778,7 +33778,7 @@
       </c>
       <c r="N4" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>1665</v>
@@ -33829,7 +33829,7 @@
       </c>
       <c r="N5" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="16" t="s">
         <v>1657</v>
@@ -33843,7 +33843,7 @@
       </c>
       <c r="T5" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -33882,7 +33882,7 @@
       </c>
       <c r="T6" s="15">
         <f t="shared" ref="T6" ca="1" si="6">SUMPRODUCT(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!F:F"),S6))</f>
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33905,7 +33905,7 @@
       </c>
       <c r="K7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>1906</v>
@@ -33949,7 +33949,7 @@
       </c>
       <c r="K8" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>1661</v>
@@ -33979,7 +33979,7 @@
       </c>
       <c r="Q9" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34002,7 +34002,7 @@
       </c>
       <c r="Q10" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -34020,6 +34020,12 @@
         <f ca="1">B2+B4+B10</f>
         <v>413</v>
       </c>
+      <c r="D12" s="11" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1655</v>
+      </c>
       <c r="P12" s="11" t="s">
         <v>1906</v>
       </c>
@@ -34037,19 +34043,41 @@
         <v>442</v>
       </c>
       <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D13" s="14" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E13" s="15">
+        <f ca="1">SUM(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!L:L"),D13), COUNTIF(INDIRECT("'"&amp;$A$17:$A$17&amp;"'!L:L"),D13))</f>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="16" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E14" s="16">
+        <f ca="1">SUM(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!L:L"),D14), COUNTIF(INDIRECT("'"&amp;$A$17:$A$17&amp;"'!L:L"),D14))</f>
+        <v>23</v>
+      </c>
+    </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D16" s="11" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E16" s="12">
+        <f ca="1">SUM(E13:E14)</f>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1744</v>
       </c>
@@ -34069,7 +34097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04E6990-0DE1-4FFF-9BE3-82E036D7135B}">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6524DBC-CA2E-41AF-A43F-5A7D099D92DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AC18DD-1452-4A13-9A3D-4FF16F2883A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -5445,9 +5445,6 @@
     <t>Long-billed x Little Corella (hybrid)</t>
   </si>
   <si>
-    <t>Cacatua sanguinea x tenuirostris</t>
-  </si>
-  <si>
     <t>New Holland x White-cheeked Honeyeater (hybrid)</t>
   </si>
   <si>
@@ -6277,6 +6274,9 @@
   </si>
   <si>
     <t>"Cox's" Sandpiper</t>
+  </si>
+  <si>
+    <t>Cacatua tenuirostris x sanguinea</t>
   </si>
 </sst>
 </file>
@@ -6922,10 +6922,10 @@
         <v>1681</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>1937</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>1938</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>9</v>
@@ -6949,7 +6949,7 @@
         <v>15</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -8118,10 +8118,10 @@
         <v>1683</v>
       </c>
       <c r="N20" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="O20" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U20">
         <v>60</v>
@@ -8729,7 +8729,7 @@
         <v>168</v>
       </c>
       <c r="O30" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="2"/>
@@ -9587,10 +9587,10 @@
         <v>1683</v>
       </c>
       <c r="N44" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="O44" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="2"/>
@@ -10076,10 +10076,10 @@
         <v>23</v>
       </c>
       <c r="P52" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="R52" s="2">
         <v>43312</v>
@@ -10099,16 +10099,16 @@
         <v>3358</v>
       </c>
       <c r="B53" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>1736</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>1737</v>
       </c>
       <c r="F53" t="s">
         <v>499</v>
@@ -10135,10 +10135,10 @@
         <v>1683</v>
       </c>
       <c r="N53" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="O53" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="2"/>
@@ -10190,10 +10190,10 @@
         <v>23</v>
       </c>
       <c r="P54" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="R54" s="2">
         <v>43457</v>
@@ -10202,7 +10202,7 @@
         <v>160</v>
       </c>
       <c r="T54" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="U54">
         <v>206</v>
@@ -10373,7 +10373,7 @@
         <v>1682</v>
       </c>
       <c r="O57" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U57">
         <v>223</v>
@@ -10609,7 +10609,7 @@
         <v>259</v>
       </c>
       <c r="O61" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U61">
         <v>267</v>
@@ -11716,7 +11716,7 @@
         <v>259</v>
       </c>
       <c r="O79" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U79">
         <v>312</v>
@@ -12076,19 +12076,19 @@
         <v>409</v>
       </c>
       <c r="O85" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="P85" t="s">
+        <v>1939</v>
+      </c>
+      <c r="Q85" s="1" t="s">
         <v>1940</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>1941</v>
       </c>
       <c r="R85" s="2">
         <v>34651</v>
       </c>
       <c r="S85" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="T85" t="s">
         <v>352</v>
@@ -12448,10 +12448,10 @@
         <v>1683</v>
       </c>
       <c r="N91" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="O91" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U91">
         <v>327</v>
@@ -13307,10 +13307,10 @@
         <v>23</v>
       </c>
       <c r="P105" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="R105" s="2">
         <v>43400</v>
@@ -13741,7 +13741,7 @@
         <v>259</v>
       </c>
       <c r="O112" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U112">
         <v>370</v>
@@ -13853,7 +13853,7 @@
         <v>259</v>
       </c>
       <c r="O114" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U114">
         <v>371</v>
@@ -14236,16 +14236,16 @@
         <v>6025</v>
       </c>
       <c r="B121" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C121" t="s">
         <v>1873</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>1874</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>1875</v>
       </c>
       <c r="F121" t="s">
         <v>499</v>
@@ -14272,10 +14272,10 @@
         <v>1683</v>
       </c>
       <c r="N121" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="O121" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="2"/>
@@ -14327,7 +14327,7 @@
         <v>259</v>
       </c>
       <c r="O122" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U122">
         <v>392</v>
@@ -14338,16 +14338,16 @@
         <v>6075</v>
       </c>
       <c r="B123" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E123" s="8" t="s">
         <v>1922</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D123" t="s">
-        <v>1922</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>1923</v>
       </c>
       <c r="F123" t="s">
         <v>499</v>
@@ -14374,10 +14374,10 @@
         <v>1683</v>
       </c>
       <c r="N123" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="O123" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="2"/>
@@ -14429,16 +14429,16 @@
         <v>23</v>
       </c>
       <c r="P124" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="R124" s="2">
         <v>43415</v>
       </c>
       <c r="S124" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="T124" t="s">
         <v>27</v>
@@ -14553,7 +14553,7 @@
         <v>259</v>
       </c>
       <c r="O126" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U126">
         <v>394</v>
@@ -14727,7 +14727,7 @@
         <v>259</v>
       </c>
       <c r="O129" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U129">
         <v>417</v>
@@ -14777,19 +14777,19 @@
         <v>23</v>
       </c>
       <c r="P130" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="R130" s="2">
         <v>43462</v>
       </c>
       <c r="S130" t="s">
+        <v>1791</v>
+      </c>
+      <c r="T130" t="s">
         <v>1792</v>
-      </c>
-      <c r="T130" t="s">
-        <v>1793</v>
       </c>
       <c r="U130">
         <v>423</v>
@@ -14924,61 +14924,61 @@
         <v>6321</v>
       </c>
       <c r="B133" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C133" t="s">
         <v>1831</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E133" s="8" t="s">
         <v>1832</v>
       </c>
-      <c r="D133" t="s">
-        <v>1832</v>
-      </c>
-      <c r="E133" s="8" t="s">
+      <c r="F133" t="s">
+        <v>499</v>
+      </c>
+      <c r="G133" t="s">
+        <v>20</v>
+      </c>
+      <c r="H133" t="s">
+        <v>499</v>
+      </c>
+      <c r="I133" t="s">
+        <v>499</v>
+      </c>
+      <c r="J133" t="s">
+        <v>499</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L133" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M133" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N133" t="s">
         <v>1833</v>
-      </c>
-      <c r="F133" t="s">
-        <v>499</v>
-      </c>
-      <c r="G133" t="s">
-        <v>20</v>
-      </c>
-      <c r="H133" t="s">
-        <v>499</v>
-      </c>
-      <c r="I133" t="s">
-        <v>499</v>
-      </c>
-      <c r="J133" t="s">
-        <v>499</v>
-      </c>
-      <c r="K133" t="s">
-        <v>1682</v>
-      </c>
-      <c r="L133" t="s">
-        <v>1682</v>
-      </c>
-      <c r="M133" t="s">
-        <v>1683</v>
-      </c>
-      <c r="N133" t="s">
-        <v>1834</v>
       </c>
       <c r="O133" t="s">
         <v>23</v>
       </c>
       <c r="P133" t="s">
+        <v>1992</v>
+      </c>
+      <c r="Q133" s="1" t="s">
         <v>1993</v>
-      </c>
-      <c r="Q133" s="1" t="s">
-        <v>1994</v>
       </c>
       <c r="R133" s="2">
         <v>43533</v>
       </c>
       <c r="S133" t="s">
+        <v>1994</v>
+      </c>
+      <c r="T133" t="s">
         <v>1995</v>
-      </c>
-      <c r="T133" t="s">
-        <v>1996</v>
       </c>
       <c r="U133">
         <v>406</v>
@@ -15025,25 +15025,25 @@
         <v>1683</v>
       </c>
       <c r="N134" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="O134" t="s">
+        <v>1884</v>
+      </c>
+      <c r="P134" t="s">
+        <v>1888</v>
+      </c>
+      <c r="Q134" s="1" t="s">
         <v>1885</v>
-      </c>
-      <c r="P134" t="s">
-        <v>1889</v>
-      </c>
-      <c r="Q134" s="1" t="s">
-        <v>1886</v>
       </c>
       <c r="R134" s="2">
         <v>26784</v>
       </c>
       <c r="S134" t="s">
+        <v>1886</v>
+      </c>
+      <c r="T134" t="s">
         <v>1887</v>
-      </c>
-      <c r="T134" t="s">
-        <v>1888</v>
       </c>
       <c r="U134">
         <v>408</v>
@@ -15674,61 +15674,61 @@
         <v>6481</v>
       </c>
       <c r="B145" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F145" t="s">
+        <v>499</v>
+      </c>
+      <c r="G145" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" t="s">
+        <v>499</v>
+      </c>
+      <c r="I145" t="s">
+        <v>499</v>
+      </c>
+      <c r="J145" t="s">
+        <v>499</v>
+      </c>
+      <c r="K145" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L145" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M145" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N145" t="s">
         <v>1835</v>
       </c>
-      <c r="C145" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>1837</v>
-      </c>
-      <c r="F145" t="s">
-        <v>499</v>
-      </c>
-      <c r="G145" t="s">
-        <v>20</v>
-      </c>
-      <c r="H145" t="s">
-        <v>499</v>
-      </c>
-      <c r="I145" t="s">
-        <v>499</v>
-      </c>
-      <c r="J145" t="s">
-        <v>499</v>
-      </c>
-      <c r="K145" t="s">
-        <v>1682</v>
-      </c>
-      <c r="L145" t="s">
-        <v>1682</v>
-      </c>
-      <c r="M145" t="s">
-        <v>1683</v>
-      </c>
-      <c r="N145" t="s">
-        <v>1836</v>
-      </c>
       <c r="O145" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="P145" t="s">
+        <v>1889</v>
+      </c>
+      <c r="Q145" s="1" t="s">
         <v>1890</v>
-      </c>
-      <c r="Q145" s="1" t="s">
-        <v>1891</v>
       </c>
       <c r="R145" s="2">
         <v>30477</v>
       </c>
       <c r="S145" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="T145" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="U145">
         <v>472</v>
@@ -15739,17 +15739,17 @@
         <v>6492</v>
       </c>
       <c r="B146" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E146" s="8" t="s">
         <v>1817</v>
       </c>
-      <c r="C146" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D146" t="s">
-        <v>1817</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>1818</v>
-      </c>
       <c r="F146" t="s">
         <v>499</v>
       </c>
@@ -15775,25 +15775,25 @@
         <v>1683</v>
       </c>
       <c r="N146" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="O146" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="P146" t="s">
+        <v>1892</v>
+      </c>
+      <c r="Q146" s="1" t="s">
         <v>1893</v>
-      </c>
-      <c r="Q146" s="1" t="s">
-        <v>1894</v>
       </c>
       <c r="R146" s="2">
         <v>36167</v>
       </c>
       <c r="S146" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="T146" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="U146">
         <v>469</v>
@@ -15804,61 +15804,61 @@
         <v>6519</v>
       </c>
       <c r="B147" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>1869</v>
       </c>
-      <c r="C147" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D147" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E147" s="8" t="s">
+      <c r="F147" t="s">
+        <v>499</v>
+      </c>
+      <c r="G147" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" t="s">
+        <v>499</v>
+      </c>
+      <c r="I147" t="s">
+        <v>499</v>
+      </c>
+      <c r="J147" t="s">
+        <v>499</v>
+      </c>
+      <c r="K147" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L147" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M147" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N147" t="s">
         <v>1870</v>
       </c>
-      <c r="F147" t="s">
-        <v>499</v>
-      </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
-      <c r="H147" t="s">
-        <v>499</v>
-      </c>
-      <c r="I147" t="s">
-        <v>499</v>
-      </c>
-      <c r="J147" t="s">
-        <v>499</v>
-      </c>
-      <c r="K147" t="s">
-        <v>1682</v>
-      </c>
-      <c r="L147" t="s">
-        <v>1682</v>
-      </c>
-      <c r="M147" t="s">
-        <v>1683</v>
-      </c>
-      <c r="N147" t="s">
-        <v>1871</v>
-      </c>
       <c r="O147" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="P147" t="s">
+        <v>1942</v>
+      </c>
+      <c r="Q147" s="1" t="s">
         <v>1943</v>
-      </c>
-      <c r="Q147" s="1" t="s">
-        <v>1944</v>
       </c>
       <c r="R147" s="2">
         <v>19633</v>
       </c>
       <c r="S147" t="s">
+        <v>1944</v>
+      </c>
+      <c r="T147" t="s">
         <v>1945</v>
-      </c>
-      <c r="T147" t="s">
-        <v>1946</v>
       </c>
       <c r="U147">
         <v>490</v>
@@ -15908,7 +15908,7 @@
         <v>259</v>
       </c>
       <c r="O148" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U148">
         <v>517</v>
@@ -15919,17 +15919,17 @@
         <v>6544</v>
       </c>
       <c r="B149" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E149" s="8" t="s">
         <v>1839</v>
       </c>
-      <c r="C149" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D149" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>1840</v>
-      </c>
       <c r="F149" t="s">
         <v>499</v>
       </c>
@@ -15955,25 +15955,25 @@
         <v>1683</v>
       </c>
       <c r="N149" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="O149" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="P149" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="R149" s="2">
         <v>29029</v>
       </c>
       <c r="S149" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="T149" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="U149">
         <v>518</v>
@@ -15984,16 +15984,16 @@
         <v>6545</v>
       </c>
       <c r="B150" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E150" s="8" t="s">
         <v>1933</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1933</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1933</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>1934</v>
       </c>
       <c r="F150" t="s">
         <v>499</v>
@@ -16020,10 +16020,10 @@
         <v>1683</v>
       </c>
       <c r="N150" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="O150" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U150">
         <v>521</v>
@@ -16034,17 +16034,17 @@
         <v>6546</v>
       </c>
       <c r="B151" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E151" s="8" t="s">
         <v>1829</v>
       </c>
-      <c r="C151" t="s">
-        <v>1951</v>
-      </c>
-      <c r="D151" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>1830</v>
-      </c>
       <c r="F151" t="s">
         <v>499</v>
       </c>
@@ -16070,25 +16070,25 @@
         <v>1683</v>
       </c>
       <c r="N151" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="O151" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="P151" t="s">
+        <v>1899</v>
+      </c>
+      <c r="Q151" s="1" t="s">
         <v>1900</v>
-      </c>
-      <c r="Q151" s="1" t="s">
-        <v>1901</v>
       </c>
       <c r="R151" s="2">
         <v>33881</v>
       </c>
       <c r="S151" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="T151" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="U151">
         <v>524</v>
@@ -16138,7 +16138,7 @@
         <v>643</v>
       </c>
       <c r="O152" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U152">
         <v>519</v>
@@ -16149,16 +16149,16 @@
         <v>6557</v>
       </c>
       <c r="B153" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E153" s="8" t="s">
         <v>1931</v>
-      </c>
-      <c r="C153" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>1932</v>
       </c>
       <c r="F153" t="s">
         <v>499</v>
@@ -16185,10 +16185,10 @@
         <v>1683</v>
       </c>
       <c r="N153" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="O153" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q153" s="1"/>
       <c r="R153" s="2"/>
@@ -16201,16 +16201,16 @@
         <v>6561</v>
       </c>
       <c r="B154" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E154" s="8" t="s">
         <v>1841</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1841</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>1842</v>
       </c>
       <c r="F154" t="s">
         <v>499</v>
@@ -16237,10 +16237,10 @@
         <v>1683</v>
       </c>
       <c r="N154" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="O154" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q154" s="1"/>
       <c r="R154" s="2"/>
@@ -16292,16 +16292,16 @@
         <v>23</v>
       </c>
       <c r="P155" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="R155" s="2">
         <v>43254</v>
       </c>
       <c r="S155" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="T155" t="s">
         <v>27</v>
@@ -16354,7 +16354,7 @@
         <v>643</v>
       </c>
       <c r="O156" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="2"/>
@@ -16406,7 +16406,7 @@
         <v>1687</v>
       </c>
       <c r="O157" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q157" s="1"/>
       <c r="R157" s="2"/>
@@ -16458,16 +16458,16 @@
         <v>23</v>
       </c>
       <c r="P158" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="Q158" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="R158" s="2">
         <v>43254</v>
       </c>
       <c r="S158" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="T158" t="s">
         <v>27</v>
@@ -16520,7 +16520,7 @@
         <v>643</v>
       </c>
       <c r="O159" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U159">
         <v>534</v>
@@ -16567,25 +16567,25 @@
         <v>1683</v>
       </c>
       <c r="N160" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="O160" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="P160" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="R160" s="2">
         <v>26946</v>
       </c>
       <c r="S160" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="T160" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="U160">
         <v>535</v>
@@ -16632,10 +16632,10 @@
         <v>1683</v>
       </c>
       <c r="N161" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="O161" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U161">
         <v>537</v>
@@ -16649,7 +16649,7 @@
         <v>1675</v>
       </c>
       <c r="C162" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D162" t="s">
         <v>1675</v>
@@ -16685,16 +16685,16 @@
         <v>23</v>
       </c>
       <c r="P162" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="R162" s="2">
         <v>43254</v>
       </c>
       <c r="S162" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="T162" t="s">
         <v>27</v>
@@ -16747,7 +16747,7 @@
         <v>659</v>
       </c>
       <c r="O163" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U163">
         <v>564</v>
@@ -16797,16 +16797,16 @@
         <v>23</v>
       </c>
       <c r="P164" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="Q164" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="R164" s="2">
         <v>43317</v>
       </c>
       <c r="S164" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="T164" t="s">
         <v>27</v>
@@ -16820,61 +16820,61 @@
         <v>6682</v>
       </c>
       <c r="B165" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E165" s="8" t="s">
         <v>1822</v>
       </c>
-      <c r="C165" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D165" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E165" s="8" t="s">
+      <c r="F165" t="s">
+        <v>499</v>
+      </c>
+      <c r="G165" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" t="s">
+        <v>499</v>
+      </c>
+      <c r="I165" t="s">
+        <v>499</v>
+      </c>
+      <c r="J165" t="s">
+        <v>499</v>
+      </c>
+      <c r="K165" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L165" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M165" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N165" t="s">
         <v>1823</v>
       </c>
-      <c r="F165" t="s">
-        <v>499</v>
-      </c>
-      <c r="G165" t="s">
-        <v>20</v>
-      </c>
-      <c r="H165" t="s">
-        <v>499</v>
-      </c>
-      <c r="I165" t="s">
-        <v>499</v>
-      </c>
-      <c r="J165" t="s">
-        <v>499</v>
-      </c>
-      <c r="K165" t="s">
-        <v>1682</v>
-      </c>
-      <c r="L165" t="s">
-        <v>1682</v>
-      </c>
-      <c r="M165" t="s">
-        <v>1683</v>
-      </c>
-      <c r="N165" t="s">
-        <v>1824</v>
-      </c>
       <c r="O165" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="P165" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="Q165" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="R165" s="2">
         <v>32922</v>
       </c>
       <c r="S165" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="T165" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="U165">
         <v>567</v>
@@ -16885,16 +16885,16 @@
         <v>6677</v>
       </c>
       <c r="B166" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E166" s="8" t="s">
         <v>1925</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1952</v>
-      </c>
-      <c r="D166" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>1926</v>
       </c>
       <c r="F166" t="s">
         <v>499</v>
@@ -16921,10 +16921,10 @@
         <v>1683</v>
       </c>
       <c r="N166" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="O166" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U166">
         <v>573</v>
@@ -16935,16 +16935,16 @@
         <v>6681</v>
       </c>
       <c r="B167" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E167" s="8" t="s">
         <v>1825</v>
-      </c>
-      <c r="C167" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D167" t="s">
-        <v>1825</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>1826</v>
       </c>
       <c r="F167" t="s">
         <v>499</v>
@@ -16971,10 +16971,10 @@
         <v>1683</v>
       </c>
       <c r="N167" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="O167" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U167">
         <v>575</v>
@@ -17024,7 +17024,7 @@
         <v>1687</v>
       </c>
       <c r="O168" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U168">
         <v>569</v>
@@ -17074,16 +17074,16 @@
         <v>23</v>
       </c>
       <c r="P169" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="R169" s="2">
         <v>40961</v>
       </c>
       <c r="S169" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="T169" t="s">
         <v>1692</v>
@@ -17136,7 +17136,7 @@
         <v>259</v>
       </c>
       <c r="O170" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U170">
         <v>555</v>
@@ -17186,19 +17186,19 @@
         <v>23</v>
       </c>
       <c r="P171" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="Q171" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="R171" s="2">
         <v>43290</v>
       </c>
       <c r="S171" t="s">
+        <v>1797</v>
+      </c>
+      <c r="T171" t="s">
         <v>1798</v>
-      </c>
-      <c r="T171" t="s">
-        <v>1799</v>
       </c>
       <c r="U171">
         <v>549</v>
@@ -17209,16 +17209,16 @@
         <v>6707</v>
       </c>
       <c r="B172" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E172" s="8" t="s">
         <v>1935</v>
-      </c>
-      <c r="C172" t="s">
-        <v>1935</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>1936</v>
       </c>
       <c r="F172" t="s">
         <v>499</v>
@@ -17245,10 +17245,10 @@
         <v>1683</v>
       </c>
       <c r="N172" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="O172" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U172">
         <v>559</v>
@@ -17259,61 +17259,61 @@
         <v>6716</v>
       </c>
       <c r="B173" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E173" s="8" t="s">
         <v>1844</v>
       </c>
-      <c r="C173" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D173" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E173" s="8" t="s">
+      <c r="F173" t="s">
+        <v>499</v>
+      </c>
+      <c r="G173" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173" t="s">
+        <v>499</v>
+      </c>
+      <c r="I173" t="s">
+        <v>499</v>
+      </c>
+      <c r="J173" t="s">
+        <v>499</v>
+      </c>
+      <c r="K173" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L173" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M173" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N173" t="s">
         <v>1845</v>
       </c>
-      <c r="F173" t="s">
-        <v>499</v>
-      </c>
-      <c r="G173" t="s">
-        <v>20</v>
-      </c>
-      <c r="H173" t="s">
-        <v>499</v>
-      </c>
-      <c r="I173" t="s">
-        <v>499</v>
-      </c>
-      <c r="J173" t="s">
-        <v>499</v>
-      </c>
-      <c r="K173" t="s">
-        <v>1682</v>
-      </c>
-      <c r="L173" t="s">
-        <v>1682</v>
-      </c>
-      <c r="M173" t="s">
-        <v>1683</v>
-      </c>
-      <c r="N173" t="s">
-        <v>1846</v>
-      </c>
       <c r="O173" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="P173" t="s">
+        <v>1947</v>
+      </c>
+      <c r="Q173" s="1" t="s">
         <v>1948</v>
-      </c>
-      <c r="Q173" s="1" t="s">
-        <v>1949</v>
       </c>
       <c r="R173" s="2">
         <v>19920</v>
       </c>
       <c r="S173" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="T173" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="U173">
         <v>544</v>
@@ -17363,16 +17363,16 @@
         <v>23</v>
       </c>
       <c r="P174" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="R174" s="2">
         <v>43254</v>
       </c>
       <c r="S174" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="T174" t="s">
         <v>27</v>
@@ -17425,7 +17425,7 @@
         <v>659</v>
       </c>
       <c r="O175" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U175">
         <v>548</v>
@@ -17475,16 +17475,16 @@
         <v>23</v>
       </c>
       <c r="P176" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="Q176" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="R176" s="2">
         <v>43415</v>
       </c>
       <c r="S176" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="T176" t="s">
         <v>27</v>
@@ -17537,7 +17537,7 @@
         <v>659</v>
       </c>
       <c r="O177" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q177" s="1"/>
       <c r="R177" s="2"/>
@@ -17550,16 +17550,16 @@
         <v>6739</v>
       </c>
       <c r="B178" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E178" s="8" t="s">
         <v>1927</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1927</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>1928</v>
       </c>
       <c r="F178" t="s">
         <v>499</v>
@@ -17586,10 +17586,10 @@
         <v>1683</v>
       </c>
       <c r="N178" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="O178" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q178" s="1"/>
       <c r="R178" s="2"/>
@@ -17602,16 +17602,16 @@
         <v>6741</v>
       </c>
       <c r="B179" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E179" s="8" t="s">
         <v>1929</v>
-      </c>
-      <c r="C179" t="s">
-        <v>1954</v>
-      </c>
-      <c r="D179" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>1930</v>
       </c>
       <c r="F179" t="s">
         <v>499</v>
@@ -17638,10 +17638,10 @@
         <v>1683</v>
       </c>
       <c r="N179" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="O179" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q179" s="1"/>
       <c r="R179" s="2"/>
@@ -17693,7 +17693,7 @@
         <v>680</v>
       </c>
       <c r="O180" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q180" s="1"/>
       <c r="R180" s="2"/>
@@ -17807,7 +17807,7 @@
         <v>1687</v>
       </c>
       <c r="O182" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q182" s="1"/>
       <c r="R182" s="2"/>
@@ -17921,16 +17921,16 @@
         <v>23</v>
       </c>
       <c r="P184" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="R184" s="2">
         <v>43317</v>
       </c>
       <c r="S184" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="T184" t="s">
         <v>27</v>
@@ -17983,7 +17983,7 @@
         <v>259</v>
       </c>
       <c r="O185" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U185">
         <v>590</v>
@@ -17994,16 +17994,16 @@
         <v>6777</v>
       </c>
       <c r="B186" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E186" s="8" t="s">
         <v>1819</v>
-      </c>
-      <c r="C186" t="s">
-        <v>1819</v>
-      </c>
-      <c r="D186" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>1820</v>
       </c>
       <c r="F186" t="s">
         <v>499</v>
@@ -18030,10 +18030,10 @@
         <v>1683</v>
       </c>
       <c r="N186" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="O186" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q186" s="1"/>
       <c r="R186" s="2"/>
@@ -18209,7 +18209,7 @@
         <v>775</v>
       </c>
       <c r="O189" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q189" s="1"/>
       <c r="R189" s="2"/>
@@ -18258,10 +18258,10 @@
         <v>1683</v>
       </c>
       <c r="N190" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="O190" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U190">
         <v>674</v>
@@ -18311,16 +18311,16 @@
         <v>23</v>
       </c>
       <c r="P191" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="Q191" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="R191" s="2">
         <v>43317</v>
       </c>
       <c r="S191" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="T191" t="s">
         <v>27</v>
@@ -18842,19 +18842,19 @@
         <v>697</v>
       </c>
       <c r="F200" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G200" t="s">
         <v>20</v>
       </c>
       <c r="H200" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I200" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="J200" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K200" t="s">
         <v>1682</v>
@@ -18866,25 +18866,25 @@
         <v>1683</v>
       </c>
       <c r="N200" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="O200" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="P200" t="s">
+        <v>1909</v>
+      </c>
+      <c r="Q200" s="1" t="s">
         <v>1910</v>
-      </c>
-      <c r="Q200" s="1" t="s">
-        <v>1911</v>
       </c>
       <c r="R200" s="2">
         <v>20989</v>
       </c>
       <c r="S200" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="T200" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="U200">
         <v>614</v>
@@ -20011,16 +20011,16 @@
         <v>7313</v>
       </c>
       <c r="B219" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E219" s="8" t="s">
         <v>1877</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1877</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>1878</v>
       </c>
       <c r="F219" t="s">
         <v>499</v>
@@ -20047,10 +20047,10 @@
         <v>1683</v>
       </c>
       <c r="N219" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="O219" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q219" s="1"/>
       <c r="R219" s="2"/>
@@ -20102,7 +20102,7 @@
         <v>259</v>
       </c>
       <c r="O220" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U220">
         <v>697</v>
@@ -20488,7 +20488,7 @@
         <v>849</v>
       </c>
       <c r="C227" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D227" t="s">
         <v>849</v>
@@ -20671,31 +20671,31 @@
         <v>7804</v>
       </c>
       <c r="B230" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E230" s="8" t="s">
         <v>1738</v>
       </c>
-      <c r="C230" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D230" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E230" s="8" t="s">
+      <c r="F230" t="s">
         <v>1739</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1740</v>
       </c>
       <c r="G230" t="s">
         <v>108</v>
       </c>
       <c r="H230" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I230" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="J230" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K230" t="s">
         <v>108</v>
@@ -20707,10 +20707,10 @@
         <v>1683</v>
       </c>
       <c r="N230" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="O230" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q230" s="1"/>
       <c r="R230" s="2"/>
@@ -21323,16 +21323,16 @@
         <v>907</v>
       </c>
       <c r="Q240" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="R240" s="2">
         <v>43315</v>
       </c>
       <c r="S240" t="s">
+        <v>1807</v>
+      </c>
+      <c r="T240" t="s">
         <v>1808</v>
-      </c>
-      <c r="T240" t="s">
-        <v>1809</v>
       </c>
       <c r="U240">
         <v>742</v>
@@ -21568,7 +21568,7 @@
         <v>259</v>
       </c>
       <c r="O244" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U244">
         <v>800</v>
@@ -22300,7 +22300,7 @@
         <v>259</v>
       </c>
       <c r="O256" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U256">
         <v>819</v>
@@ -22787,10 +22787,10 @@
         <v>1683</v>
       </c>
       <c r="N264" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="O264" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q264" s="1"/>
       <c r="R264" s="2"/>
@@ -22904,7 +22904,7 @@
         <v>259</v>
       </c>
       <c r="O266" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U266">
         <v>864</v>
@@ -23016,7 +23016,7 @@
         <v>1038</v>
       </c>
       <c r="O268" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U268">
         <v>914</v>
@@ -23128,7 +23128,7 @@
         <v>1038</v>
       </c>
       <c r="O270" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U270">
         <v>901</v>
@@ -23237,7 +23237,7 @@
         <v>1683</v>
       </c>
       <c r="N272" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="O272" t="s">
         <v>23</v>
@@ -23266,31 +23266,31 @@
         <v>11798</v>
       </c>
       <c r="B273" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C273" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D273" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="F273" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G273" t="s">
         <v>108</v>
       </c>
       <c r="H273" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I273" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="J273" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K273" t="s">
         <v>1683</v>
@@ -23302,10 +23302,10 @@
         <v>1683</v>
       </c>
       <c r="N273" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="O273" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q273" s="1"/>
       <c r="R273" s="2"/>
@@ -23318,31 +23318,31 @@
         <v>11810</v>
       </c>
       <c r="B274" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C274" t="s">
         <v>1855</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E274" s="8" t="s">
         <v>1856</v>
       </c>
-      <c r="D274" t="s">
-        <v>1947</v>
-      </c>
-      <c r="E274" s="8" t="s">
-        <v>1857</v>
-      </c>
       <c r="F274" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G274" t="s">
         <v>108</v>
       </c>
       <c r="H274" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I274" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="J274" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K274" t="s">
         <v>1683</v>
@@ -23354,10 +23354,10 @@
         <v>1683</v>
       </c>
       <c r="N274" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="O274" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q274" s="1"/>
       <c r="R274" s="2"/>
@@ -24029,7 +24029,7 @@
         <v>1038</v>
       </c>
       <c r="O285" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U285">
         <v>1006</v>
@@ -24513,7 +24513,7 @@
         <v>1217</v>
       </c>
       <c r="O293" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U293">
         <v>1254</v>
@@ -24873,16 +24873,16 @@
         <v>23</v>
       </c>
       <c r="P299" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="Q299" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="R299" s="2">
         <v>43293</v>
       </c>
       <c r="S299" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="T299" t="s">
         <v>27</v>
@@ -25059,7 +25059,7 @@
         <v>1038</v>
       </c>
       <c r="O302" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U302">
         <v>1094</v>
@@ -25543,7 +25543,7 @@
         <v>1038</v>
       </c>
       <c r="O310" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U310">
         <v>1153</v>
@@ -26650,7 +26650,7 @@
         <v>1242</v>
       </c>
       <c r="O328" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q328" s="1"/>
       <c r="R328" s="2"/>
@@ -26826,16 +26826,16 @@
         <v>23</v>
       </c>
       <c r="P331" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="Q331" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="R331" s="2">
         <v>43283</v>
       </c>
       <c r="S331" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="T331" t="s">
         <v>27</v>
@@ -26914,7 +26914,7 @@
         <v>1302</v>
       </c>
       <c r="C333" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D333" t="s">
         <v>1302</v>
@@ -27505,10 +27505,10 @@
         <v>1683</v>
       </c>
       <c r="N342" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="O342" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U342">
         <v>1622</v>
@@ -27522,7 +27522,7 @@
         <v>1396</v>
       </c>
       <c r="C343" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D343" t="s">
         <v>1396</v>
@@ -27806,7 +27806,7 @@
         <v>259</v>
       </c>
       <c r="O347" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U347">
         <v>1450</v>
@@ -28316,7 +28316,7 @@
         <v>1361</v>
       </c>
       <c r="C356" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D356" t="s">
         <v>1362</v>
@@ -28874,7 +28874,7 @@
         <v>1438</v>
       </c>
       <c r="C365" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D365" t="s">
         <v>1438</v>
@@ -29530,7 +29530,7 @@
         <v>259</v>
       </c>
       <c r="O375" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U375">
         <v>1664</v>
@@ -29952,7 +29952,7 @@
         <v>259</v>
       </c>
       <c r="O382" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U382">
         <v>1756</v>
@@ -30126,7 +30126,7 @@
         <v>1589</v>
       </c>
       <c r="O385" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U385">
         <v>1852</v>
@@ -30362,7 +30362,7 @@
         <v>259</v>
       </c>
       <c r="O389" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U389">
         <v>1890</v>
@@ -30931,61 +30931,61 @@
         <v>28322</v>
       </c>
       <c r="B399" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E399" s="8" t="s">
         <v>1862</v>
       </c>
-      <c r="C399" t="s">
-        <v>1862</v>
-      </c>
-      <c r="D399" t="s">
-        <v>1862</v>
-      </c>
-      <c r="E399" s="8" t="s">
+      <c r="F399" t="s">
+        <v>499</v>
+      </c>
+      <c r="G399" t="s">
+        <v>20</v>
+      </c>
+      <c r="H399" t="s">
+        <v>499</v>
+      </c>
+      <c r="I399" t="s">
+        <v>499</v>
+      </c>
+      <c r="J399" t="s">
+        <v>499</v>
+      </c>
+      <c r="K399" t="s">
+        <v>1682</v>
+      </c>
+      <c r="L399" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M399" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N399" t="s">
         <v>1863</v>
       </c>
-      <c r="F399" t="s">
-        <v>499</v>
-      </c>
-      <c r="G399" t="s">
-        <v>20</v>
-      </c>
-      <c r="H399" t="s">
-        <v>499</v>
-      </c>
-      <c r="I399" t="s">
-        <v>499</v>
-      </c>
-      <c r="J399" t="s">
-        <v>499</v>
-      </c>
-      <c r="K399" t="s">
-        <v>1682</v>
-      </c>
-      <c r="L399" t="s">
-        <v>1682</v>
-      </c>
-      <c r="M399" t="s">
-        <v>1683</v>
-      </c>
-      <c r="N399" t="s">
-        <v>1864</v>
-      </c>
       <c r="O399" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="P399" t="s">
+        <v>1912</v>
+      </c>
+      <c r="Q399" s="1" t="s">
         <v>1913</v>
-      </c>
-      <c r="Q399" s="1" t="s">
-        <v>1914</v>
       </c>
       <c r="R399" s="2">
         <v>34872</v>
       </c>
       <c r="S399" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="T399" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="U399">
         <v>1935</v>
@@ -31185,10 +31185,10 @@
         <v>1565</v>
       </c>
       <c r="C403" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D403" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E403" s="8" t="s">
         <v>1566</v>
@@ -31410,7 +31410,7 @@
         <v>1585</v>
       </c>
       <c r="O406" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="U406">
         <v>1850</v>
@@ -31522,7 +31522,7 @@
         <v>698</v>
       </c>
       <c r="O408" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q408" s="1"/>
       <c r="R408" s="2"/>
@@ -31721,31 +31721,31 @@
         <v>34133</v>
       </c>
       <c r="B412" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E412" s="8" t="s">
         <v>1847</v>
       </c>
-      <c r="C412" t="s">
-        <v>1847</v>
-      </c>
-      <c r="D412" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E412" s="8" t="s">
-        <v>1848</v>
-      </c>
       <c r="F412" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G412" t="s">
         <v>108</v>
       </c>
       <c r="H412" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I412" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="J412" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K412" t="s">
         <v>1683</v>
@@ -31757,10 +31757,10 @@
         <v>1683</v>
       </c>
       <c r="N412" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="O412" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q412" s="1"/>
       <c r="R412" s="2"/>
@@ -32185,7 +32185,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F33"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32245,10 +32245,10 @@
         <v>1681</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>1937</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>1938</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>9</v>
@@ -32274,7 +32274,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B2" t="s">
         <v>1576</v>
@@ -32336,7 +32336,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B3" t="s">
         <v>1546</v>
@@ -32420,7 +32420,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>1720</v>
@@ -32461,7 +32461,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B6" t="s">
         <v>1699</v>
@@ -32505,19 +32505,19 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B7" t="s">
         <v>1997</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>1998</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>1999</v>
       </c>
       <c r="F7" t="s">
         <v>1696</v>
@@ -32538,7 +32538,7 @@
         <v>1682</v>
       </c>
       <c r="L7" t="s">
-        <v>1682</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
         <v>1683</v>
@@ -32546,7 +32546,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B8" t="s">
         <v>1704</v>
@@ -32587,7 +32587,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B9" t="s">
         <v>1693</v>
@@ -32628,7 +32628,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>1720</v>
@@ -32669,7 +32669,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>1720</v>
@@ -32710,7 +32710,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B12" t="s">
         <v>1710</v>
@@ -32751,7 +32751,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B13" t="s">
         <v>1712</v>
@@ -32790,12 +32790,12 @@
         <v>1683</v>
       </c>
       <c r="N13" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B14" t="s">
         <v>1714</v>
@@ -32839,7 +32839,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>1720</v>
@@ -32880,7 +32880,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B16" t="s">
         <v>1718</v>
@@ -32921,22 +32921,22 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C18" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>1751</v>
       </c>
-      <c r="D18" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>1752</v>
-      </c>
       <c r="F18" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G18" t="s">
         <v>1670</v>
@@ -32962,22 +32962,22 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C19" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>1762</v>
       </c>
-      <c r="D19" t="s">
-        <v>1762</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>1763</v>
-      </c>
       <c r="F19" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G19" t="s">
         <v>1670</v>
@@ -33003,22 +33003,22 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C20" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>2006</v>
       </c>
-      <c r="D20" t="s">
-        <v>2006</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>2007</v>
-      </c>
       <c r="F20" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G20" t="s">
         <v>1670</v>
@@ -33036,7 +33036,7 @@
         <v>1682</v>
       </c>
       <c r="L20" t="s">
-        <v>1682</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s">
         <v>1683</v>
@@ -33044,22 +33044,22 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C21" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>1756</v>
       </c>
-      <c r="D21" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>1757</v>
-      </c>
       <c r="F21" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G21" t="s">
         <v>1670</v>
@@ -33085,22 +33085,22 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C22" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D22" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>1700</v>
       </c>
       <c r="F22" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G22" t="s">
         <v>1670</v>
@@ -33126,22 +33126,22 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C23" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>1760</v>
       </c>
-      <c r="D23" t="s">
-        <v>1760</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>1761</v>
-      </c>
       <c r="F23" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G23" t="s">
         <v>1670</v>
@@ -33167,22 +33167,22 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C24" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>1753</v>
       </c>
-      <c r="D24" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>1754</v>
-      </c>
       <c r="F24" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G24" t="s">
         <v>1670</v>
@@ -33208,22 +33208,22 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C25" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>1758</v>
       </c>
-      <c r="D25" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>1759</v>
-      </c>
       <c r="F25" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G25" t="s">
         <v>1670</v>
@@ -33249,22 +33249,22 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C26" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>1749</v>
       </c>
-      <c r="D26" t="s">
-        <v>1749</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>1750</v>
-      </c>
       <c r="F26" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G26" t="s">
         <v>1670</v>
@@ -33288,27 +33288,27 @@
         <v>1683</v>
       </c>
       <c r="N26" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C27" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>1764</v>
       </c>
-      <c r="D27" t="s">
-        <v>1764</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>1765</v>
-      </c>
       <c r="F27" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G27" t="s">
         <v>1670</v>
@@ -33332,7 +33332,7 @@
         <v>1683</v>
       </c>
       <c r="N27" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -33342,19 +33342,19 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C29" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>2002</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2004</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>2003</v>
       </c>
       <c r="F29" t="s">
         <v>1724</v>
@@ -33386,7 +33386,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>1720</v>
@@ -33395,7 +33395,7 @@
         <v>1728</v>
       </c>
       <c r="D30" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>1723</v>
@@ -33430,7 +33430,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>1720</v>
@@ -33439,7 +33439,7 @@
         <v>1727</v>
       </c>
       <c r="D31" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>1729</v>
@@ -33469,12 +33469,12 @@
         <v>1683</v>
       </c>
       <c r="N31" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>1720</v>
@@ -33483,10 +33483,10 @@
         <v>1730</v>
       </c>
       <c r="D32" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>1731</v>
+        <v>2008</v>
       </c>
       <c r="F32" t="s">
         <v>1724</v>
@@ -33513,24 +33513,24 @@
         <v>1683</v>
       </c>
       <c r="N32" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>1720</v>
       </c>
       <c r="C33" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>1732</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1992</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>1733</v>
       </c>
       <c r="F33" t="s">
         <v>1724</v>
@@ -33600,7 +33600,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1655</v>
@@ -33612,31 +33612,31 @@
         <v>1655</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>1655</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>1655</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>1655</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>1655</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="T1" s="12" t="s">
         <v>1655</v>
@@ -33695,7 +33695,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
@@ -33760,14 +33760,14 @@
         <v>14</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" ca="1" si="1"/>
@@ -33811,7 +33811,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" ca="1" si="3"/>
@@ -33825,7 +33825,7 @@
         <v>73</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="N5" s="16">
         <f t="shared" ca="1" si="4"/>
@@ -33839,7 +33839,7 @@
         <v>13</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="T5" s="16">
         <f t="shared" ca="1" si="5"/>
@@ -33857,7 +33857,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="G6" s="14" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" ca="1" si="3"/>
@@ -33887,14 +33887,14 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E7" s="12">
         <f ca="1">E2+E4</f>
@@ -33908,7 +33908,7 @@
         <v>107</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="N7" s="12">
         <f ca="1">SUM(N2:N5)</f>
@@ -33938,14 +33938,14 @@
         <v>427</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H8" s="12">
         <f ca="1">SUM(H2:H6)</f>
         <v>413</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" ca="1" si="1"/>
@@ -33959,7 +33959,7 @@
         <v>29</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="T8" s="12">
         <f ca="1">SUM(T2:T6)</f>
@@ -33991,14 +33991,14 @@
         <v>36</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="K10" s="12">
         <f ca="1">SUM(K2:K8)</f>
         <v>413</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="Q10" s="15">
         <f t="shared" ca="1" si="2"/>
@@ -34009,25 +34009,25 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B12" s="12">
         <f ca="1">B2+B4+B10</f>
         <v>413</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>1655</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="Q12" s="12">
         <f ca="1">SUM(Q2:Q10)</f>
@@ -34048,7 +34048,7 @@
       </c>
       <c r="E13" s="15">
         <f ca="1">SUM(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!L:L"),D13), COUNTIF(INDIRECT("'"&amp;$A$17:$A$17&amp;"'!L:L"),D13))</f>
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -34062,24 +34062,24 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E16" s="12">
         <f ca="1">SUM(E13:E14)</f>
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
   </sheetData>
@@ -34158,10 +34158,10 @@
         <v>1681</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>1937</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>1938</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>9</v>
@@ -34190,16 +34190,16 @@
         <v>27669</v>
       </c>
       <c r="B2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -34220,10 +34220,10 @@
         <v>1683</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="O2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -34264,7 +34264,7 @@
         <v>388</v>
       </c>
       <c r="O3" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -34302,7 +34302,7 @@
         <v>1683</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AC18DD-1452-4A13-9A3D-4FF16F2883A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9C3DB9-7A40-4864-999D-0A68667EAE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -32184,8 +32184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFAC224-3B06-46C1-8FBC-4E0275C3F461}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32828,7 +32828,7 @@
         <v>1682</v>
       </c>
       <c r="L14" t="s">
-        <v>1682</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s">
         <v>1683</v>
@@ -34048,7 +34048,7 @@
       </c>
       <c r="E13" s="15">
         <f ca="1">SUM(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!L:L"),D13), COUNTIF(INDIRECT("'"&amp;$A$17:$A$17&amp;"'!L:L"),D13))</f>
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -34074,7 +34074,7 @@
       </c>
       <c r="E16" s="12">
         <f ca="1">SUM(E13:E14)</f>
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9C3DB9-7A40-4864-999D-0A68667EAE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AC18DD-1452-4A13-9A3D-4FF16F2883A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -32184,8 +32184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFAC224-3B06-46C1-8FBC-4E0275C3F461}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32828,7 +32828,7 @@
         <v>1682</v>
       </c>
       <c r="L14" t="s">
-        <v>108</v>
+        <v>1682</v>
       </c>
       <c r="M14" t="s">
         <v>1683</v>
@@ -34048,7 +34048,7 @@
       </c>
       <c r="E13" s="15">
         <f ca="1">SUM(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!L:L"),D13), COUNTIF(INDIRECT("'"&amp;$A$17:$A$17&amp;"'!L:L"),D13))</f>
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -34074,7 +34074,7 @@
       </c>
       <c r="E16" s="12">
         <f ca="1">SUM(E13:E14)</f>
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AC18DD-1452-4A13-9A3D-4FF16F2883A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49B9D0-1816-436B-BE92-0B7492B3BCED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7418" uniqueCount="2009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7419" uniqueCount="2009">
   <si>
     <t>Taxon Sort</t>
   </si>
@@ -6856,8 +6856,8 @@
   <dimension ref="A1:U435"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12067,7 +12067,7 @@
         <v>1682</v>
       </c>
       <c r="L85" t="s">
-        <v>1682</v>
+        <v>108</v>
       </c>
       <c r="M85" t="s">
         <v>1683</v>
@@ -14954,7 +14954,7 @@
         <v>1682</v>
       </c>
       <c r="L133" t="s">
-        <v>1682</v>
+        <v>108</v>
       </c>
       <c r="M133" t="s">
         <v>1683</v>
@@ -17289,7 +17289,7 @@
         <v>1682</v>
       </c>
       <c r="L173" t="s">
-        <v>1682</v>
+        <v>108</v>
       </c>
       <c r="M173" t="s">
         <v>1683</v>
@@ -30961,7 +30961,7 @@
         <v>1682</v>
       </c>
       <c r="L399" t="s">
-        <v>1682</v>
+        <v>108</v>
       </c>
       <c r="M399" t="s">
         <v>1683</v>
@@ -32184,8 +32184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFAC224-3B06-46C1-8FBC-4E0275C3F461}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33583,10 +33583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C82657-9756-4B67-8631-B6FE063E8DDC}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34048,7 +34048,7 @@
       </c>
       <c r="E13" s="15">
         <f ca="1">SUM(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!L:L"),D13), COUNTIF(INDIRECT("'"&amp;$A$17:$A$17&amp;"'!L:L"),D13))</f>
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -34064,24 +34064,32 @@
       <c r="A15" s="6" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="15">
+        <f ca="1">SUM(COUNTIF(INDIRECT("'"&amp;$A$16:$A$16&amp;"'!L:L"),D15), COUNTIF(INDIRECT("'"&amp;$A$17:$A$17&amp;"'!L:L"),D15))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1742</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>1905</v>
-      </c>
-      <c r="E16" s="12">
-        <f ca="1">SUM(E13:E14)</f>
-        <v>440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1743</v>
       </c>
-    </row>
+      <c r="D17" s="11" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E17" s="12">
+        <f ca="1">SUM(E13:E15)</f>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49B9D0-1816-436B-BE92-0B7492B3BCED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A9B87-EB90-4198-91F1-967E482E5348}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -6855,9 +6855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:U435"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7991,7 +7991,7 @@
         <v>1682</v>
       </c>
       <c r="M18" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O18" t="s">
         <v>23</v>
@@ -33585,7 +33585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C82657-9756-4B67-8631-B6FE063E8DDC}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A9B87-EB90-4198-91F1-967E482E5348}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768832BE-D531-4DA7-B1B3-7E002AC628B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -6857,7 +6857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8053,7 +8053,7 @@
         <v>1682</v>
       </c>
       <c r="M19" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O19" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768832BE-D531-4DA7-B1B3-7E002AC628B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B968098A-5FD1-469B-9A62-596102E29D67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6857,7 +6857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8115,7 +8115,7 @@
         <v>1682</v>
       </c>
       <c r="M20" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="N20" t="s">
         <v>1765</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B968098A-5FD1-469B-9A62-596102E29D67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8AC3B1-0396-49F6-9CEA-CA5A3B730933}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6857,7 +6857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8165,7 +8165,7 @@
         <v>1682</v>
       </c>
       <c r="M21" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O21" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8AC3B1-0396-49F6-9CEA-CA5A3B730933}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC97EC6-0C0C-4E53-B166-C09E21D94D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -6857,7 +6857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8227,7 +8227,7 @@
         <v>1682</v>
       </c>
       <c r="M22" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O22" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC97EC6-0C0C-4E53-B166-C09E21D94D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA0514C-8E5B-45BF-B944-6A999604C6DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6855,39 +6855,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:U435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.26953125" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>215</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>217</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>227</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>326</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>329</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>360</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>387</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>395</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>426</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>452</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>539</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>543</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>554</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>578</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>673</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>678</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1162</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1173</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1193</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1727</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1747</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1759</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>1682</v>
       </c>
       <c r="M23" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O23" t="s">
         <v>23</v>
@@ -8313,7 +8313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1799</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1867</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1986</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2089</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2126</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2127</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2131</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2149</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2150</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2152</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2157</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2517</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2536</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2552</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2743</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3039</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3162</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>3173</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3193</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3194</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>3196</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3202</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>3222</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>3228</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3250</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3317</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3323</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3327</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3358</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3361</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>3677</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>3779</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>3864</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>3984</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5121</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5150</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5228</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5236</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5258</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5268</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>5298</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>5328</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>5372</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>5387</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>5487</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>5527</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>5530</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>5533</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>5546</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>5557</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>5558</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>5562</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>5576</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>5581</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>5621</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>5622</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>5639</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>5647</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>5656</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>5660</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>5706</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>5711</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>5714</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>5734</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>5739</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>5762</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>5768</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>5773</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>5781</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>5786</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>5795</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>5803</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>5804</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>5814</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>5815</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>5818</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>5820</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>5822</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>5824</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>5825</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>5854</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>5856</v>
       </c>
@@ -13387,7 +13387,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>5864</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>5895</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>5923</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>5929</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>5936</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>5937</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>5941</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>5947</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>5949</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>5950</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>5971</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>6014</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>6017</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>6024</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>6025</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>6055</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>6075</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>6080</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>6081</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>6083</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>6178</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>6198</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>6213</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>6292</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>6301</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>6307</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>6321</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>6331</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>6337</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>6347</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>6356</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>6383</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>6391</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>6396</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>6397</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>6416</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>6447</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>6460</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>6481</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>6492</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>6519</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>6541</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>6544</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>6545</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>6546</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>6552</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>6557</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>6561</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>6574</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>6585</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>6592</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>6600</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>6643</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>6650</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>6652</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>6660</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>6662</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>6670</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>6682</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>6677</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>6681</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>6695</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>6699</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>6701</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>6714</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>6707</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>6716</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>6720</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>6724</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>6734</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>6744</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>6739</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>6741</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>6751</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>6754</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>6755</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>6757</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>6767</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>6775</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>6777</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>6832</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>6847</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>6855</v>
       </c>
@@ -18217,7 +18217,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>6862</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>6873</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>6879</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>6887</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>6896</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>6897</v>
       </c>
@@ -18577,7 +18577,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>6914</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>6934</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>6935</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>6986</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>7003</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>7010</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>7016</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>7056</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>7071</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>7077</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>7083</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>7087</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>7096</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>7117</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>7136</v>
       </c>
@@ -19510,7 +19510,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>7176</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>7211</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>7240</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>7243</v>
       </c>
@@ -19758,7 +19758,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>7267</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>7271</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>7294</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>7309</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>7313</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>7353</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>7356</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>7368</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>7513</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>7533</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>7587</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>7592</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>7676</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>7677</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>7736</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>7804</v>
       </c>
@@ -20718,7 +20718,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>7810</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>7822</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>7823</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>7835</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>8021</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>8026</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>8044</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>8052</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>8729</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>8730</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>8737</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>9277</v>
       </c>
@@ -21462,7 +21462,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>9360</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>9363</v>
       </c>
@@ -21574,7 +21574,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>9460</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>9461</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>9513</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>9517</v>
       </c>
@@ -21822,7 +21822,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>9715</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>9755</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>11330</v>
       </c>
@@ -22008,7 +22008,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>11387</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>11391</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>11396</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>11417</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>11457</v>
       </c>
@@ -22306,7 +22306,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>11463</v>
       </c>
@@ -22368,7 +22368,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>11467</v>
       </c>
@@ -22430,7 +22430,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>11475</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>11478</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>11482</v>
       </c>
@@ -22622,7 +22622,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>11486</v>
       </c>
@@ -22684,7 +22684,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>11502</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>11512</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>11557</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>11574</v>
       </c>
@@ -22910,7 +22910,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>11730</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>11733</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>11762</v>
       </c>
@@ -23084,7 +23084,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>11773</v>
       </c>
@@ -23134,7 +23134,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>11779</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>11792</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>11798</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>11810</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>11909</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>11910</v>
       </c>
@@ -23489,7 +23489,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>11934</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>11965</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>12631</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>16636</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>16656</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>16657</v>
       </c>
@@ -23861,7 +23861,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>16676</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>16686</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>16687</v>
       </c>
@@ -24035,7 +24035,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>16754</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>16762</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>16774</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>16793</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>16828</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>16877</v>
       </c>
@@ -24407,7 +24407,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>16878</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>16890</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>16898</v>
       </c>
@@ -24581,7 +24581,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>16899</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>16945</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>16946</v>
       </c>
@@ -24767,7 +24767,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>16951</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>16952</v>
       </c>
@@ -24891,7 +24891,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>16965</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>16981</v>
       </c>
@@ -25015,7 +25015,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>17041</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>17092</v>
       </c>
@@ -25127,7 +25127,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>17168</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>17191</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>17197</v>
       </c>
@@ -25313,7 +25313,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>17206</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>17212</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>17216</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>17218</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>17224</v>
       </c>
@@ -25611,7 +25611,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>17261</v>
       </c>
@@ -25673,7 +25673,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>17262</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>17264</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>17293</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>17308</v>
       </c>
@@ -25921,7 +25921,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>17316</v>
       </c>
@@ -25983,7 +25983,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>17354</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>17358</v>
       </c>
@@ -26107,7 +26107,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>17397</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>17421</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>17447</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>17458</v>
       </c>
@@ -26355,7 +26355,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>17473</v>
       </c>
@@ -26417,7 +26417,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>17480</v>
       </c>
@@ -26482,7 +26482,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>17485</v>
       </c>
@@ -26544,7 +26544,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>17491</v>
       </c>
@@ -26606,7 +26606,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>17501</v>
       </c>
@@ -26658,7 +26658,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>17510</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>17536</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>17555</v>
       </c>
@@ -26844,7 +26844,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>17559</v>
       </c>
@@ -26906,7 +26906,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>17583</v>
       </c>
@@ -26968,7 +26968,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>17599</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>17680</v>
       </c>
@@ -27092,7 +27092,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>17692</v>
       </c>
@@ -27154,7 +27154,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>18088</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>18099</v>
       </c>
@@ -27278,7 +27278,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>18100</v>
       </c>
@@ -27340,7 +27340,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>18102</v>
       </c>
@@ -27402,7 +27402,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>18110</v>
       </c>
@@ -27464,7 +27464,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>18113</v>
       </c>
@@ -27514,7 +27514,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>18122</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>18133</v>
       </c>
@@ -27638,7 +27638,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>18142</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>18156</v>
       </c>
@@ -27762,7 +27762,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>18298</v>
       </c>
@@ -27812,7 +27812,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>18299</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>18313</v>
       </c>
@@ -27936,7 +27936,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>18322</v>
       </c>
@@ -27998,7 +27998,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>18434</v>
       </c>
@@ -28060,7 +28060,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>18439</v>
       </c>
@@ -28122,7 +28122,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>18522</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>18571</v>
       </c>
@@ -28246,7 +28246,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>18587</v>
       </c>
@@ -28308,7 +28308,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>18601</v>
       </c>
@@ -28370,7 +28370,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>18611</v>
       </c>
@@ -28432,7 +28432,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>18751</v>
       </c>
@@ -28494,7 +28494,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>18825</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>19301</v>
       </c>
@@ -28618,7 +28618,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>19401</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>19515</v>
       </c>
@@ -28742,7 +28742,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>19614</v>
       </c>
@@ -28804,7 +28804,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>19667</v>
       </c>
@@ -28866,7 +28866,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>19728</v>
       </c>
@@ -28928,7 +28928,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>19920</v>
       </c>
@@ -28990,7 +28990,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>19952</v>
       </c>
@@ -29052,7 +29052,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>19965</v>
       </c>
@@ -29114,7 +29114,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>20014</v>
       </c>
@@ -29176,7 +29176,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>20028</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>20062</v>
       </c>
@@ -29300,7 +29300,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>20064</v>
       </c>
@@ -29362,7 +29362,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>20067</v>
       </c>
@@ -29424,7 +29424,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>20515</v>
       </c>
@@ -29486,7 +29486,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>20522</v>
       </c>
@@ -29536,7 +29536,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>20550</v>
       </c>
@@ -29598,7 +29598,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>20609</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>20677</v>
       </c>
@@ -29722,7 +29722,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>20725</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>20737</v>
       </c>
@@ -29846,7 +29846,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>20739</v>
       </c>
@@ -29908,7 +29908,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>20750</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>20769</v>
       </c>
@@ -30020,7 +30020,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>20772</v>
       </c>
@@ -30082,7 +30082,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>21070</v>
       </c>
@@ -30132,7 +30132,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>21515</v>
       </c>
@@ -30194,7 +30194,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>21576</v>
       </c>
@@ -30256,7 +30256,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>21577</v>
       </c>
@@ -30318,7 +30318,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>21647</v>
       </c>
@@ -30368,7 +30368,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>23396</v>
       </c>
@@ -30430,7 +30430,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>24053</v>
       </c>
@@ -30492,7 +30492,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>24058</v>
       </c>
@@ -30554,7 +30554,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>24059</v>
       </c>
@@ -30616,7 +30616,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>24080</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>24906</v>
       </c>
@@ -30740,7 +30740,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>25487</v>
       </c>
@@ -30802,7 +30802,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>27675</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>27894</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>28322</v>
       </c>
@@ -30991,7 +30991,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>28432</v>
       </c>
@@ -31053,7 +31053,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>28477</v>
       </c>
@@ -31115,7 +31115,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>28820</v>
       </c>
@@ -31177,7 +31177,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>29418</v>
       </c>
@@ -31239,7 +31239,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>29437</v>
       </c>
@@ -31304,7 +31304,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>29452</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>30288</v>
       </c>
@@ -31416,7 +31416,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>33452</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>34104</v>
       </c>
@@ -31530,7 +31530,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>34109</v>
       </c>
@@ -31592,7 +31592,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>34119</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>34123</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>34133</v>
       </c>
@@ -31768,7 +31768,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>34207</v>
       </c>
@@ -31830,7 +31830,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>34281</v>
       </c>
@@ -31892,67 +31892,67 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E434"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E435"/>
     </row>
   </sheetData>
@@ -32188,29 +32188,29 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7265625" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1962</v>
       </c>
@@ -32334,7 +32334,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1961</v>
       </c>
@@ -32396,7 +32396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -32418,7 +32418,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>1972</v>
       </c>
@@ -32459,7 +32459,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>1974</v>
       </c>
@@ -32503,7 +32503,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>1996</v>
       </c>
@@ -32544,7 +32544,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>1973</v>
       </c>
@@ -32585,7 +32585,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>1963</v>
       </c>
@@ -32626,7 +32626,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>1964</v>
       </c>
@@ -32667,7 +32667,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>1965</v>
       </c>
@@ -32708,7 +32708,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1966</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>1967</v>
       </c>
@@ -32793,7 +32793,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>1968</v>
       </c>
@@ -32837,7 +32837,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>1969</v>
       </c>
@@ -32878,7 +32878,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>1970</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>1975</v>
       </c>
@@ -32960,7 +32960,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>1976</v>
       </c>
@@ -33001,7 +33001,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>2004</v>
       </c>
@@ -33042,7 +33042,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1977</v>
       </c>
@@ -33083,7 +33083,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>1978</v>
       </c>
@@ -33124,7 +33124,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>1979</v>
       </c>
@@ -33165,7 +33165,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>1980</v>
       </c>
@@ -33206,7 +33206,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>1981</v>
       </c>
@@ -33247,7 +33247,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>1982</v>
       </c>
@@ -33291,7 +33291,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>1983</v>
       </c>
@@ -33335,12 +33335,12 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>2000</v>
       </c>
@@ -33384,7 +33384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>1984</v>
       </c>
@@ -33428,7 +33428,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>1985</v>
       </c>
@@ -33472,7 +33472,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>1986</v>
       </c>
@@ -33516,7 +33516,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>1987</v>
       </c>
@@ -33560,7 +33560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E35" s="10"/>
     </row>
   </sheetData>
@@ -33589,16 +33589,16 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>1920</v>
       </c>
@@ -33642,7 +33642,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -33693,7 +33693,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1744</v>
       </c>
@@ -33744,7 +33744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -33795,7 +33795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1641</v>
       </c>
@@ -33846,7 +33846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1684</v>
       </c>
@@ -33885,7 +33885,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1745</v>
       </c>
@@ -33922,7 +33922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1670</v>
       </c>
@@ -33966,7 +33966,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1725</v>
       </c>
@@ -33982,7 +33982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -34005,14 +34005,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>1746</v>
       </c>
@@ -34034,7 +34034,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>1654</v>
       </c>
@@ -34051,7 +34051,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="D14" s="16" t="s">
         <v>1683</v>
       </c>
@@ -34060,7 +34060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>1741</v>
       </c>
@@ -34072,12 +34072,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>1743</v>
       </c>
@@ -34089,7 +34089,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34109,29 +34109,29 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7265625" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -34193,7 +34193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>27669</v>
       </c>
@@ -34234,7 +34234,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5580</v>
       </c>
@@ -34275,7 +34275,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>200</v>
       </c>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA0514C-8E5B-45BF-B944-6A999604C6DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C273B68-550C-4154-9AC3-030E0F39124F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6855,9 +6855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:U435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9336,7 +9336,7 @@
         <v>1682</v>
       </c>
       <c r="M40" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O40" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C273B68-550C-4154-9AC3-030E0F39124F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC457D1-094B-4ABC-810D-48E76A71A572}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6856,38 +6856,38 @@
   <dimension ref="A1:U435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.26953125" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>215</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>217</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>227</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>326</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>329</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>360</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>387</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>395</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>426</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>452</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>539</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>543</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>554</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>578</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>673</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>678</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1162</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1173</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1193</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1727</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1747</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1759</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1799</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>1682</v>
       </c>
       <c r="M24" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O24" t="s">
         <v>23</v>
@@ -8375,7 +8375,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1867</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1986</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2089</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2126</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2127</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2131</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2149</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2150</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2152</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2157</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2517</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2536</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2552</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2743</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3039</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3162</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3173</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3193</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3194</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3196</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3202</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3222</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3228</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3250</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3317</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3323</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3327</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3358</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3361</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3677</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3779</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3864</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3984</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5121</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5150</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5228</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5236</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5258</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5268</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5298</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5328</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5372</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5387</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5487</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5527</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5530</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5533</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5546</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5557</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5558</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5562</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5576</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5581</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5621</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5622</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5639</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5647</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5656</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5660</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5706</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5711</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5714</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5734</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5739</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5762</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5768</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5773</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5781</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5786</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5795</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5803</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5804</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5814</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5815</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5818</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5820</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5822</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5824</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5825</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5854</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5856</v>
       </c>
@@ -13387,7 +13387,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5864</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5895</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5923</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5929</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5936</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5937</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5941</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5947</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5949</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5950</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5971</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6014</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6017</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6024</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6025</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6055</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6075</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6080</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6081</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6083</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6178</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6198</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6213</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6292</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6301</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6307</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6321</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6331</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6337</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6347</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6356</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6383</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6391</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6396</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6397</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6416</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6447</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6460</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6481</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6492</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6519</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6541</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6544</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6545</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6546</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6552</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6557</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6561</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6574</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6585</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6592</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6600</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6643</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6650</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6652</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6660</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6662</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6670</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6682</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6677</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6681</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6695</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6699</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6701</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6714</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6707</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6716</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6720</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6724</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6734</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6744</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6739</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>6741</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>6751</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>6754</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>6755</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>6757</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>6767</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>6775</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>6777</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>6832</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>6847</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>6855</v>
       </c>
@@ -18217,7 +18217,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>6862</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>6873</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>6879</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>6887</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>6896</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>6897</v>
       </c>
@@ -18577,7 +18577,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6914</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>6934</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>6935</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>6986</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>7003</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>7010</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>7016</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>7056</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>7071</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>7077</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7083</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7087</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7096</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>7117</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>7136</v>
       </c>
@@ -19510,7 +19510,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>7176</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>7211</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>7240</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>7243</v>
       </c>
@@ -19758,7 +19758,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>7267</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>7271</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>7294</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>7309</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>7313</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>7353</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>7356</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>7368</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>7513</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>7533</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>7587</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>7592</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>7676</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>7677</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>7736</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>7804</v>
       </c>
@@ -20718,7 +20718,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>7810</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>7822</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>7823</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>7835</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>8021</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>8026</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>8044</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>8052</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>8729</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>8730</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>8737</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>9277</v>
       </c>
@@ -21462,7 +21462,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>9360</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9363</v>
       </c>
@@ -21574,7 +21574,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>9460</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>9461</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>9513</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>9517</v>
       </c>
@@ -21822,7 +21822,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>9715</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>9755</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>11330</v>
       </c>
@@ -22008,7 +22008,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>11387</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>11391</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>11396</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>11417</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>11457</v>
       </c>
@@ -22306,7 +22306,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>11463</v>
       </c>
@@ -22368,7 +22368,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>11467</v>
       </c>
@@ -22430,7 +22430,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>11475</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>11478</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>11482</v>
       </c>
@@ -22622,7 +22622,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>11486</v>
       </c>
@@ -22684,7 +22684,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>11502</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>11512</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>11557</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>11574</v>
       </c>
@@ -22910,7 +22910,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>11730</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>11733</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>11762</v>
       </c>
@@ -23084,7 +23084,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>11773</v>
       </c>
@@ -23134,7 +23134,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>11779</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>11792</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>11798</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>11810</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>11909</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>11910</v>
       </c>
@@ -23489,7 +23489,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>11934</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>11965</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>12631</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>16636</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>16656</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>16657</v>
       </c>
@@ -23861,7 +23861,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>16676</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>16686</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>16687</v>
       </c>
@@ -24035,7 +24035,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>16754</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>16762</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>16774</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>16793</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>16828</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>16877</v>
       </c>
@@ -24407,7 +24407,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>16878</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>16890</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>16898</v>
       </c>
@@ -24581,7 +24581,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>16899</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>16945</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>16946</v>
       </c>
@@ -24767,7 +24767,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>16951</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>16952</v>
       </c>
@@ -24891,7 +24891,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>16965</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>16981</v>
       </c>
@@ -25015,7 +25015,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>17041</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>17092</v>
       </c>
@@ -25127,7 +25127,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>17168</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>17191</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>17197</v>
       </c>
@@ -25313,7 +25313,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>17206</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>17212</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>17216</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>17218</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>17224</v>
       </c>
@@ -25611,7 +25611,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>17261</v>
       </c>
@@ -25673,7 +25673,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>17262</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>17264</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>17293</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>17308</v>
       </c>
@@ -25921,7 +25921,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>17316</v>
       </c>
@@ -25983,7 +25983,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>17354</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>17358</v>
       </c>
@@ -26107,7 +26107,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>17397</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>17421</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>17447</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>17458</v>
       </c>
@@ -26355,7 +26355,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>17473</v>
       </c>
@@ -26417,7 +26417,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>17480</v>
       </c>
@@ -26482,7 +26482,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>17485</v>
       </c>
@@ -26544,7 +26544,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>17491</v>
       </c>
@@ -26606,7 +26606,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>17501</v>
       </c>
@@ -26658,7 +26658,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>17510</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>17536</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>17555</v>
       </c>
@@ -26844,7 +26844,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>17559</v>
       </c>
@@ -26906,7 +26906,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>17583</v>
       </c>
@@ -26968,7 +26968,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>17599</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>17680</v>
       </c>
@@ -27092,7 +27092,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>17692</v>
       </c>
@@ -27154,7 +27154,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>18088</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>18099</v>
       </c>
@@ -27278,7 +27278,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>18100</v>
       </c>
@@ -27340,7 +27340,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>18102</v>
       </c>
@@ -27402,7 +27402,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>18110</v>
       </c>
@@ -27464,7 +27464,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>18113</v>
       </c>
@@ -27514,7 +27514,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>18122</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>18133</v>
       </c>
@@ -27638,7 +27638,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>18142</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>18156</v>
       </c>
@@ -27762,7 +27762,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>18298</v>
       </c>
@@ -27812,7 +27812,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>18299</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>18313</v>
       </c>
@@ -27936,7 +27936,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>18322</v>
       </c>
@@ -27998,7 +27998,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>18434</v>
       </c>
@@ -28060,7 +28060,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>18439</v>
       </c>
@@ -28122,7 +28122,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>18522</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>18571</v>
       </c>
@@ -28246,7 +28246,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>18587</v>
       </c>
@@ -28308,7 +28308,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>18601</v>
       </c>
@@ -28370,7 +28370,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>18611</v>
       </c>
@@ -28432,7 +28432,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>18751</v>
       </c>
@@ -28494,7 +28494,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>18825</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>19301</v>
       </c>
@@ -28618,7 +28618,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>19401</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>19515</v>
       </c>
@@ -28742,7 +28742,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>19614</v>
       </c>
@@ -28804,7 +28804,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>19667</v>
       </c>
@@ -28866,7 +28866,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>19728</v>
       </c>
@@ -28928,7 +28928,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>19920</v>
       </c>
@@ -28990,7 +28990,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>19952</v>
       </c>
@@ -29052,7 +29052,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>19965</v>
       </c>
@@ -29114,7 +29114,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>20014</v>
       </c>
@@ -29176,7 +29176,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>20028</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>20062</v>
       </c>
@@ -29300,7 +29300,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>20064</v>
       </c>
@@ -29362,7 +29362,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>20067</v>
       </c>
@@ -29424,7 +29424,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>20515</v>
       </c>
@@ -29486,7 +29486,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>20522</v>
       </c>
@@ -29536,7 +29536,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>20550</v>
       </c>
@@ -29598,7 +29598,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>20609</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>20677</v>
       </c>
@@ -29722,7 +29722,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>20725</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>20737</v>
       </c>
@@ -29846,7 +29846,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>20739</v>
       </c>
@@ -29908,7 +29908,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>20750</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>20769</v>
       </c>
@@ -30020,7 +30020,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>20772</v>
       </c>
@@ -30082,7 +30082,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>21070</v>
       </c>
@@ -30132,7 +30132,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>21515</v>
       </c>
@@ -30194,7 +30194,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>21576</v>
       </c>
@@ -30256,7 +30256,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>21577</v>
       </c>
@@ -30318,7 +30318,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>21647</v>
       </c>
@@ -30368,7 +30368,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>23396</v>
       </c>
@@ -30430,7 +30430,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>24053</v>
       </c>
@@ -30492,7 +30492,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>24058</v>
       </c>
@@ -30554,7 +30554,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>24059</v>
       </c>
@@ -30616,7 +30616,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>24080</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>24906</v>
       </c>
@@ -30740,7 +30740,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>25487</v>
       </c>
@@ -30802,7 +30802,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>27675</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>27894</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>28322</v>
       </c>
@@ -30991,7 +30991,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>28432</v>
       </c>
@@ -31053,7 +31053,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>28477</v>
       </c>
@@ -31115,7 +31115,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>28820</v>
       </c>
@@ -31177,7 +31177,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>29418</v>
       </c>
@@ -31239,7 +31239,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>29437</v>
       </c>
@@ -31304,7 +31304,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>29452</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>30288</v>
       </c>
@@ -31416,7 +31416,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>33452</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>34104</v>
       </c>
@@ -31530,7 +31530,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>34109</v>
       </c>
@@ -31592,7 +31592,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>34119</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>34123</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>34133</v>
       </c>
@@ -31768,7 +31768,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>34207</v>
       </c>
@@ -31830,7 +31830,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>34281</v>
       </c>
@@ -31892,67 +31892,67 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435"/>
     </row>
   </sheetData>
@@ -32188,29 +32188,29 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7265625" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1962</v>
       </c>
@@ -32334,7 +32334,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1961</v>
       </c>
@@ -32396,7 +32396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -32418,7 +32418,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1972</v>
       </c>
@@ -32459,7 +32459,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1974</v>
       </c>
@@ -32503,7 +32503,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>1996</v>
       </c>
@@ -32544,7 +32544,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1973</v>
       </c>
@@ -32585,7 +32585,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1963</v>
       </c>
@@ -32626,7 +32626,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1964</v>
       </c>
@@ -32667,7 +32667,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1965</v>
       </c>
@@ -32708,7 +32708,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1966</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1967</v>
       </c>
@@ -32793,7 +32793,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1968</v>
       </c>
@@ -32837,7 +32837,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1969</v>
       </c>
@@ -32878,7 +32878,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1970</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1975</v>
       </c>
@@ -32960,7 +32960,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1976</v>
       </c>
@@ -33001,7 +33001,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>2004</v>
       </c>
@@ -33042,7 +33042,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1977</v>
       </c>
@@ -33083,7 +33083,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1978</v>
       </c>
@@ -33124,7 +33124,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>1979</v>
       </c>
@@ -33165,7 +33165,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1980</v>
       </c>
@@ -33206,7 +33206,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1981</v>
       </c>
@@ -33247,7 +33247,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>1982</v>
       </c>
@@ -33291,7 +33291,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1983</v>
       </c>
@@ -33335,12 +33335,12 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>2000</v>
       </c>
@@ -33384,7 +33384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1984</v>
       </c>
@@ -33428,7 +33428,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>1985</v>
       </c>
@@ -33472,7 +33472,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>1986</v>
       </c>
@@ -33516,7 +33516,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>1987</v>
       </c>
@@ -33560,7 +33560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E35" s="10"/>
     </row>
   </sheetData>
@@ -33589,16 +33589,16 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1920</v>
       </c>
@@ -33642,7 +33642,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -33693,7 +33693,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1744</v>
       </c>
@@ -33744,7 +33744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -33795,7 +33795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1641</v>
       </c>
@@ -33846,7 +33846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1684</v>
       </c>
@@ -33885,7 +33885,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1745</v>
       </c>
@@ -33922,7 +33922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1670</v>
       </c>
@@ -33966,7 +33966,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1725</v>
       </c>
@@ -33982,7 +33982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -34005,14 +34005,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1746</v>
       </c>
@@ -34034,7 +34034,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>1654</v>
       </c>
@@ -34051,7 +34051,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D14" s="16" t="s">
         <v>1683</v>
       </c>
@@ -34060,7 +34060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>1741</v>
       </c>
@@ -34072,12 +34072,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1743</v>
       </c>
@@ -34089,7 +34089,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34109,29 +34109,29 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7265625" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -34193,7 +34193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>27669</v>
       </c>
@@ -34234,7 +34234,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5580</v>
       </c>
@@ -34275,7 +34275,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC457D1-094B-4ABC-810D-48E76A71A572}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FD4A3C-C82F-47CD-9F9D-DE5C74B9D5FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6857,7 +6857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8413,7 +8413,7 @@
         <v>1682</v>
       </c>
       <c r="M25" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O25" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FD4A3C-C82F-47CD-9F9D-DE5C74B9D5FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E5B6E-4B6E-4B29-AB38-005FA8A3A594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -6856,8 +6856,8 @@
   <dimension ref="A1:U435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9993,7 +9993,7 @@
         <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="I51" t="s">
         <v>1660</v>
@@ -10008,7 +10008,7 @@
         <v>1682</v>
       </c>
       <c r="M51" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O51" t="s">
         <v>23</v>
@@ -33720,7 +33720,7 @@
       </c>
       <c r="K3" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>21</v>
@@ -33822,7 +33822,7 @@
       </c>
       <c r="K5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>1739</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1E5B6E-4B6E-4B29-AB38-005FA8A3A594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C39C2AE-3C67-4F73-8B0D-3C493C6C60F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6856,8 +6856,8 @@
   <dimension ref="A1:U435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8475,7 +8475,7 @@
         <v>1682</v>
       </c>
       <c r="M26" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O26" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C39C2AE-3C67-4F73-8B0D-3C493C6C60F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA355AE4-42D7-4F34-A9EF-50547EAE6DF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6857,37 +6857,37 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.26953125" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>215</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>217</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>227</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>326</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>329</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>360</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>387</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>395</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>426</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>452</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>539</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>543</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>554</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>578</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>673</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>678</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1162</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1173</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1193</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1727</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1747</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1759</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1799</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1867</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1986</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>1682</v>
       </c>
       <c r="M27" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O27" t="s">
         <v>23</v>
@@ -8561,7 +8561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2089</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2126</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2127</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2131</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2149</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2150</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2152</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2157</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2517</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2536</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2552</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2743</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3039</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3162</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>3173</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3193</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3194</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>3196</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3202</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>3222</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>3228</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3250</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3317</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3323</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3327</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3358</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3361</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>3677</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>3779</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>3864</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>3984</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5121</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5150</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5228</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5236</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5258</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5268</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>5298</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>5328</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>5372</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>5387</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>5487</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>5527</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>5530</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>5533</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>5546</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>5557</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>5558</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>5562</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>5576</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>5581</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>5621</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>5622</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>5639</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>5647</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>5656</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>5660</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>5706</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>5711</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>5714</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>5734</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>5739</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>5762</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>5768</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>5773</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>5781</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>5786</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>5795</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>5803</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>5804</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>5814</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>5815</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>5818</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>5820</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>5822</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>5824</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>5825</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>5854</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>5856</v>
       </c>
@@ -13387,7 +13387,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>5864</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>5895</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>5923</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>5929</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>5936</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>5937</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>5941</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>5947</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>5949</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>5950</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>5971</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>6014</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>6017</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>6024</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>6025</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>6055</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>6075</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>6080</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>6081</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>6083</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>6178</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>6198</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>6213</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>6292</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>6301</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>6307</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>6321</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>6331</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>6337</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>6347</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>6356</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>6383</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>6391</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>6396</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>6397</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>6416</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>6447</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>6460</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>6481</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>6492</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>6519</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>6541</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>6544</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>6545</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>6546</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>6552</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>6557</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>6561</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>6574</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>6585</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>6592</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>6600</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>6643</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>6650</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>6652</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>6660</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>6662</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>6670</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>6682</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>6677</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>6681</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>6695</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>6699</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>6701</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>6714</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>6707</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>6716</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>6720</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>6724</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>6734</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>6744</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>6739</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>6741</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>6751</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>6754</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>6755</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>6757</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>6767</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>6775</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>6777</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>6832</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>6847</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>6855</v>
       </c>
@@ -18217,7 +18217,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>6862</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>6873</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>6879</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>6887</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>6896</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>6897</v>
       </c>
@@ -18577,7 +18577,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>6914</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>6934</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>6935</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>6986</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>7003</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>7010</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>7016</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>7056</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>7071</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>7077</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>7083</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>7087</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>7096</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>7117</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>7136</v>
       </c>
@@ -19510,7 +19510,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>7176</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>7211</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>7240</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>7243</v>
       </c>
@@ -19758,7 +19758,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>7267</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>7271</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>7294</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>7309</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>7313</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>7353</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>7356</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>7368</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>7513</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>7533</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>7587</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>7592</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>7676</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>7677</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>7736</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>7804</v>
       </c>
@@ -20718,7 +20718,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>7810</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>7822</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>7823</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>7835</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>8021</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>8026</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>8044</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>8052</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>8729</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>8730</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>8737</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>9277</v>
       </c>
@@ -21462,7 +21462,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>9360</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>9363</v>
       </c>
@@ -21574,7 +21574,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>9460</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>9461</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>9513</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>9517</v>
       </c>
@@ -21822,7 +21822,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>9715</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>9755</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>11330</v>
       </c>
@@ -22008,7 +22008,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>11387</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>11391</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>11396</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>11417</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>11457</v>
       </c>
@@ -22306,7 +22306,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>11463</v>
       </c>
@@ -22368,7 +22368,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>11467</v>
       </c>
@@ -22430,7 +22430,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>11475</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>11478</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>11482</v>
       </c>
@@ -22622,7 +22622,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>11486</v>
       </c>
@@ -22684,7 +22684,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>11502</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>11512</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>11557</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>11574</v>
       </c>
@@ -22910,7 +22910,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>11730</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>11733</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>11762</v>
       </c>
@@ -23084,7 +23084,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>11773</v>
       </c>
@@ -23134,7 +23134,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>11779</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>11792</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>11798</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>11810</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>11909</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>11910</v>
       </c>
@@ -23489,7 +23489,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>11934</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>11965</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>12631</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>16636</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>16656</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>16657</v>
       </c>
@@ -23861,7 +23861,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>16676</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>16686</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>16687</v>
       </c>
@@ -24035,7 +24035,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>16754</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>16762</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>16774</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>16793</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>16828</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>16877</v>
       </c>
@@ -24407,7 +24407,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>16878</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>16890</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>16898</v>
       </c>
@@ -24581,7 +24581,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>16899</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>16945</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>16946</v>
       </c>
@@ -24767,7 +24767,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>16951</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>16952</v>
       </c>
@@ -24891,7 +24891,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>16965</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>16981</v>
       </c>
@@ -25015,7 +25015,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>17041</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>17092</v>
       </c>
@@ -25127,7 +25127,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>17168</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>17191</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>17197</v>
       </c>
@@ -25313,7 +25313,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>17206</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>17212</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>17216</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>17218</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>17224</v>
       </c>
@@ -25611,7 +25611,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>17261</v>
       </c>
@@ -25673,7 +25673,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>17262</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>17264</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>17293</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>17308</v>
       </c>
@@ -25921,7 +25921,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>17316</v>
       </c>
@@ -25983,7 +25983,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>17354</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>17358</v>
       </c>
@@ -26107,7 +26107,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>17397</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>17421</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>17447</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>17458</v>
       </c>
@@ -26355,7 +26355,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>17473</v>
       </c>
@@ -26417,7 +26417,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>17480</v>
       </c>
@@ -26482,7 +26482,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>17485</v>
       </c>
@@ -26544,7 +26544,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>17491</v>
       </c>
@@ -26606,7 +26606,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>17501</v>
       </c>
@@ -26658,7 +26658,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>17510</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>17536</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>17555</v>
       </c>
@@ -26844,7 +26844,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>17559</v>
       </c>
@@ -26906,7 +26906,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>17583</v>
       </c>
@@ -26968,7 +26968,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>17599</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>17680</v>
       </c>
@@ -27092,7 +27092,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>17692</v>
       </c>
@@ -27154,7 +27154,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>18088</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>18099</v>
       </c>
@@ -27278,7 +27278,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>18100</v>
       </c>
@@ -27340,7 +27340,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>18102</v>
       </c>
@@ -27402,7 +27402,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>18110</v>
       </c>
@@ -27464,7 +27464,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>18113</v>
       </c>
@@ -27514,7 +27514,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>18122</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>18133</v>
       </c>
@@ -27638,7 +27638,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>18142</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>18156</v>
       </c>
@@ -27762,7 +27762,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>18298</v>
       </c>
@@ -27812,7 +27812,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>18299</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>18313</v>
       </c>
@@ -27936,7 +27936,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>18322</v>
       </c>
@@ -27998,7 +27998,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>18434</v>
       </c>
@@ -28060,7 +28060,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>18439</v>
       </c>
@@ -28122,7 +28122,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>18522</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>18571</v>
       </c>
@@ -28246,7 +28246,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>18587</v>
       </c>
@@ -28308,7 +28308,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>18601</v>
       </c>
@@ -28370,7 +28370,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>18611</v>
       </c>
@@ -28432,7 +28432,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>18751</v>
       </c>
@@ -28494,7 +28494,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>18825</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>19301</v>
       </c>
@@ -28618,7 +28618,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>19401</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>19515</v>
       </c>
@@ -28742,7 +28742,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>19614</v>
       </c>
@@ -28804,7 +28804,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>19667</v>
       </c>
@@ -28866,7 +28866,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>19728</v>
       </c>
@@ -28928,7 +28928,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>19920</v>
       </c>
@@ -28990,7 +28990,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>19952</v>
       </c>
@@ -29052,7 +29052,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>19965</v>
       </c>
@@ -29114,7 +29114,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>20014</v>
       </c>
@@ -29176,7 +29176,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>20028</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>20062</v>
       </c>
@@ -29300,7 +29300,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>20064</v>
       </c>
@@ -29362,7 +29362,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>20067</v>
       </c>
@@ -29424,7 +29424,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>20515</v>
       </c>
@@ -29486,7 +29486,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>20522</v>
       </c>
@@ -29536,7 +29536,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>20550</v>
       </c>
@@ -29598,7 +29598,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>20609</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>20677</v>
       </c>
@@ -29722,7 +29722,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>20725</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>20737</v>
       </c>
@@ -29846,7 +29846,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>20739</v>
       </c>
@@ -29908,7 +29908,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>20750</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>20769</v>
       </c>
@@ -30020,7 +30020,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>20772</v>
       </c>
@@ -30082,7 +30082,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>21070</v>
       </c>
@@ -30132,7 +30132,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>21515</v>
       </c>
@@ -30194,7 +30194,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>21576</v>
       </c>
@@ -30256,7 +30256,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>21577</v>
       </c>
@@ -30318,7 +30318,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>21647</v>
       </c>
@@ -30368,7 +30368,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>23396</v>
       </c>
@@ -30430,7 +30430,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>24053</v>
       </c>
@@ -30492,7 +30492,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>24058</v>
       </c>
@@ -30554,7 +30554,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>24059</v>
       </c>
@@ -30616,7 +30616,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>24080</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>24906</v>
       </c>
@@ -30740,7 +30740,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>25487</v>
       </c>
@@ -30802,7 +30802,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>27675</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>27894</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>28322</v>
       </c>
@@ -30991,7 +30991,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>28432</v>
       </c>
@@ -31053,7 +31053,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>28477</v>
       </c>
@@ -31115,7 +31115,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>28820</v>
       </c>
@@ -31177,7 +31177,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>29418</v>
       </c>
@@ -31239,7 +31239,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>29437</v>
       </c>
@@ -31304,7 +31304,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>29452</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>30288</v>
       </c>
@@ -31416,7 +31416,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>33452</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>34104</v>
       </c>
@@ -31530,7 +31530,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>34109</v>
       </c>
@@ -31592,7 +31592,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>34119</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>34123</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>34133</v>
       </c>
@@ -31768,7 +31768,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>34207</v>
       </c>
@@ -31830,7 +31830,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>34281</v>
       </c>
@@ -31892,67 +31892,67 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E434"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E435"/>
     </row>
   </sheetData>
@@ -32188,29 +32188,29 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7265625" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1962</v>
       </c>
@@ -32334,7 +32334,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1961</v>
       </c>
@@ -32396,7 +32396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -32418,7 +32418,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>1972</v>
       </c>
@@ -32459,7 +32459,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>1974</v>
       </c>
@@ -32503,7 +32503,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>1996</v>
       </c>
@@ -32544,7 +32544,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>1973</v>
       </c>
@@ -32585,7 +32585,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>1963</v>
       </c>
@@ -32626,7 +32626,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>1964</v>
       </c>
@@ -32667,7 +32667,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>1965</v>
       </c>
@@ -32708,7 +32708,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1966</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>1967</v>
       </c>
@@ -32793,7 +32793,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>1968</v>
       </c>
@@ -32837,7 +32837,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>1969</v>
       </c>
@@ -32878,7 +32878,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>1970</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>1975</v>
       </c>
@@ -32960,7 +32960,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>1976</v>
       </c>
@@ -33001,7 +33001,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>2004</v>
       </c>
@@ -33042,7 +33042,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1977</v>
       </c>
@@ -33083,7 +33083,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>1978</v>
       </c>
@@ -33124,7 +33124,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>1979</v>
       </c>
@@ -33165,7 +33165,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>1980</v>
       </c>
@@ -33206,7 +33206,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>1981</v>
       </c>
@@ -33247,7 +33247,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>1982</v>
       </c>
@@ -33291,7 +33291,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>1983</v>
       </c>
@@ -33335,12 +33335,12 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>2000</v>
       </c>
@@ -33384,7 +33384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>1984</v>
       </c>
@@ -33428,7 +33428,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>1985</v>
       </c>
@@ -33472,7 +33472,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>1986</v>
       </c>
@@ -33516,7 +33516,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>1987</v>
       </c>
@@ -33560,7 +33560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E35" s="10"/>
     </row>
   </sheetData>
@@ -33589,16 +33589,16 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>1920</v>
       </c>
@@ -33642,7 +33642,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -33693,7 +33693,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1744</v>
       </c>
@@ -33744,7 +33744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -33795,7 +33795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1641</v>
       </c>
@@ -33846,7 +33846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1684</v>
       </c>
@@ -33885,7 +33885,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1745</v>
       </c>
@@ -33922,7 +33922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1670</v>
       </c>
@@ -33966,7 +33966,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1725</v>
       </c>
@@ -33982,7 +33982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -34005,14 +34005,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>1746</v>
       </c>
@@ -34034,7 +34034,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>1654</v>
       </c>
@@ -34051,7 +34051,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="D14" s="16" t="s">
         <v>1683</v>
       </c>
@@ -34060,7 +34060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>1741</v>
       </c>
@@ -34072,12 +34072,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>1743</v>
       </c>
@@ -34089,7 +34089,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34109,29 +34109,29 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7265625" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -34193,7 +34193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>27669</v>
       </c>
@@ -34234,7 +34234,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5580</v>
       </c>
@@ -34275,7 +34275,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>200</v>
       </c>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA355AE4-42D7-4F34-A9EF-50547EAE6DF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09094647-E036-4D7D-BF57-6842725545E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6857,7 +6857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8599,7 +8599,7 @@
         <v>1682</v>
       </c>
       <c r="M28" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="O28" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09094647-E036-4D7D-BF57-6842725545E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06609EA5-1199-4BB2-8A51-FC8F69232071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$414</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$262:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6855,39 +6855,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787458D5-0D53-4EB5-974E-BD980B126E90}">
   <dimension ref="A1:U435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J304" sqref="J304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.26953125" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>215</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>217</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>227</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>326</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>329</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>360</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>387</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>395</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>426</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>452</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>539</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>543</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>554</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>578</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>673</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>678</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1162</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1173</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1193</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1727</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1747</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1759</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1799</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1867</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1986</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2089</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2126</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2127</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2131</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2149</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2150</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2152</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2157</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2517</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2536</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2552</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2743</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3039</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3162</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3173</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3193</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3194</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3196</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3202</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3222</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3228</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3250</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3317</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3323</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3327</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3358</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3361</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3677</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3779</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3864</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3984</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5121</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5150</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5228</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5236</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5258</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5268</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5298</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5328</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5372</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5387</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5487</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5527</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5530</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5533</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5546</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5557</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5558</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5562</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5576</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5581</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5621</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5622</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5639</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5647</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5656</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5660</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5706</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5711</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5714</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5734</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5739</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5762</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5768</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5773</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5781</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5786</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5795</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5803</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5804</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5814</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5815</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5818</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5820</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5822</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5824</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5825</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5854</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5856</v>
       </c>
@@ -13387,7 +13387,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5864</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5895</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5923</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5929</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5936</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5937</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5941</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5947</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5949</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5950</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5971</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6014</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6017</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6024</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6025</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6055</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6075</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6080</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6081</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6083</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6178</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6198</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6213</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6292</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6301</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6307</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6321</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6331</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6337</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6347</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6356</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6383</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6391</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6396</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6397</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6416</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6447</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6460</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6481</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6492</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6519</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6541</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6544</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6545</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6546</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6552</v>
       </c>
@@ -16144,7 +16144,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6557</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6561</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6574</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6585</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6592</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6600</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6643</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6650</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6652</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6660</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6662</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6670</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6682</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6677</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6681</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6695</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6699</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6701</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6714</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6707</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6716</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6720</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6724</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6734</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6744</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6739</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>6741</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>6751</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>6754</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>6755</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>6757</v>
       </c>
@@ -17877,7 +17877,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>6767</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>6775</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>6777</v>
       </c>
@@ -18041,7 +18041,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>6832</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>6847</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>6855</v>
       </c>
@@ -18217,7 +18217,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>6862</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>6873</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>6879</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>6887</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>6896</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>6897</v>
       </c>
@@ -18577,7 +18577,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6914</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>6934</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>6935</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>6986</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>7003</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>7010</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>7016</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>7056</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>7071</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>7077</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7083</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7087</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7096</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>7117</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>7136</v>
       </c>
@@ -19510,7 +19510,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>7176</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>7211</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>7240</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>7243</v>
       </c>
@@ -19758,7 +19758,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>7267</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>7271</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>7294</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>7309</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>7313</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>7353</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>7356</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>7368</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>7513</v>
       </c>
@@ -20294,7 +20294,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>7533</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>7587</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>7592</v>
       </c>
@@ -20480,7 +20480,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>7676</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>7677</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>7736</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>7804</v>
       </c>
@@ -20718,7 +20718,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>7810</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>7822</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>7823</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>7835</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>8021</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>8026</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>8044</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>8052</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>8729</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>8730</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>8737</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>9277</v>
       </c>
@@ -21462,7 +21462,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>9360</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9363</v>
       </c>
@@ -21574,7 +21574,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>9460</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>9461</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>9513</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>9517</v>
       </c>
@@ -21822,7 +21822,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>9715</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>9755</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>11330</v>
       </c>
@@ -22008,7 +22008,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>11387</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>11391</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>11396</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>11417</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>11457</v>
       </c>
@@ -22306,7 +22306,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>11463</v>
       </c>
@@ -22368,7 +22368,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>11467</v>
       </c>
@@ -22430,7 +22430,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>11475</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>11478</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>11482</v>
       </c>
@@ -22622,7 +22622,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>11486</v>
       </c>
@@ -22684,7 +22684,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>11502</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>11512</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>11557</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>11574</v>
       </c>
@@ -22910,7 +22910,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>11730</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>11733</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>11762</v>
       </c>
@@ -23084,7 +23084,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>11773</v>
       </c>
@@ -23134,7 +23134,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>11779</v>
       </c>
@@ -23196,7 +23196,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>11792</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>11798</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>11810</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>11909</v>
       </c>
@@ -23427,7 +23427,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>11910</v>
       </c>
@@ -23489,7 +23489,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>11934</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>11965</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>12631</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>16636</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>16656</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>16657</v>
       </c>
@@ -23861,7 +23861,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>16676</v>
       </c>
@@ -23923,7 +23923,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>16686</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>16687</v>
       </c>
@@ -24035,7 +24035,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>16754</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>16762</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>16774</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>16793</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>16828</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>16877</v>
       </c>
@@ -24407,7 +24407,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>16878</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>16890</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>16898</v>
       </c>
@@ -24581,7 +24581,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>16899</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>16945</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>16946</v>
       </c>
@@ -24767,7 +24767,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>16951</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>16952</v>
       </c>
@@ -24891,7 +24891,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>16965</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>16981</v>
       </c>
@@ -25015,7 +25015,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>17041</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>17092</v>
       </c>
@@ -25094,7 +25094,7 @@
         <v>1660</v>
       </c>
       <c r="J303" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="K303" t="s">
         <v>1682</v>
@@ -25127,7 +25127,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>17168</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>17191</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>17197</v>
       </c>
@@ -25313,7 +25313,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>17206</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>17212</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>17216</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>17218</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>17224</v>
       </c>
@@ -25611,7 +25611,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>17261</v>
       </c>
@@ -25673,7 +25673,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>17262</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>17264</v>
       </c>
@@ -25797,7 +25797,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>17293</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>17308</v>
       </c>
@@ -25921,7 +25921,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>17316</v>
       </c>
@@ -25983,7 +25983,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>17354</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>17358</v>
       </c>
@@ -26107,7 +26107,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>17397</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>17421</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>17447</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>17458</v>
       </c>
@@ -26355,7 +26355,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>17473</v>
       </c>
@@ -26417,7 +26417,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>17480</v>
       </c>
@@ -26482,7 +26482,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>17485</v>
       </c>
@@ -26544,7 +26544,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>17491</v>
       </c>
@@ -26606,7 +26606,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>17501</v>
       </c>
@@ -26658,7 +26658,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>17510</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>17536</v>
       </c>
@@ -26782,7 +26782,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>17555</v>
       </c>
@@ -26844,7 +26844,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>17559</v>
       </c>
@@ -26906,7 +26906,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>17583</v>
       </c>
@@ -26968,7 +26968,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>17599</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>17680</v>
       </c>
@@ -27092,7 +27092,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>17692</v>
       </c>
@@ -27154,7 +27154,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>18088</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>18099</v>
       </c>
@@ -27278,7 +27278,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>18100</v>
       </c>
@@ -27340,7 +27340,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>18102</v>
       </c>
@@ -27402,7 +27402,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>18110</v>
       </c>
@@ -27464,7 +27464,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>18113</v>
       </c>
@@ -27514,7 +27514,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>18122</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>18133</v>
       </c>
@@ -27638,7 +27638,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>18142</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>18156</v>
       </c>
@@ -27762,7 +27762,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>18298</v>
       </c>
@@ -27812,7 +27812,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>18299</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>18313</v>
       </c>
@@ -27936,7 +27936,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>18322</v>
       </c>
@@ -27998,7 +27998,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>18434</v>
       </c>
@@ -28060,7 +28060,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>18439</v>
       </c>
@@ -28122,7 +28122,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>18522</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>18571</v>
       </c>
@@ -28246,7 +28246,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>18587</v>
       </c>
@@ -28308,7 +28308,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>18601</v>
       </c>
@@ -28370,7 +28370,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>18611</v>
       </c>
@@ -28432,7 +28432,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>18751</v>
       </c>
@@ -28494,7 +28494,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>18825</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>19301</v>
       </c>
@@ -28618,7 +28618,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>19401</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>19515</v>
       </c>
@@ -28742,7 +28742,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>19614</v>
       </c>
@@ -28804,7 +28804,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>19667</v>
       </c>
@@ -28866,7 +28866,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>19728</v>
       </c>
@@ -28928,7 +28928,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>19920</v>
       </c>
@@ -28990,7 +28990,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>19952</v>
       </c>
@@ -29052,7 +29052,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>19965</v>
       </c>
@@ -29114,7 +29114,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>20014</v>
       </c>
@@ -29176,7 +29176,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>20028</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>20062</v>
       </c>
@@ -29300,7 +29300,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>20064</v>
       </c>
@@ -29362,7 +29362,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>20067</v>
       </c>
@@ -29424,7 +29424,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>20515</v>
       </c>
@@ -29486,7 +29486,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>20522</v>
       </c>
@@ -29536,7 +29536,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>20550</v>
       </c>
@@ -29598,7 +29598,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>20609</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>20677</v>
       </c>
@@ -29722,7 +29722,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>20725</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>20737</v>
       </c>
@@ -29846,7 +29846,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>20739</v>
       </c>
@@ -29908,7 +29908,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>20750</v>
       </c>
@@ -29958,7 +29958,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>20769</v>
       </c>
@@ -30020,7 +30020,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>20772</v>
       </c>
@@ -30082,7 +30082,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>21070</v>
       </c>
@@ -30132,7 +30132,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>21515</v>
       </c>
@@ -30194,7 +30194,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>21576</v>
       </c>
@@ -30256,7 +30256,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>21577</v>
       </c>
@@ -30318,7 +30318,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>21647</v>
       </c>
@@ -30368,7 +30368,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>23396</v>
       </c>
@@ -30430,7 +30430,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>24053</v>
       </c>
@@ -30492,7 +30492,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>24058</v>
       </c>
@@ -30554,7 +30554,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>24059</v>
       </c>
@@ -30616,7 +30616,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>24080</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>24906</v>
       </c>
@@ -30740,7 +30740,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>25487</v>
       </c>
@@ -30802,7 +30802,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>27675</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>27894</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>28322</v>
       </c>
@@ -30991,7 +30991,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>28432</v>
       </c>
@@ -31053,7 +31053,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>28477</v>
       </c>
@@ -31115,7 +31115,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>28820</v>
       </c>
@@ -31177,7 +31177,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>29418</v>
       </c>
@@ -31239,7 +31239,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>29437</v>
       </c>
@@ -31304,7 +31304,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>29452</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>30288</v>
       </c>
@@ -31416,7 +31416,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>33452</v>
       </c>
@@ -31478,7 +31478,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>34104</v>
       </c>
@@ -31530,7 +31530,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>34109</v>
       </c>
@@ -31592,7 +31592,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>34119</v>
       </c>
@@ -31654,7 +31654,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>34123</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>34133</v>
       </c>
@@ -31768,7 +31768,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>34207</v>
       </c>
@@ -31830,7 +31830,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>34281</v>
       </c>
@@ -31892,67 +31892,67 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435"/>
     </row>
   </sheetData>
@@ -32188,29 +32188,29 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7265625" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -32272,7 +32272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1962</v>
       </c>
@@ -32334,7 +32334,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1961</v>
       </c>
@@ -32396,7 +32396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -32418,7 +32418,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1972</v>
       </c>
@@ -32459,7 +32459,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1974</v>
       </c>
@@ -32503,7 +32503,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>1996</v>
       </c>
@@ -32544,7 +32544,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1973</v>
       </c>
@@ -32585,7 +32585,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1963</v>
       </c>
@@ -32626,7 +32626,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1964</v>
       </c>
@@ -32667,7 +32667,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1965</v>
       </c>
@@ -32708,7 +32708,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1966</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1967</v>
       </c>
@@ -32793,7 +32793,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1968</v>
       </c>
@@ -32837,7 +32837,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1969</v>
       </c>
@@ -32878,7 +32878,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1970</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1975</v>
       </c>
@@ -32960,7 +32960,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1976</v>
       </c>
@@ -33001,7 +33001,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>2004</v>
       </c>
@@ -33042,7 +33042,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1977</v>
       </c>
@@ -33083,7 +33083,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1978</v>
       </c>
@@ -33124,7 +33124,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>1979</v>
       </c>
@@ -33165,7 +33165,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1980</v>
       </c>
@@ -33206,7 +33206,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1981</v>
       </c>
@@ -33247,7 +33247,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>1982</v>
       </c>
@@ -33291,7 +33291,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1983</v>
       </c>
@@ -33335,12 +33335,12 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>2000</v>
       </c>
@@ -33384,7 +33384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1984</v>
       </c>
@@ -33428,7 +33428,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>1985</v>
       </c>
@@ -33472,7 +33472,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>1986</v>
       </c>
@@ -33516,7 +33516,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>1987</v>
       </c>
@@ -33560,7 +33560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E35" s="10"/>
     </row>
   </sheetData>
@@ -33589,16 +33589,16 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1920</v>
       </c>
@@ -33642,7 +33642,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -33693,7 +33693,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1744</v>
       </c>
@@ -33744,7 +33744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -33795,7 +33795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1641</v>
       </c>
@@ -33846,7 +33846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1684</v>
       </c>
@@ -33885,7 +33885,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1745</v>
       </c>
@@ -33919,10 +33919,10 @@
       </c>
       <c r="Q7" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1670</v>
       </c>
@@ -33956,7 +33956,7 @@
       </c>
       <c r="Q8" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>1905</v>
@@ -33966,7 +33966,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1725</v>
       </c>
@@ -33982,7 +33982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -34005,14 +34005,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1746</v>
       </c>
@@ -34034,7 +34034,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>1654</v>
       </c>
@@ -34051,7 +34051,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D14" s="16" t="s">
         <v>1683</v>
       </c>
@@ -34060,7 +34060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>1741</v>
       </c>
@@ -34072,12 +34072,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1743</v>
       </c>
@@ -34089,7 +34089,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34109,29 +34109,29 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7265625" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -34193,7 +34193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>27669</v>
       </c>
@@ -34234,7 +34234,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5580</v>
       </c>
@@ -34275,7 +34275,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC494D6-4D70-4867-8A38-0B695F2272A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDACED6-FBC6-40C3-8713-95D6858F43F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11630" activeTab="3" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$413</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6856,39 +6856,39 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U434"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C381" sqref="A1:U434"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.26953125" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>215</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>217</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>227</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>326</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>329</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>360</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>387</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>395</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>426</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>452</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>539</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>543</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>554</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>578</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>673</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>678</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1162</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1173</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1193</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1727</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1747</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1759</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1799</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1867</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1986</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2089</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2126</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2131</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2149</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2150</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2152</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2157</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2517</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2536</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2552</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2743</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3039</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3162</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3173</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3193</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3194</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3196</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3202</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3222</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>1681</v>
       </c>
       <c r="M46" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="O46" t="s">
         <v>23</v>
@@ -9733,7 +9733,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3228</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3250</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3317</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3323</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3327</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3358</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3361</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3677</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3779</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3864</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3984</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5121</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5150</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5228</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5236</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5258</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5268</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5298</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5328</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5372</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5387</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5487</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5527</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5530</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5533</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5546</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5557</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5558</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5562</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5576</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5581</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5621</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5622</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5639</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5647</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5656</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5660</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5706</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5711</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5714</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5734</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5739</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5762</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5768</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5773</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5781</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5786</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5795</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5803</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5804</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5814</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5815</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5818</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5820</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5822</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5824</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5825</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5854</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5856</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5864</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5895</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5923</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5929</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5936</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5937</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5941</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5947</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5949</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5950</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5971</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6014</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6017</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6024</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6025</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6055</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6075</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6080</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6081</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6083</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6178</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6198</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6213</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6292</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6301</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6307</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6321</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6331</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6337</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6347</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6356</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6383</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6391</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6396</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6397</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6416</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6447</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6460</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6481</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6492</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6519</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6541</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6544</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6545</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6546</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6552</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6557</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6561</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6574</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6585</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6592</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6600</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6643</v>
       </c>
@@ -16475,7 +16475,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6650</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6652</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6660</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6662</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6670</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6682</v>
       </c>
@@ -16829,7 +16829,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6677</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6681</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6695</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6699</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6701</v>
       </c>
@@ -17091,7 +17091,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6714</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6707</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6716</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6720</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6724</v>
       </c>
@@ -17380,7 +17380,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6734</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6744</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6739</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6741</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>6751</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>6754</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>6755</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>6757</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>6767</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>6775</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>6777</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>6832</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>6847</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>6855</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>6862</v>
       </c>
@@ -18216,7 +18216,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>6873</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>6879</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>6887</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>6896</v>
       </c>
@@ -18464,7 +18464,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>6897</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>6914</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6934</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>6935</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>6986</v>
       </c>
@@ -18774,7 +18774,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>7003</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>7010</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>7016</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>7056</v>
       </c>
@@ -19025,7 +19025,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>7071</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>7077</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>7083</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7087</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7096</v>
       </c>
@@ -19335,7 +19335,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7117</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>7136</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>7176</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>7211</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>7240</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>7243</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>7267</v>
       </c>
@@ -19769,7 +19769,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>7271</v>
       </c>
@@ -19831,7 +19831,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>7294</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>7309</v>
       </c>
@@ -19955,7 +19955,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>7313</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>7353</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>7356</v>
       </c>
@@ -20119,7 +20119,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>7368</v>
       </c>
@@ -20181,7 +20181,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>7513</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>7533</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>7587</v>
       </c>
@@ -20367,7 +20367,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>7592</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>7676</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>7677</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>7736</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>7804</v>
       </c>
@@ -20667,7 +20667,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>7810</v>
       </c>
@@ -20729,7 +20729,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>7822</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>7823</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>7835</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8021</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>8026</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>8044</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>8052</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>8729</v>
       </c>
@@ -21225,7 +21225,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>8730</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>8737</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>9277</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>9360</v>
       </c>
@@ -21473,7 +21473,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>9363</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9460</v>
       </c>
@@ -21585,7 +21585,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>9461</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>9513</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>9517</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>9715</v>
       </c>
@@ -21833,7 +21833,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>9755</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>11330</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>11387</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>11391</v>
       </c>
@@ -22081,7 +22081,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>11396</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>11417</v>
       </c>
@@ -22205,7 +22205,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>11457</v>
       </c>
@@ -22255,7 +22255,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>11463</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>11467</v>
       </c>
@@ -22379,7 +22379,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>11475</v>
       </c>
@@ -22444,7 +22444,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>11478</v>
       </c>
@@ -22506,7 +22506,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>11482</v>
       </c>
@@ -22571,7 +22571,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>11486</v>
       </c>
@@ -22633,7 +22633,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>11502</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>11512</v>
       </c>
@@ -22747,7 +22747,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>11557</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>11574</v>
       </c>
@@ -22859,7 +22859,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>11730</v>
       </c>
@@ -22921,7 +22921,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>11733</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>11762</v>
       </c>
@@ -23033,7 +23033,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>11773</v>
       </c>
@@ -23083,7 +23083,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>11779</v>
       </c>
@@ -23145,7 +23145,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>11792</v>
       </c>
@@ -23210,7 +23210,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>11798</v>
       </c>
@@ -23262,7 +23262,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>11810</v>
       </c>
@@ -23314,7 +23314,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>11909</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>11910</v>
       </c>
@@ -23438,7 +23438,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>11934</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>11965</v>
       </c>
@@ -23562,7 +23562,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>12631</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>16636</v>
       </c>
@@ -23686,7 +23686,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>16656</v>
       </c>
@@ -23748,7 +23748,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>16657</v>
       </c>
@@ -23810,7 +23810,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>16676</v>
       </c>
@@ -23872,7 +23872,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>16686</v>
       </c>
@@ -23934,7 +23934,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>16687</v>
       </c>
@@ -23984,7 +23984,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>16754</v>
       </c>
@@ -24046,7 +24046,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>16762</v>
       </c>
@@ -24108,7 +24108,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>16774</v>
       </c>
@@ -24170,7 +24170,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>16793</v>
       </c>
@@ -24232,7 +24232,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>16828</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>16877</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>16878</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>16890</v>
       </c>
@@ -24468,7 +24468,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>16898</v>
       </c>
@@ -24530,7 +24530,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>16899</v>
       </c>
@@ -24592,7 +24592,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>16945</v>
       </c>
@@ -24654,7 +24654,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>16946</v>
       </c>
@@ -24716,7 +24716,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>16951</v>
       </c>
@@ -24778,7 +24778,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>16952</v>
       </c>
@@ -24840,7 +24840,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>16965</v>
       </c>
@@ -24902,7 +24902,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>16981</v>
       </c>
@@ -24964,7 +24964,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>17041</v>
       </c>
@@ -25014,7 +25014,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>17092</v>
       </c>
@@ -25076,7 +25076,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>17168</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>17191</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>17197</v>
       </c>
@@ -25262,7 +25262,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>17206</v>
       </c>
@@ -25324,7 +25324,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>17212</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>17216</v>
       </c>
@@ -25448,7 +25448,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>17218</v>
       </c>
@@ -25498,7 +25498,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>17224</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>17261</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>17262</v>
       </c>
@@ -25684,7 +25684,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>17264</v>
       </c>
@@ -25746,7 +25746,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>17293</v>
       </c>
@@ -25808,7 +25808,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>17308</v>
       </c>
@@ -25870,7 +25870,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>17316</v>
       </c>
@@ -25932,7 +25932,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>17354</v>
       </c>
@@ -25994,7 +25994,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>17358</v>
       </c>
@@ -26056,7 +26056,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>17397</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>17421</v>
       </c>
@@ -26180,7 +26180,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>17447</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>17458</v>
       </c>
@@ -26304,7 +26304,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>17473</v>
       </c>
@@ -26366,7 +26366,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>17480</v>
       </c>
@@ -26431,7 +26431,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>17485</v>
       </c>
@@ -26493,7 +26493,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>17491</v>
       </c>
@@ -26555,7 +26555,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>17501</v>
       </c>
@@ -26607,7 +26607,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>17510</v>
       </c>
@@ -26669,7 +26669,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>17536</v>
       </c>
@@ -26731,7 +26731,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>17555</v>
       </c>
@@ -26793,7 +26793,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>17559</v>
       </c>
@@ -26855,7 +26855,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>17583</v>
       </c>
@@ -26917,7 +26917,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>17599</v>
       </c>
@@ -26979,7 +26979,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>17680</v>
       </c>
@@ -27041,7 +27041,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>17692</v>
       </c>
@@ -27103,7 +27103,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>18088</v>
       </c>
@@ -27165,7 +27165,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>18099</v>
       </c>
@@ -27227,7 +27227,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>18100</v>
       </c>
@@ -27289,7 +27289,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>18102</v>
       </c>
@@ -27351,7 +27351,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>18110</v>
       </c>
@@ -27413,7 +27413,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>18113</v>
       </c>
@@ -27463,7 +27463,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>18122</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>18133</v>
       </c>
@@ -27587,7 +27587,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>18142</v>
       </c>
@@ -27649,7 +27649,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>18156</v>
       </c>
@@ -27711,7 +27711,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>18298</v>
       </c>
@@ -27761,7 +27761,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>18299</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>18313</v>
       </c>
@@ -27885,7 +27885,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>18322</v>
       </c>
@@ -27947,7 +27947,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>18434</v>
       </c>
@@ -28009,7 +28009,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>18439</v>
       </c>
@@ -28071,7 +28071,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>18522</v>
       </c>
@@ -28133,7 +28133,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>18571</v>
       </c>
@@ -28195,7 +28195,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>18587</v>
       </c>
@@ -28257,7 +28257,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>18601</v>
       </c>
@@ -28319,7 +28319,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>18611</v>
       </c>
@@ -28381,7 +28381,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>18751</v>
       </c>
@@ -28443,7 +28443,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>18825</v>
       </c>
@@ -28505,7 +28505,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>19301</v>
       </c>
@@ -28567,7 +28567,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>19401</v>
       </c>
@@ -28629,7 +28629,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>19515</v>
       </c>
@@ -28691,7 +28691,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>19614</v>
       </c>
@@ -28753,7 +28753,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>19667</v>
       </c>
@@ -28815,7 +28815,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>19728</v>
       </c>
@@ -28877,7 +28877,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>19920</v>
       </c>
@@ -28939,7 +28939,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>19952</v>
       </c>
@@ -29001,7 +29001,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>19965</v>
       </c>
@@ -29063,7 +29063,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>20014</v>
       </c>
@@ -29125,7 +29125,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>20028</v>
       </c>
@@ -29187,7 +29187,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>20062</v>
       </c>
@@ -29249,7 +29249,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>20064</v>
       </c>
@@ -29311,7 +29311,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>20067</v>
       </c>
@@ -29373,7 +29373,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>20515</v>
       </c>
@@ -29435,7 +29435,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>20522</v>
       </c>
@@ -29485,7 +29485,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>20550</v>
       </c>
@@ -29547,7 +29547,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>20609</v>
       </c>
@@ -29609,7 +29609,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>20677</v>
       </c>
@@ -29671,7 +29671,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>20725</v>
       </c>
@@ -29733,7 +29733,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>20737</v>
       </c>
@@ -29795,7 +29795,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>20739</v>
       </c>
@@ -29857,7 +29857,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>20750</v>
       </c>
@@ -29907,7 +29907,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>20769</v>
       </c>
@@ -29969,7 +29969,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>20772</v>
       </c>
@@ -30031,7 +30031,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>21070</v>
       </c>
@@ -30081,7 +30081,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>21515</v>
       </c>
@@ -30143,7 +30143,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>21576</v>
       </c>
@@ -30205,7 +30205,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>21577</v>
       </c>
@@ -30267,7 +30267,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>21647</v>
       </c>
@@ -30317,7 +30317,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>23396</v>
       </c>
@@ -30379,7 +30379,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>24053</v>
       </c>
@@ -30441,7 +30441,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>24058</v>
       </c>
@@ -30503,7 +30503,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>24059</v>
       </c>
@@ -30565,7 +30565,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>24080</v>
       </c>
@@ -30627,7 +30627,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>24906</v>
       </c>
@@ -30689,7 +30689,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>25487</v>
       </c>
@@ -30751,7 +30751,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>27675</v>
       </c>
@@ -30813,7 +30813,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>27894</v>
       </c>
@@ -30875,7 +30875,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>28322</v>
       </c>
@@ -30940,7 +30940,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>28432</v>
       </c>
@@ -31002,7 +31002,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>28477</v>
       </c>
@@ -31064,7 +31064,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>28820</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>29418</v>
       </c>
@@ -31188,7 +31188,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>29437</v>
       </c>
@@ -31253,7 +31253,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>29452</v>
       </c>
@@ -31315,7 +31315,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>30288</v>
       </c>
@@ -31365,7 +31365,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>33452</v>
       </c>
@@ -31427,7 +31427,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>34104</v>
       </c>
@@ -31479,7 +31479,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>34109</v>
       </c>
@@ -31541,7 +31541,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>34119</v>
       </c>
@@ -31603,7 +31603,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>34123</v>
       </c>
@@ -31665,7 +31665,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>34133</v>
       </c>
@@ -31717,7 +31717,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>34207</v>
       </c>
@@ -31779,7 +31779,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>34281</v>
       </c>
@@ -31841,67 +31841,67 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434"/>
     </row>
   </sheetData>
@@ -32143,29 +32143,29 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7265625" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -32227,7 +32227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1961</v>
       </c>
@@ -32289,7 +32289,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1960</v>
       </c>
@@ -32351,7 +32351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -32373,7 +32373,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1971</v>
       </c>
@@ -32414,7 +32414,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1973</v>
       </c>
@@ -32458,7 +32458,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>1995</v>
       </c>
@@ -32499,7 +32499,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1972</v>
       </c>
@@ -32540,7 +32540,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1962</v>
       </c>
@@ -32581,7 +32581,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1963</v>
       </c>
@@ -32622,7 +32622,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1964</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1965</v>
       </c>
@@ -32704,7 +32704,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1966</v>
       </c>
@@ -32748,7 +32748,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1967</v>
       </c>
@@ -32792,7 +32792,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1968</v>
       </c>
@@ -32833,7 +32833,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1969</v>
       </c>
@@ -32874,7 +32874,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1974</v>
       </c>
@@ -32915,7 +32915,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1975</v>
       </c>
@@ -32956,7 +32956,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>2003</v>
       </c>
@@ -32997,7 +32997,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1976</v>
       </c>
@@ -33038,7 +33038,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1977</v>
       </c>
@@ -33079,7 +33079,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>1978</v>
       </c>
@@ -33120,7 +33120,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1979</v>
       </c>
@@ -33161,7 +33161,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1980</v>
       </c>
@@ -33202,7 +33202,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>1981</v>
       </c>
@@ -33246,7 +33246,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1982</v>
       </c>
@@ -33290,12 +33290,12 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>1999</v>
       </c>
@@ -33339,7 +33339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1983</v>
       </c>
@@ -33383,7 +33383,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>1984</v>
       </c>
@@ -33427,7 +33427,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>1985</v>
       </c>
@@ -33471,7 +33471,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>1986</v>
       </c>
@@ -33515,7 +33515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E35" s="10"/>
     </row>
   </sheetData>
@@ -33544,16 +33544,16 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1919</v>
       </c>
@@ -33597,7 +33597,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -33648,7 +33648,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1743</v>
       </c>
@@ -33699,7 +33699,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -33750,7 +33750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1640</v>
       </c>
@@ -33801,7 +33801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1683</v>
       </c>
@@ -33840,7 +33840,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1744</v>
       </c>
@@ -33877,7 +33877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1669</v>
       </c>
@@ -33921,7 +33921,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1724</v>
       </c>
@@ -33937,7 +33937,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -33960,14 +33960,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>1745</v>
       </c>
@@ -33989,7 +33989,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>1653</v>
       </c>
@@ -34006,7 +34006,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D14" s="16" t="s">
         <v>1682</v>
       </c>
@@ -34015,7 +34015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>1740</v>
       </c>
@@ -34027,12 +34027,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1742</v>
       </c>
@@ -34044,7 +34044,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34060,33 +34060,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04E6990-0DE1-4FFF-9BE3-82E036D7135B}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7265625" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -34148,7 +34148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>27669</v>
       </c>
@@ -34189,7 +34189,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5580</v>
       </c>
@@ -34230,7 +34230,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2127</v>
       </c>
@@ -34282,7 +34282,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDACED6-FBC6-40C3-8713-95D6858F43F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD06324A-D661-40F9-BEF2-E1219500F163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$413</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,7 +241,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6857,8 +6857,8 @@
   <dimension ref="A1:U434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M132" sqref="M132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14844,7 +14844,7 @@
         <v>1681</v>
       </c>
       <c r="M131" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="O131" t="s">
         <v>23</v>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD06324A-D661-40F9-BEF2-E1219500F163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5C50EF-6BF2-44A0-A508-5671038F153D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$413</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,6 +39,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -241,7 +242,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6856,39 +6857,39 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U434"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M132" sqref="M132"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.26953125" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>215</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>217</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>227</v>
       </c>
@@ -7148,7 +7149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>326</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>329</v>
       </c>
@@ -7272,7 +7273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>360</v>
       </c>
@@ -7334,7 +7335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>387</v>
       </c>
@@ -7396,7 +7397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>395</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>426</v>
       </c>
@@ -7520,7 +7521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>452</v>
       </c>
@@ -7582,7 +7583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>539</v>
       </c>
@@ -7644,7 +7645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>543</v>
       </c>
@@ -7706,7 +7707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>554</v>
       </c>
@@ -7768,7 +7769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>578</v>
       </c>
@@ -7830,7 +7831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>673</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>678</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1162</v>
       </c>
@@ -8016,7 +8017,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1173</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1193</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1727</v>
       </c>
@@ -8190,7 +8191,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1747</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1759</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1799</v>
       </c>
@@ -8376,7 +8377,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1867</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1986</v>
       </c>
@@ -8500,7 +8501,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2089</v>
       </c>
@@ -8624,7 +8625,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2126</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2131</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>1681</v>
       </c>
       <c r="M30" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="O30" t="s">
         <v>23</v>
@@ -8748,7 +8749,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2149</v>
       </c>
@@ -8810,7 +8811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2150</v>
       </c>
@@ -8875,7 +8876,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2152</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2157</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2517</v>
       </c>
@@ -9061,7 +9062,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2536</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2552</v>
       </c>
@@ -9185,7 +9186,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2743</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>3039</v>
       </c>
@@ -9309,7 +9310,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3162</v>
       </c>
@@ -9371,7 +9372,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3173</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>3193</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3194</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3196</v>
       </c>
@@ -9609,7 +9610,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>3202</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>3222</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>3228</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>3250</v>
       </c>
@@ -9857,7 +9858,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3317</v>
       </c>
@@ -9919,7 +9920,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3323</v>
       </c>
@@ -9981,7 +9982,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3327</v>
       </c>
@@ -10043,7 +10044,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3358</v>
       </c>
@@ -10095,7 +10096,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3361</v>
       </c>
@@ -10157,7 +10158,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3677</v>
       </c>
@@ -10219,7 +10220,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>3779</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>3864</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>3984</v>
       </c>
@@ -10390,7 +10391,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5121</v>
       </c>
@@ -10452,7 +10453,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5150</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>5228</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>5236</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5258</v>
       </c>
@@ -10688,7 +10689,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5268</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5298</v>
       </c>
@@ -10812,7 +10813,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>5328</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>5372</v>
       </c>
@@ -10936,7 +10937,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>5387</v>
       </c>
@@ -10998,7 +10999,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>5487</v>
       </c>
@@ -11060,7 +11061,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>5527</v>
       </c>
@@ -11122,7 +11123,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>5530</v>
       </c>
@@ -11184,7 +11185,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>5533</v>
       </c>
@@ -11246,7 +11247,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>5546</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>5557</v>
       </c>
@@ -11370,7 +11371,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>5558</v>
       </c>
@@ -11432,7 +11433,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>5562</v>
       </c>
@@ -11497,7 +11498,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>5576</v>
       </c>
@@ -11559,7 +11560,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>5581</v>
       </c>
@@ -11621,7 +11622,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>5621</v>
       </c>
@@ -11671,7 +11672,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>5622</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>5639</v>
       </c>
@@ -11795,7 +11796,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>5647</v>
       </c>
@@ -11857,7 +11858,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>5656</v>
       </c>
@@ -11919,7 +11920,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>5660</v>
       </c>
@@ -11981,7 +11982,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>5706</v>
       </c>
@@ -12046,7 +12047,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>5711</v>
       </c>
@@ -12108,7 +12109,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>5714</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>5734</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>5739</v>
       </c>
@@ -12294,7 +12295,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>5762</v>
       </c>
@@ -12356,7 +12357,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>5768</v>
       </c>
@@ -12406,7 +12407,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>5773</v>
       </c>
@@ -12468,7 +12469,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>5781</v>
       </c>
@@ -12530,7 +12531,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>5786</v>
       </c>
@@ -12592,7 +12593,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>5795</v>
       </c>
@@ -12654,7 +12655,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>5803</v>
       </c>
@@ -12716,7 +12717,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>5804</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>5814</v>
       </c>
@@ -12840,7 +12841,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>5815</v>
       </c>
@@ -12902,7 +12903,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>5818</v>
       </c>
@@ -12964,7 +12965,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>5820</v>
       </c>
@@ -13026,7 +13027,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>5822</v>
       </c>
@@ -13088,7 +13089,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>5824</v>
       </c>
@@ -13150,7 +13151,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>5825</v>
       </c>
@@ -13212,7 +13213,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>5854</v>
       </c>
@@ -13274,7 +13275,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>5856</v>
       </c>
@@ -13336,7 +13337,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>5864</v>
       </c>
@@ -13398,7 +13399,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>5895</v>
       </c>
@@ -13460,7 +13461,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>5923</v>
       </c>
@@ -13522,7 +13523,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>5929</v>
       </c>
@@ -13584,7 +13585,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>5936</v>
       </c>
@@ -13646,7 +13647,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>5937</v>
       </c>
@@ -13696,7 +13697,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>5941</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>5947</v>
       </c>
@@ -13808,7 +13809,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>5949</v>
       </c>
@@ -13870,7 +13871,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>5950</v>
       </c>
@@ -13932,7 +13933,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>5971</v>
       </c>
@@ -13994,7 +13995,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>6014</v>
       </c>
@@ -14056,7 +14057,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>6017</v>
       </c>
@@ -14118,7 +14119,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>6024</v>
       </c>
@@ -14180,7 +14181,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>6025</v>
       </c>
@@ -14232,7 +14233,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>6055</v>
       </c>
@@ -14282,7 +14283,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>6075</v>
       </c>
@@ -14334,7 +14335,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>6080</v>
       </c>
@@ -14396,7 +14397,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>6081</v>
       </c>
@@ -14458,7 +14459,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>6083</v>
       </c>
@@ -14508,7 +14509,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>6178</v>
       </c>
@@ -14570,7 +14571,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>6198</v>
       </c>
@@ -14632,7 +14633,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>6213</v>
       </c>
@@ -14682,7 +14683,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>6292</v>
       </c>
@@ -14744,7 +14745,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>6301</v>
       </c>
@@ -14806,7 +14807,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>6307</v>
       </c>
@@ -14868,7 +14869,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>6321</v>
       </c>
@@ -14933,7 +14934,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>6331</v>
       </c>
@@ -14998,7 +14999,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>6337</v>
       </c>
@@ -15060,7 +15061,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>6347</v>
       </c>
@@ -15122,7 +15123,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>6356</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>6383</v>
       </c>
@@ -15246,7 +15247,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>6391</v>
       </c>
@@ -15308,7 +15309,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>6396</v>
       </c>
@@ -15370,7 +15371,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>6397</v>
       </c>
@@ -15432,7 +15433,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>6416</v>
       </c>
@@ -15494,7 +15495,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>6447</v>
       </c>
@@ -15556,7 +15557,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>6460</v>
       </c>
@@ -15618,7 +15619,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>6481</v>
       </c>
@@ -15683,7 +15684,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>6492</v>
       </c>
@@ -15748,7 +15749,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>6519</v>
       </c>
@@ -15813,7 +15814,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>6541</v>
       </c>
@@ -15863,7 +15864,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>6544</v>
       </c>
@@ -15928,7 +15929,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>6545</v>
       </c>
@@ -15978,7 +15979,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>6546</v>
       </c>
@@ -16043,7 +16044,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>6552</v>
       </c>
@@ -16093,7 +16094,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>6557</v>
       </c>
@@ -16145,7 +16146,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>6561</v>
       </c>
@@ -16197,7 +16198,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>6574</v>
       </c>
@@ -16259,7 +16260,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>6585</v>
       </c>
@@ -16311,7 +16312,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>6592</v>
       </c>
@@ -16363,7 +16364,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>6600</v>
       </c>
@@ -16425,7 +16426,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>6643</v>
       </c>
@@ -16475,7 +16476,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>6650</v>
       </c>
@@ -16540,7 +16541,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>6652</v>
       </c>
@@ -16590,7 +16591,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>6660</v>
       </c>
@@ -16652,7 +16653,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>6662</v>
       </c>
@@ -16702,7 +16703,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>6670</v>
       </c>
@@ -16764,7 +16765,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>6682</v>
       </c>
@@ -16829,7 +16830,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>6677</v>
       </c>
@@ -16879,7 +16880,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>6681</v>
       </c>
@@ -16929,7 +16930,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>6695</v>
       </c>
@@ -16979,7 +16980,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>6699</v>
       </c>
@@ -17041,7 +17042,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>6701</v>
       </c>
@@ -17091,7 +17092,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>6714</v>
       </c>
@@ -17153,7 +17154,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>6707</v>
       </c>
@@ -17203,7 +17204,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>6716</v>
       </c>
@@ -17268,7 +17269,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>6720</v>
       </c>
@@ -17330,7 +17331,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>6724</v>
       </c>
@@ -17380,7 +17381,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>6734</v>
       </c>
@@ -17442,7 +17443,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>6744</v>
       </c>
@@ -17494,7 +17495,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>6739</v>
       </c>
@@ -17546,7 +17547,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>6741</v>
       </c>
@@ -17598,7 +17599,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>6751</v>
       </c>
@@ -17650,7 +17651,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>6754</v>
       </c>
@@ -17712,7 +17713,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>6755</v>
       </c>
@@ -17764,7 +17765,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>6757</v>
       </c>
@@ -17826,7 +17827,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>6767</v>
       </c>
@@ -17888,7 +17889,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>6775</v>
       </c>
@@ -17938,7 +17939,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>6777</v>
       </c>
@@ -17990,7 +17991,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>6832</v>
       </c>
@@ -18052,7 +18053,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>6847</v>
       </c>
@@ -18114,7 +18115,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>6855</v>
       </c>
@@ -18166,7 +18167,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>6862</v>
       </c>
@@ -18216,7 +18217,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>6873</v>
       </c>
@@ -18278,7 +18279,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>6879</v>
       </c>
@@ -18340,7 +18341,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>6887</v>
       </c>
@@ -18402,7 +18403,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>6896</v>
       </c>
@@ -18464,7 +18465,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>6897</v>
       </c>
@@ -18526,7 +18527,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>6914</v>
       </c>
@@ -18588,7 +18589,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>6934</v>
       </c>
@@ -18650,7 +18651,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>6935</v>
       </c>
@@ -18712,7 +18713,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>6986</v>
       </c>
@@ -18774,7 +18775,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>7003</v>
       </c>
@@ -18839,7 +18840,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>7010</v>
       </c>
@@ -18901,7 +18902,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>7016</v>
       </c>
@@ -18963,7 +18964,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>7056</v>
       </c>
@@ -19025,7 +19026,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>7071</v>
       </c>
@@ -19087,7 +19088,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>7077</v>
       </c>
@@ -19149,7 +19150,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>7083</v>
       </c>
@@ -19211,7 +19212,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>7087</v>
       </c>
@@ -19273,7 +19274,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>7096</v>
       </c>
@@ -19335,7 +19336,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>7117</v>
       </c>
@@ -19397,7 +19398,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>7136</v>
       </c>
@@ -19459,7 +19460,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>7176</v>
       </c>
@@ -19521,7 +19522,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>7211</v>
       </c>
@@ -19583,7 +19584,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>7240</v>
       </c>
@@ -19645,7 +19646,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>7243</v>
       </c>
@@ -19707,7 +19708,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>7267</v>
       </c>
@@ -19769,7 +19770,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>7271</v>
       </c>
@@ -19831,7 +19832,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>7294</v>
       </c>
@@ -19893,7 +19894,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>7309</v>
       </c>
@@ -19955,7 +19956,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>7313</v>
       </c>
@@ -20007,7 +20008,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>7353</v>
       </c>
@@ -20057,7 +20058,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>7356</v>
       </c>
@@ -20119,7 +20120,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>7368</v>
       </c>
@@ -20181,7 +20182,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>7513</v>
       </c>
@@ -20243,7 +20244,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>7533</v>
       </c>
@@ -20305,7 +20306,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>7587</v>
       </c>
@@ -20367,7 +20368,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>7592</v>
       </c>
@@ -20429,7 +20430,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>7676</v>
       </c>
@@ -20491,7 +20492,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>7677</v>
       </c>
@@ -20553,7 +20554,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>7736</v>
       </c>
@@ -20615,7 +20616,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>7804</v>
       </c>
@@ -20667,7 +20668,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>7810</v>
       </c>
@@ -20729,7 +20730,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>7822</v>
       </c>
@@ -20791,7 +20792,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>7823</v>
       </c>
@@ -20853,7 +20854,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>7835</v>
       </c>
@@ -20915,7 +20916,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>8021</v>
       </c>
@@ -20977,7 +20978,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>8026</v>
       </c>
@@ -21039,7 +21040,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>8044</v>
       </c>
@@ -21101,7 +21102,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>8052</v>
       </c>
@@ -21163,7 +21164,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>8729</v>
       </c>
@@ -21225,7 +21226,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>8730</v>
       </c>
@@ -21287,7 +21288,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>8737</v>
       </c>
@@ -21349,7 +21350,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>9277</v>
       </c>
@@ -21411,7 +21412,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>9360</v>
       </c>
@@ -21473,7 +21474,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>9363</v>
       </c>
@@ -21523,7 +21524,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>9460</v>
       </c>
@@ -21585,7 +21586,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>9461</v>
       </c>
@@ -21647,7 +21648,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>9513</v>
       </c>
@@ -21709,7 +21710,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>9517</v>
       </c>
@@ -21771,7 +21772,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>9715</v>
       </c>
@@ -21833,7 +21834,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>9755</v>
       </c>
@@ -21895,7 +21896,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>11330</v>
       </c>
@@ -21957,7 +21958,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>11387</v>
       </c>
@@ -22019,7 +22020,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>11391</v>
       </c>
@@ -22081,7 +22082,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>11396</v>
       </c>
@@ -22143,7 +22144,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>11417</v>
       </c>
@@ -22205,7 +22206,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>11457</v>
       </c>
@@ -22255,7 +22256,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>11463</v>
       </c>
@@ -22317,7 +22318,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>11467</v>
       </c>
@@ -22379,7 +22380,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>11475</v>
       </c>
@@ -22444,7 +22445,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>11478</v>
       </c>
@@ -22506,7 +22507,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>11482</v>
       </c>
@@ -22571,7 +22572,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>11486</v>
       </c>
@@ -22633,7 +22634,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>11502</v>
       </c>
@@ -22695,7 +22696,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>11512</v>
       </c>
@@ -22747,7 +22748,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>11557</v>
       </c>
@@ -22809,7 +22810,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>11574</v>
       </c>
@@ -22859,7 +22860,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>11730</v>
       </c>
@@ -22921,7 +22922,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>11733</v>
       </c>
@@ -22971,7 +22972,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>11762</v>
       </c>
@@ -23033,7 +23034,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>11773</v>
       </c>
@@ -23083,7 +23084,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>11779</v>
       </c>
@@ -23145,7 +23146,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>11792</v>
       </c>
@@ -23210,7 +23211,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>11798</v>
       </c>
@@ -23262,7 +23263,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>11810</v>
       </c>
@@ -23314,7 +23315,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>11909</v>
       </c>
@@ -23376,7 +23377,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>11910</v>
       </c>
@@ -23438,7 +23439,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>11934</v>
       </c>
@@ -23500,7 +23501,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>11965</v>
       </c>
@@ -23562,7 +23563,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>12631</v>
       </c>
@@ -23624,7 +23625,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>16636</v>
       </c>
@@ -23686,7 +23687,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>16656</v>
       </c>
@@ -23748,7 +23749,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>16657</v>
       </c>
@@ -23810,7 +23811,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>16676</v>
       </c>
@@ -23872,7 +23873,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>16686</v>
       </c>
@@ -23934,7 +23935,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>16687</v>
       </c>
@@ -23984,7 +23985,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>16754</v>
       </c>
@@ -24046,7 +24047,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>16762</v>
       </c>
@@ -24108,7 +24109,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>16774</v>
       </c>
@@ -24170,7 +24171,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>16793</v>
       </c>
@@ -24232,7 +24233,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>16828</v>
       </c>
@@ -24294,7 +24295,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>16877</v>
       </c>
@@ -24356,7 +24357,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>16878</v>
       </c>
@@ -24418,7 +24419,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>16890</v>
       </c>
@@ -24468,7 +24469,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>16898</v>
       </c>
@@ -24530,7 +24531,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>16899</v>
       </c>
@@ -24592,7 +24593,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>16945</v>
       </c>
@@ -24654,7 +24655,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>16946</v>
       </c>
@@ -24716,7 +24717,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>16951</v>
       </c>
@@ -24778,7 +24779,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>16952</v>
       </c>
@@ -24840,7 +24841,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>16965</v>
       </c>
@@ -24902,7 +24903,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>16981</v>
       </c>
@@ -24964,7 +24965,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>17041</v>
       </c>
@@ -25014,7 +25015,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>17092</v>
       </c>
@@ -25076,7 +25077,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>17168</v>
       </c>
@@ -25138,7 +25139,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>17191</v>
       </c>
@@ -25200,7 +25201,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>17197</v>
       </c>
@@ -25262,7 +25263,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>17206</v>
       </c>
@@ -25324,7 +25325,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>17212</v>
       </c>
@@ -25386,7 +25387,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>17216</v>
       </c>
@@ -25448,7 +25449,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>17218</v>
       </c>
@@ -25498,7 +25499,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>17224</v>
       </c>
@@ -25560,7 +25561,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>17261</v>
       </c>
@@ -25622,7 +25623,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>17262</v>
       </c>
@@ -25684,7 +25685,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>17264</v>
       </c>
@@ -25746,7 +25747,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>17293</v>
       </c>
@@ -25808,7 +25809,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>17308</v>
       </c>
@@ -25870,7 +25871,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>17316</v>
       </c>
@@ -25932,7 +25933,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>17354</v>
       </c>
@@ -25994,7 +25995,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>17358</v>
       </c>
@@ -26056,7 +26057,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>17397</v>
       </c>
@@ -26118,7 +26119,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>17421</v>
       </c>
@@ -26180,7 +26181,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>17447</v>
       </c>
@@ -26242,7 +26243,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>17458</v>
       </c>
@@ -26304,7 +26305,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>17473</v>
       </c>
@@ -26366,7 +26367,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>17480</v>
       </c>
@@ -26431,7 +26432,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>17485</v>
       </c>
@@ -26493,7 +26494,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>17491</v>
       </c>
@@ -26555,7 +26556,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>17501</v>
       </c>
@@ -26607,7 +26608,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>17510</v>
       </c>
@@ -26669,7 +26670,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>17536</v>
       </c>
@@ -26731,7 +26732,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>17555</v>
       </c>
@@ -26793,7 +26794,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>17559</v>
       </c>
@@ -26855,7 +26856,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>17583</v>
       </c>
@@ -26917,7 +26918,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>17599</v>
       </c>
@@ -26979,7 +26980,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>17680</v>
       </c>
@@ -27041,7 +27042,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>17692</v>
       </c>
@@ -27103,7 +27104,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>18088</v>
       </c>
@@ -27165,7 +27166,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>18099</v>
       </c>
@@ -27227,7 +27228,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>18100</v>
       </c>
@@ -27289,7 +27290,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>18102</v>
       </c>
@@ -27351,7 +27352,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>18110</v>
       </c>
@@ -27413,7 +27414,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>18113</v>
       </c>
@@ -27463,7 +27464,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>18122</v>
       </c>
@@ -27525,7 +27526,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>18133</v>
       </c>
@@ -27587,7 +27588,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>18142</v>
       </c>
@@ -27649,7 +27650,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>18156</v>
       </c>
@@ -27711,7 +27712,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>18298</v>
       </c>
@@ -27761,7 +27762,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>18299</v>
       </c>
@@ -27823,7 +27824,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>18313</v>
       </c>
@@ -27885,7 +27886,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>18322</v>
       </c>
@@ -27947,7 +27948,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>18434</v>
       </c>
@@ -28009,7 +28010,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>18439</v>
       </c>
@@ -28071,7 +28072,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>18522</v>
       </c>
@@ -28133,7 +28134,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>18571</v>
       </c>
@@ -28195,7 +28196,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>18587</v>
       </c>
@@ -28257,7 +28258,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>18601</v>
       </c>
@@ -28319,7 +28320,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>18611</v>
       </c>
@@ -28381,7 +28382,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>18751</v>
       </c>
@@ -28443,7 +28444,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>18825</v>
       </c>
@@ -28505,7 +28506,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>19301</v>
       </c>
@@ -28567,7 +28568,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>19401</v>
       </c>
@@ -28629,7 +28630,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>19515</v>
       </c>
@@ -28691,7 +28692,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>19614</v>
       </c>
@@ -28753,7 +28754,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>19667</v>
       </c>
@@ -28815,7 +28816,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>19728</v>
       </c>
@@ -28877,7 +28878,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>19920</v>
       </c>
@@ -28939,7 +28940,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>19952</v>
       </c>
@@ -29001,7 +29002,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>19965</v>
       </c>
@@ -29063,7 +29064,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>20014</v>
       </c>
@@ -29125,7 +29126,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>20028</v>
       </c>
@@ -29187,7 +29188,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>20062</v>
       </c>
@@ -29249,7 +29250,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>20064</v>
       </c>
@@ -29311,7 +29312,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>20067</v>
       </c>
@@ -29373,7 +29374,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>20515</v>
       </c>
@@ -29435,7 +29436,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>20522</v>
       </c>
@@ -29485,7 +29486,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>20550</v>
       </c>
@@ -29547,7 +29548,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>20609</v>
       </c>
@@ -29609,7 +29610,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>20677</v>
       </c>
@@ -29671,7 +29672,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>20725</v>
       </c>
@@ -29733,7 +29734,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>20737</v>
       </c>
@@ -29795,7 +29796,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>20739</v>
       </c>
@@ -29857,7 +29858,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>20750</v>
       </c>
@@ -29907,7 +29908,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>20769</v>
       </c>
@@ -29969,7 +29970,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>20772</v>
       </c>
@@ -30031,7 +30032,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>21070</v>
       </c>
@@ -30081,7 +30082,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>21515</v>
       </c>
@@ -30143,7 +30144,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>21576</v>
       </c>
@@ -30205,7 +30206,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>21577</v>
       </c>
@@ -30267,7 +30268,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>21647</v>
       </c>
@@ -30317,7 +30318,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>23396</v>
       </c>
@@ -30379,7 +30380,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>24053</v>
       </c>
@@ -30441,7 +30442,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>24058</v>
       </c>
@@ -30503,7 +30504,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>24059</v>
       </c>
@@ -30565,7 +30566,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>24080</v>
       </c>
@@ -30627,7 +30628,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>24906</v>
       </c>
@@ -30689,7 +30690,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>25487</v>
       </c>
@@ -30751,7 +30752,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>27675</v>
       </c>
@@ -30813,7 +30814,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>27894</v>
       </c>
@@ -30875,7 +30876,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>28322</v>
       </c>
@@ -30940,7 +30941,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>28432</v>
       </c>
@@ -31002,7 +31003,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>28477</v>
       </c>
@@ -31064,7 +31065,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>28820</v>
       </c>
@@ -31126,7 +31127,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>29418</v>
       </c>
@@ -31188,7 +31189,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>29437</v>
       </c>
@@ -31253,7 +31254,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>29452</v>
       </c>
@@ -31315,7 +31316,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>30288</v>
       </c>
@@ -31365,7 +31366,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>33452</v>
       </c>
@@ -31427,7 +31428,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>34104</v>
       </c>
@@ -31479,7 +31480,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>34109</v>
       </c>
@@ -31541,7 +31542,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>34119</v>
       </c>
@@ -31603,7 +31604,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>34123</v>
       </c>
@@ -31665,7 +31666,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>34133</v>
       </c>
@@ -31717,7 +31718,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>34207</v>
       </c>
@@ -31779,7 +31780,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>34281</v>
       </c>
@@ -31841,67 +31842,67 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
       <c r="E416"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E417"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E418"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E419"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E420"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E421"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E422"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E423"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E424"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E425"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E426"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E427"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E428"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E429"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E430"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E431"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E432"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E433"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E434"/>
     </row>
   </sheetData>
@@ -31912,7 +31913,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:U413">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U413">
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
@@ -32143,29 +32144,29 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7265625" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -32227,7 +32228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1961</v>
       </c>
@@ -32289,7 +32290,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1960</v>
       </c>
@@ -32351,7 +32352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -32373,7 +32374,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>1971</v>
       </c>
@@ -32414,7 +32415,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>1973</v>
       </c>
@@ -32458,7 +32459,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>1995</v>
       </c>
@@ -32499,7 +32500,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>1972</v>
       </c>
@@ -32540,7 +32541,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>1962</v>
       </c>
@@ -32581,7 +32582,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>1963</v>
       </c>
@@ -32622,7 +32623,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>1964</v>
       </c>
@@ -32663,7 +32664,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>1965</v>
       </c>
@@ -32704,7 +32705,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>1966</v>
       </c>
@@ -32748,7 +32749,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>1967</v>
       </c>
@@ -32792,7 +32793,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>1968</v>
       </c>
@@ -32833,7 +32834,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>1969</v>
       </c>
@@ -32874,7 +32875,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>1974</v>
       </c>
@@ -32915,7 +32916,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>1975</v>
       </c>
@@ -32956,7 +32957,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>2003</v>
       </c>
@@ -32997,7 +32998,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>1976</v>
       </c>
@@ -33038,7 +33039,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>1977</v>
       </c>
@@ -33079,7 +33080,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>1978</v>
       </c>
@@ -33120,7 +33121,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>1979</v>
       </c>
@@ -33161,7 +33162,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>1980</v>
       </c>
@@ -33202,7 +33203,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>1981</v>
       </c>
@@ -33246,7 +33247,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>1982</v>
       </c>
@@ -33290,12 +33291,12 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>1999</v>
       </c>
@@ -33339,7 +33340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>1983</v>
       </c>
@@ -33383,7 +33384,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>1984</v>
       </c>
@@ -33427,7 +33428,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>1985</v>
       </c>
@@ -33471,7 +33472,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>1986</v>
       </c>
@@ -33515,16 +33516,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E35" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T3" xr:uid="{C3BDEECB-DEA1-4819-8F62-78B8A91245CF}">
-    <sortState ref="A2:T3">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T3">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A6:N16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:N16">
     <sortCondition ref="A5"/>
   </sortState>
   <hyperlinks>
@@ -33544,16 +33545,16 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>1919</v>
       </c>
@@ -33597,7 +33598,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -33648,7 +33649,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1743</v>
       </c>
@@ -33699,7 +33700,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -33750,7 +33751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1640</v>
       </c>
@@ -33801,7 +33802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1683</v>
       </c>
@@ -33840,7 +33841,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>1744</v>
       </c>
@@ -33877,7 +33878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1669</v>
       </c>
@@ -33921,7 +33922,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1724</v>
       </c>
@@ -33937,7 +33938,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -33960,14 +33961,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>1745</v>
       </c>
@@ -33989,7 +33990,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>1653</v>
       </c>
@@ -34006,7 +34007,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="D14" s="16" t="s">
         <v>1682</v>
       </c>
@@ -34015,7 +34016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>1740</v>
       </c>
@@ -34027,12 +34028,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>1742</v>
       </c>
@@ -34044,7 +34045,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34064,29 +34065,29 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.7265625" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -34148,7 +34149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>27669</v>
       </c>
@@ -34189,7 +34190,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5580</v>
       </c>
@@ -34230,7 +34231,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2127</v>
       </c>
@@ -34282,7 +34283,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>200</v>
       </c>

--- a/resources/ABB_WorkingList_v1.0.xlsx
+++ b/resources/ABB_WorkingList_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\brisbane-bird-atlas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5C50EF-6BF2-44A0-A508-5671038F153D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD09936B-6C5B-45AD-8BD3-28403185C030}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E7CAC4A-2259-4D5B-9753-29EC3DCC188D}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB - Primary List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ABB - Primary List'!$A$1:$T$413</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ABB - Supplementary Lists'!$A$1:$T$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Quick Tables'!$G$1:$H$5</definedName>
-    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181" hidden="1">'ABB - Primary List'!$B$261:$N$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -242,7 +242,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range 1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R18"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ABBSupplementaryListsA1R181"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -6858,38 +6858,38 @@
   <dimension ref="A1:U434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.26953125" customWidth="1"/>
-    <col min="22" max="22" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>215</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>217</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>227</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>326</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>329</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>360</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>387</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>395</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>426</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>452</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>539</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>543</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>554</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>578</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>673</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>678</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1162</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1173</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1193</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1727</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1747</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1759</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1799</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1867</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1986</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2089</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2126</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2131</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2149</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2150</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2152</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2157</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2517</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2536</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2552</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2743</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3039</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3162</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3173</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3193</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3194</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3196</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3202</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3222</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3228</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3250</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3317</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3323</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3327</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3358</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3361</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3677</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3779</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3864</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3984</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5121</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5150</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5228</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5236</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5258</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5268</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5298</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5328</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>1681</v>
       </c>
       <c r="M65" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="O65" t="s">
         <v>23</v>
@@ -10875,7 +10875,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5372</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5387</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5487</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5527</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5530</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5533</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5546</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5557</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5558</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5562</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5576</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5581</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5621</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5622</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5639</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5647</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5656</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5660</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5706</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5711</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5714</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5734</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5739</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5762</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5768</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5773</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5781</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5786</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5795</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5803</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5804</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5814</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5815</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5818</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5820</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5822</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5824</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5825</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5854</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5856</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5864</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5895</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5923</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5929</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5936</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5937</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5941</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5947</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5949</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5950</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5971</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6014</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6017</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6024</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6025</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6055</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6075</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6080</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6081</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6083</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6178</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6198</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6213</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6292</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6301</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6307</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6321</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6331</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6337</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6347</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6356</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6383</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6391</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6396</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6397</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6416</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6447</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6460</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6481</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6492</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6519</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6541</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6544</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6545</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6546</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6552</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6557</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6561</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6574</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6585</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6592</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6600</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6643</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6650</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6652</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6660</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6662</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6670</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6682</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6677</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6681</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6695</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6699</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6701</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6714</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6707</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6716</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6720</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6724</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6734</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6744</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6739</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6741</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>6751</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>6754</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>6755</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>6757</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>6767</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>6775</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>6777</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>6832</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>6847</v>
       </c>
@@ -18115,7 +18115,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>6855</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>6862</v>
       </c>
@@ -18217,7 +18217,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>6873</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>6879</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>6887</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>6896</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>6897</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>6914</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>6934</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>6935</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>6986</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>7003</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>7010</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>7016</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>7056</v>
       </c>
@@ -19026,7 +19026,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>7071</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>7077</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>7083</v>
       </c>
@@ -19212,7 +19212,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7087</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7096</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7117</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>7136</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>7176</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>7211</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>7240</v>
       </c>
@@ -19646,7 +19646,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>7243</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>7267</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>7271</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>7294</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>7309</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>7313</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>7353</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>7356</v>
       </c>
@@ -20120,7 +20120,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>7368</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>7513</v>
       </c>
@@ -20244,7 +20244,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>7533</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>7587</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>7592</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>7676</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>7677</v>
       </c>
@@ -20554,7 +20554,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>7736</v>
       </c>
@@ -20616,7 +20616,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>7804</v>
       </c>
@@ -20668,7 +20668,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>7810</v>
       </c>
@@ -20730,7 +20730,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>7822</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>7823</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>7835</v>
       </c>
@@ -20916,7 +20916,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8021</v>
       </c>
@@ -20978,7 +20978,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>8026</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>8044</v>
       </c>
@@ -21102,7 +21102,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>8052</v>
       </c>
@@ -21164,7 +21164,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>8729</v>
       </c>
@@ -21226,7 +21226,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>8730</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>8737</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>9277</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>9360</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>9363</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9460</v>
       </c>
@@ -21586,7 +21586,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>9461</v>
       </c>
@@ -21648,7 +21648,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>9513</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>9517</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>9715</v>
       </c>
@@ -21834,7 +21834,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>9755</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>11330</v>
       </c>
@@ -21958,7 +21958,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>11387</v>
       </c>
@@ -22020,7 +22020,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>11391</v>
       </c>
@@ -22082,7 +22082,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>11396</v>
       </c>
@@ -22144,7 +22144,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>11417</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>11457</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>11463</v>
       </c>
@@ -22318,7 +22318,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>11467</v>
       </c>
@@ -22380,7 +22380,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>11475</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>11478</v>
       </c>
@@ -22507,7 +22507,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>11482</v>
       </c>
@@ -22572,7 +22572,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>11486</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>11502</v>
       </c>
@@ -22696,7 +22696,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>11512</v>
       </c>
@@ -22748,7 +22748,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>11557</v>
       </c>
@@ -22810,7 +22810,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>11574</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>11730</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>11733</v>
       </c>
@@ -22972,7 +22972,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>11762</v>
       </c>
@@ -23034,7 +23034,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>11773</v>
       </c>
@@ -23084,7 +23084,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>11779</v>
       </c>
@@ -23146,7 +23146,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>11792</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>11798</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>11810</v>
       </c>
@@ -23315,7 +23315,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>11909</v>
       </c>
@@ -23377,7 +23377,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>11910</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>11934</v>
       </c>
@@ -23501,7 +23501,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>11965</v>
       </c>
@@ -23563,7 +23563,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>12631</v>
       </c>
@@ -23625,7 +23625,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>16636</v>
       </c>
@@ -23687,7 +23687,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>16656</v>
       </c>
@@ -23749,7 +23749,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>16657</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>16676</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>16686</v>
       </c>
@@ -23935,7 +23935,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>16687</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>16754</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>16762</v>
       </c>
@@ -24109,7 +24109,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>16774</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>16793</v>
       </c>
@@ -24233,7 +24233,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>16828</v>
       </c>
@@ -24295,7 +24295,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>16877</v>
       </c>
@@ -24357,7 +24357,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>16878</v>
       </c>
@@ -24419,7 +24419,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>16890</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>16898</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>16899</v>
       </c>
@@ -24593,7 +24593,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>16945</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>16946</v>
       </c>
@@ -24717,7 +24717,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>16951</v>
       </c>
@@ -24779,7 +24779,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>16952</v>
       </c>
@@ -24841,7 +24841,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>16965</v>
       </c>
@@ -24903,7 +24903,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>16981</v>
       </c>
@@ -24965,7 +24965,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>17041</v>
       </c>
@@ -25015,7 +25015,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>17092</v>
       </c>
@@ -25077,7 +25077,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>17168</v>
       </c>
@@ -25139,7 +25139,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>17191</v>
       </c>
@@ -25201,7 +25201,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>17197</v>
       </c>
@@ -25263,7 +25263,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>17206</v>
       </c>
@@ -25325,7 +25325,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>17212</v>
       </c>
@@ -25387,7 +25387,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>17216</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>17218</v>
       </c>
@@ -25499,7 +25499,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>17224</v>
       </c>
@@ -25561,7 +25561,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>17261</v>
       </c>
@@ -25623,7 +25623,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>17262</v>
       </c>
@@ -25685,7 +25685,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>17264</v>
       </c>
@@ -25747,7 +25747,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>17293</v>
       </c>
@@ -25809,7 +25809,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>17308</v>
       </c>
@@ -25871,7 +25871,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>17316</v>
       </c>
@@ -25933,7 +25933,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>17354</v>
       </c>
@@ -25995,7 +25995,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>17358</v>
       </c>
@@ -26057,7 +26057,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>17397</v>
       </c>
@@ -26119,7 +26119,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>17421</v>
       </c>
@@ -26181,7 +26181,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>17447</v>
       </c>
@@ -26243,7 +26243,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>17458</v>
       </c>
@@ -26305,7 +26305,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>17473</v>
       </c>
@@ -26367,7 +26367,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>17480</v>
       </c>
@@ -26432,7 +26432,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>17485</v>
       </c>
@@ -26494,7 +26494,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>17491</v>
       </c>
@@ -26556,7 +26556,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>17501</v>
       </c>
@@ -26608,7 +26608,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>17510</v>
       </c>
@@ -26670,7 +26670,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>17536</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>17555</v>
       </c>
@@ -26794,7 +26794,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="331